--- a/BackTest/2019-11-02 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-02 BackTest PIVX.xlsx
@@ -965,7 +965,9 @@
       <c r="J12" t="n">
         <v>25</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>27.27272727272727</v>
+      </c>
       <c r="L12" t="n">
         <v>291</v>
       </c>
@@ -1016,7 +1018,9 @@
       <c r="J13" t="n">
         <v>25</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>15.78947368421053</v>
+      </c>
       <c r="L13" t="n">
         <v>291.6</v>
       </c>
@@ -1067,7 +1071,9 @@
       <c r="J14" t="n">
         <v>26</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>11.11111111111111</v>
+      </c>
       <c r="L14" t="n">
         <v>292</v>
       </c>
@@ -1112,7 +1118,9 @@
       <c r="J15" t="n">
         <v>29</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-4.761904761904762</v>
+      </c>
       <c r="L15" t="n">
         <v>291.9</v>
       </c>
@@ -1157,7 +1165,9 @@
       <c r="J16" t="n">
         <v>30</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-4.761904761904762</v>
+      </c>
       <c r="L16" t="n">
         <v>291.9</v>
       </c>
@@ -1202,7 +1212,9 @@
       <c r="J17" t="n">
         <v>33</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-37.5</v>
+      </c>
       <c r="L17" t="n">
         <v>292.1</v>
       </c>
@@ -1247,7 +1259,9 @@
       <c r="J18" t="n">
         <v>34</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-16.66666666666666</v>
+      </c>
       <c r="L18" t="n">
         <v>291.4</v>
       </c>
@@ -1292,7 +1306,9 @@
       <c r="J19" t="n">
         <v>34</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>11.11111111111111</v>
+      </c>
       <c r="L19" t="n">
         <v>291.2</v>
       </c>
@@ -1337,7 +1353,9 @@
       <c r="J20" t="n">
         <v>34</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>11.11111111111111</v>
+      </c>
       <c r="L20" t="n">
         <v>291.3</v>
       </c>
@@ -1382,7 +1400,9 @@
       <c r="J21" t="n">
         <v>35</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>291.3</v>
       </c>
@@ -1429,7 +1449,9 @@
       <c r="J22" t="n">
         <v>36</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>9.090909090909092</v>
+      </c>
       <c r="L22" t="n">
         <v>291.4</v>
       </c>
@@ -1477,7 +1499,7 @@
         <v>38</v>
       </c>
       <c r="K23" t="n">
-        <v>14.28571428571428</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L23" t="n">
         <v>291.3</v>
@@ -1526,7 +1548,7 @@
         <v>40</v>
       </c>
       <c r="K24" t="n">
-        <v>11.76470588235294</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L24" t="n">
         <v>291.3</v>
@@ -1575,7 +1597,7 @@
         <v>40</v>
       </c>
       <c r="K25" t="n">
-        <v>6.25</v>
+        <v>20</v>
       </c>
       <c r="L25" t="n">
         <v>291.6</v>
@@ -1624,7 +1646,7 @@
         <v>41</v>
       </c>
       <c r="K26" t="n">
-        <v>3.03030303030303</v>
+        <v>-25</v>
       </c>
       <c r="L26" t="n">
         <v>291.7</v>
@@ -1673,7 +1695,7 @@
         <v>42</v>
       </c>
       <c r="K27" t="n">
-        <v>-3.03030303030303</v>
+        <v>-25</v>
       </c>
       <c r="L27" t="n">
         <v>291.4</v>
@@ -1722,7 +1744,7 @@
         <v>42</v>
       </c>
       <c r="K28" t="n">
-        <v>-36</v>
+        <v>-25</v>
       </c>
       <c r="L28" t="n">
         <v>291.2</v>
@@ -1771,7 +1793,7 @@
         <v>43</v>
       </c>
       <c r="K29" t="n">
-        <v>-23.80952380952381</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L29" t="n">
         <v>290.9</v>
@@ -1820,7 +1842,7 @@
         <v>44</v>
       </c>
       <c r="K30" t="n">
-        <v>-5.263157894736842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L30" t="n">
         <v>290.7</v>
@@ -1869,7 +1891,7 @@
         <v>45</v>
       </c>
       <c r="K31" t="n">
-        <v>-10</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L31" t="n">
         <v>290.5</v>
@@ -1920,7 +1942,7 @@
         <v>45</v>
       </c>
       <c r="K32" t="n">
-        <v>-10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L32" t="n">
         <v>290.2</v>
@@ -1971,7 +1993,7 @@
         <v>46</v>
       </c>
       <c r="K33" t="n">
-        <v>-14.28571428571428</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L33" t="n">
         <v>290</v>
@@ -2022,7 +2044,7 @@
         <v>47</v>
       </c>
       <c r="K34" t="n">
-        <v>-14.28571428571428</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L34" t="n">
         <v>289.7</v>
@@ -2073,7 +2095,7 @@
         <v>47</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L35" t="n">
         <v>289.4</v>
@@ -2124,7 +2146,7 @@
         <v>47</v>
       </c>
       <c r="K36" t="n">
-        <v>-5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L36" t="n">
         <v>289.2</v>
@@ -2175,7 +2197,7 @@
         <v>47</v>
       </c>
       <c r="K37" t="n">
-        <v>-28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L37" t="n">
         <v>289.1</v>
@@ -2226,7 +2248,7 @@
         <v>48</v>
       </c>
       <c r="K38" t="n">
-        <v>-28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L38" t="n">
         <v>288.9</v>
@@ -2277,7 +2299,7 @@
         <v>49</v>
       </c>
       <c r="K39" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L39" t="n">
         <v>288.7</v>
@@ -2328,7 +2350,7 @@
         <v>49</v>
       </c>
       <c r="K40" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L40" t="n">
         <v>288.4</v>
@@ -2379,7 +2401,7 @@
         <v>51</v>
       </c>
       <c r="K41" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>288.4</v>
@@ -2430,7 +2452,7 @@
         <v>52</v>
       </c>
       <c r="K42" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>288.3</v>
@@ -2481,7 +2503,7 @@
         <v>54</v>
       </c>
       <c r="K43" t="n">
-        <v>-25</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L43" t="n">
         <v>288.1</v>
@@ -2532,7 +2554,7 @@
         <v>55</v>
       </c>
       <c r="K44" t="n">
-        <v>-46.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L44" t="n">
         <v>287.7</v>
@@ -2583,7 +2605,7 @@
         <v>57</v>
       </c>
       <c r="K45" t="n">
-        <v>-29.41176470588236</v>
+        <v>-20</v>
       </c>
       <c r="L45" t="n">
         <v>287.5</v>
@@ -2634,7 +2656,7 @@
         <v>60</v>
       </c>
       <c r="K46" t="n">
-        <v>-36.84210526315789</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L46" t="n">
         <v>287</v>
@@ -2685,7 +2707,7 @@
         <v>63</v>
       </c>
       <c r="K47" t="n">
-        <v>-14.28571428571428</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L47" t="n">
         <v>286.8</v>
@@ -2736,7 +2758,7 @@
         <v>67</v>
       </c>
       <c r="K48" t="n">
-        <v>-28</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L48" t="n">
         <v>286.3</v>
@@ -2787,7 +2809,7 @@
         <v>69</v>
       </c>
       <c r="K49" t="n">
-        <v>-15.38461538461539</v>
+        <v>-10</v>
       </c>
       <c r="L49" t="n">
         <v>286.1</v>
@@ -2838,7 +2860,7 @@
         <v>69</v>
       </c>
       <c r="K50" t="n">
-        <v>-20</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L50" t="n">
         <v>285.9</v>
@@ -2889,7 +2911,7 @@
         <v>69</v>
       </c>
       <c r="K51" t="n">
-        <v>-16.66666666666666</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L51" t="n">
         <v>285.5</v>
@@ -2940,7 +2962,7 @@
         <v>69</v>
       </c>
       <c r="K52" t="n">
-        <v>-16.66666666666666</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L52" t="n">
         <v>285.2</v>
@@ -2991,7 +3013,7 @@
         <v>70</v>
       </c>
       <c r="K53" t="n">
-        <v>-16.66666666666666</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L53" t="n">
         <v>285</v>
@@ -3042,7 +3064,7 @@
         <v>70</v>
       </c>
       <c r="K54" t="n">
-        <v>-21.73913043478261</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L54" t="n">
         <v>284.9</v>
@@ -3093,7 +3115,7 @@
         <v>70</v>
       </c>
       <c r="K55" t="n">
-        <v>-21.73913043478261</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>284.6</v>
@@ -3144,7 +3166,7 @@
         <v>71</v>
       </c>
       <c r="K56" t="n">
-        <v>-16.66666666666666</v>
+        <v>-25</v>
       </c>
       <c r="L56" t="n">
         <v>284.7</v>
@@ -3195,7 +3217,7 @@
         <v>72</v>
       </c>
       <c r="K57" t="n">
-        <v>-12</v>
+        <v>60</v>
       </c>
       <c r="L57" t="n">
         <v>284.6</v>
@@ -3246,7 +3268,7 @@
         <v>72</v>
       </c>
       <c r="K58" t="n">
-        <v>-8.333333333333332</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>284.9</v>
@@ -3297,7 +3319,7 @@
         <v>73</v>
       </c>
       <c r="K59" t="n">
-        <v>-8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>284.9</v>
@@ -3348,7 +3370,7 @@
         <v>75</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L60" t="n">
         <v>285.1</v>
@@ -3399,7 +3421,7 @@
         <v>76</v>
       </c>
       <c r="K61" t="n">
-        <v>-12</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L61" t="n">
         <v>285.2</v>
@@ -3450,7 +3472,7 @@
         <v>76</v>
       </c>
       <c r="K62" t="n">
-        <v>-8.333333333333332</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L62" t="n">
         <v>285.3</v>
@@ -3501,7 +3523,7 @@
         <v>77</v>
       </c>
       <c r="K63" t="n">
-        <v>-4.347826086956522</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L63" t="n">
         <v>285.4</v>
@@ -3552,7 +3574,7 @@
         <v>78</v>
       </c>
       <c r="K64" t="n">
-        <v>4.347826086956522</v>
+        <v>25</v>
       </c>
       <c r="L64" t="n">
         <v>285.6</v>
@@ -3603,7 +3625,7 @@
         <v>84</v>
       </c>
       <c r="K65" t="n">
-        <v>-25.92592592592592</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L65" t="n">
         <v>285.2</v>
@@ -3654,7 +3676,7 @@
         <v>84</v>
       </c>
       <c r="K66" t="n">
-        <v>-16.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L66" t="n">
         <v>284.7</v>
@@ -3705,7 +3727,7 @@
         <v>87</v>
       </c>
       <c r="K67" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L67" t="n">
         <v>284.4</v>
@@ -3756,7 +3778,7 @@
         <v>90</v>
       </c>
       <c r="K68" t="n">
-        <v>13.04347826086956</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L68" t="n">
         <v>284.4</v>
@@ -3807,7 +3829,7 @@
         <v>93</v>
       </c>
       <c r="K69" t="n">
-        <v>16.66666666666666</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L69" t="n">
         <v>284.8</v>
@@ -3858,7 +3880,7 @@
         <v>95</v>
       </c>
       <c r="K70" t="n">
-        <v>7.692307692307693</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L70" t="n">
         <v>284.8</v>
@@ -3909,7 +3931,7 @@
         <v>98</v>
       </c>
       <c r="K71" t="n">
-        <v>17.24137931034483</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L71" t="n">
         <v>285.2</v>
@@ -3960,7 +3982,7 @@
         <v>101</v>
       </c>
       <c r="K72" t="n">
-        <v>6.25</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L72" t="n">
         <v>285.3</v>
@@ -4011,7 +4033,7 @@
         <v>103</v>
       </c>
       <c r="K73" t="n">
-        <v>15.15151515151515</v>
+        <v>12</v>
       </c>
       <c r="L73" t="n">
         <v>285.7</v>
@@ -4062,7 +4084,7 @@
         <v>103</v>
       </c>
       <c r="K74" t="n">
-        <v>15.15151515151515</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L74" t="n">
         <v>286</v>
@@ -4113,7 +4135,7 @@
         <v>104</v>
       </c>
       <c r="K75" t="n">
-        <v>17.64705882352941</v>
+        <v>50</v>
       </c>
       <c r="L75" t="n">
         <v>287</v>
@@ -4164,7 +4186,7 @@
         <v>104</v>
       </c>
       <c r="K76" t="n">
-        <v>15.15151515151515</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L76" t="n">
         <v>288</v>
@@ -4215,7 +4237,7 @@
         <v>105</v>
       </c>
       <c r="K77" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L77" t="n">
         <v>288.6</v>
@@ -4317,7 +4339,7 @@
         <v>107</v>
       </c>
       <c r="K79" t="n">
-        <v>17.64705882352941</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L79" t="n">
         <v>289.3</v>
@@ -4368,7 +4390,7 @@
         <v>109</v>
       </c>
       <c r="K80" t="n">
-        <v>5.88235294117647</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L80" t="n">
         <v>289.5</v>
@@ -4419,7 +4441,7 @@
         <v>111</v>
       </c>
       <c r="K81" t="n">
-        <v>14.28571428571428</v>
+        <v>40</v>
       </c>
       <c r="L81" t="n">
         <v>289.6</v>
@@ -4470,7 +4492,7 @@
         <v>115</v>
       </c>
       <c r="K82" t="n">
-        <v>2.564102564102564</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L82" t="n">
         <v>289.6</v>
@@ -4521,7 +4543,7 @@
         <v>117</v>
       </c>
       <c r="K83" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>289.6</v>
@@ -4572,7 +4594,7 @@
         <v>119</v>
       </c>
       <c r="K84" t="n">
-        <v>2.439024390243902</v>
+        <v>-20</v>
       </c>
       <c r="L84" t="n">
         <v>289.4</v>
@@ -4623,7 +4645,7 @@
         <v>119</v>
       </c>
       <c r="K85" t="n">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="L85" t="n">
         <v>289.1</v>
@@ -4674,7 +4696,7 @@
         <v>119</v>
       </c>
       <c r="K86" t="n">
-        <v>20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L86" t="n">
         <v>288.8</v>
@@ -4725,7 +4747,7 @@
         <v>120</v>
       </c>
       <c r="K87" t="n">
-        <v>15.15151515151515</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L87" t="n">
         <v>288.7</v>
@@ -4776,7 +4798,7 @@
         <v>122</v>
       </c>
       <c r="K88" t="n">
-        <v>12.5</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L88" t="n">
         <v>288.6</v>
@@ -4827,7 +4849,7 @@
         <v>122</v>
       </c>
       <c r="K89" t="n">
-        <v>3.448275862068965</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L89" t="n">
         <v>288.5</v>
@@ -4878,7 +4900,7 @@
         <v>123</v>
       </c>
       <c r="K90" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>288.7</v>
@@ -4929,7 +4951,7 @@
         <v>124</v>
       </c>
       <c r="K91" t="n">
-        <v>7.692307692307693</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L91" t="n">
         <v>288.8</v>
@@ -4980,7 +5002,7 @@
         <v>126</v>
       </c>
       <c r="K92" t="n">
-        <v>28</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L92" t="n">
         <v>289.5</v>
@@ -5031,7 +5053,7 @@
         <v>126</v>
       </c>
       <c r="K93" t="n">
-        <v>21.73913043478261</v>
+        <v>100</v>
       </c>
       <c r="L93" t="n">
         <v>290</v>
@@ -5082,7 +5104,7 @@
         <v>127</v>
       </c>
       <c r="K94" t="n">
-        <v>16.66666666666666</v>
+        <v>75</v>
       </c>
       <c r="L94" t="n">
         <v>290.6</v>
@@ -5133,7 +5155,7 @@
         <v>129</v>
       </c>
       <c r="K95" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L95" t="n">
         <v>291.4</v>
@@ -5184,7 +5206,7 @@
         <v>129</v>
       </c>
       <c r="K96" t="n">
-        <v>20</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L96" t="n">
         <v>292.2</v>
@@ -5235,7 +5257,7 @@
         <v>132</v>
       </c>
       <c r="K97" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L97" t="n">
         <v>292.6</v>
@@ -5286,7 +5308,7 @@
         <v>133</v>
       </c>
       <c r="K98" t="n">
-        <v>7.692307692307693</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L98" t="n">
         <v>292.9</v>
@@ -5337,7 +5359,7 @@
         <v>133</v>
       </c>
       <c r="K99" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L99" t="n">
         <v>293.2</v>
@@ -5388,7 +5410,7 @@
         <v>133</v>
       </c>
       <c r="K100" t="n">
-        <v>16.66666666666666</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L100" t="n">
         <v>293.4</v>
@@ -5439,7 +5461,7 @@
         <v>135</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L101" t="n">
         <v>293.3</v>
@@ -5490,7 +5512,7 @@
         <v>135</v>
       </c>
       <c r="K102" t="n">
-        <v>20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L102" t="n">
         <v>293</v>
@@ -5541,7 +5563,7 @@
         <v>135</v>
       </c>
       <c r="K103" t="n">
-        <v>11.11111111111111</v>
+        <v>-25</v>
       </c>
       <c r="L103" t="n">
         <v>292.7</v>
@@ -5592,7 +5614,7 @@
         <v>136</v>
       </c>
       <c r="K104" t="n">
-        <v>17.64705882352941</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L104" t="n">
         <v>292.4</v>
@@ -5643,7 +5665,7 @@
         <v>138</v>
       </c>
       <c r="K105" t="n">
-        <v>26.31578947368421</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L105" t="n">
         <v>292.1</v>
@@ -5694,7 +5716,7 @@
         <v>139</v>
       </c>
       <c r="K106" t="n">
-        <v>20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L106" t="n">
         <v>291.7</v>
@@ -5745,7 +5767,7 @@
         <v>141</v>
       </c>
       <c r="K107" t="n">
-        <v>23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>291.8</v>
@@ -5796,7 +5818,7 @@
         <v>141</v>
       </c>
       <c r="K108" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>291.8</v>
@@ -5847,7 +5869,7 @@
         <v>142</v>
       </c>
       <c r="K109" t="n">
-        <v>10</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L109" t="n">
         <v>291.7</v>
@@ -5898,7 +5920,7 @@
         <v>144</v>
       </c>
       <c r="K110" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L110" t="n">
         <v>291.8</v>
@@ -5949,7 +5971,7 @@
         <v>147</v>
       </c>
       <c r="K111" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>291.8</v>
@@ -6000,7 +6022,7 @@
         <v>147</v>
       </c>
       <c r="K112" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>291.8</v>
@@ -6051,7 +6073,7 @@
         <v>149</v>
       </c>
       <c r="K113" t="n">
-        <v>-21.73913043478261</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L113" t="n">
         <v>291.6</v>
@@ -6102,7 +6124,7 @@
         <v>149</v>
       </c>
       <c r="K114" t="n">
-        <v>-18.18181818181818</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L114" t="n">
         <v>291.5</v>
@@ -6153,7 +6175,7 @@
         <v>149</v>
       </c>
       <c r="K115" t="n">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="L115" t="n">
         <v>291.2</v>
@@ -6204,7 +6226,7 @@
         <v>150</v>
       </c>
       <c r="K116" t="n">
-        <v>-33.33333333333333</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L116" t="n">
         <v>290.9</v>
@@ -6255,7 +6277,7 @@
         <v>150</v>
       </c>
       <c r="K117" t="n">
-        <v>-22.22222222222222</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L117" t="n">
         <v>290.4</v>
@@ -6306,7 +6328,7 @@
         <v>150</v>
       </c>
       <c r="K118" t="n">
-        <v>-29.41176470588236</v>
+        <v>-50</v>
       </c>
       <c r="L118" t="n">
         <v>289.9</v>
@@ -6357,7 +6379,7 @@
         <v>155</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L119" t="n">
         <v>290</v>
@@ -6408,7 +6430,7 @@
         <v>157</v>
       </c>
       <c r="K120" t="n">
-        <v>-8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>289.7</v>
@@ -6459,7 +6481,7 @@
         <v>158</v>
       </c>
       <c r="K121" t="n">
-        <v>-4.347826086956522</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L121" t="n">
         <v>289.6</v>
@@ -6510,7 +6532,7 @@
         <v>160</v>
       </c>
       <c r="K122" t="n">
-        <v>-12</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L122" t="n">
         <v>289.3</v>
@@ -6561,7 +6583,7 @@
         <v>161</v>
       </c>
       <c r="K123" t="n">
-        <v>-15.38461538461539</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L123" t="n">
         <v>289.1</v>
@@ -6663,7 +6685,7 @@
         <v>164</v>
       </c>
       <c r="K125" t="n">
-        <v>-23.07692307692308</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L125" t="n">
         <v>288.7</v>
@@ -6714,7 +6736,7 @@
         <v>167</v>
       </c>
       <c r="K126" t="n">
-        <v>-7.142857142857142</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L126" t="n">
         <v>288.8</v>
@@ -6765,7 +6787,7 @@
         <v>168</v>
       </c>
       <c r="K127" t="n">
-        <v>-18.51851851851852</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>288.8</v>
@@ -6816,7 +6838,7 @@
         <v>168</v>
       </c>
       <c r="K128" t="n">
-        <v>-18.51851851851852</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L128" t="n">
         <v>288.8</v>
@@ -6867,7 +6889,7 @@
         <v>168</v>
       </c>
       <c r="K129" t="n">
-        <v>-15.38461538461539</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L129" t="n">
         <v>288.3</v>
@@ -6918,7 +6940,7 @@
         <v>172</v>
       </c>
       <c r="K130" t="n">
-        <v>-35.71428571428572</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L130" t="n">
         <v>287.6</v>
@@ -6969,7 +6991,7 @@
         <v>178</v>
       </c>
       <c r="K131" t="n">
-        <v>-3.225806451612903</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L131" t="n">
         <v>287.6</v>
@@ -7020,7 +7042,7 @@
         <v>180</v>
       </c>
       <c r="K132" t="n">
-        <v>-9.090909090909092</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L132" t="n">
         <v>287.6</v>
@@ -7071,7 +7093,7 @@
         <v>180</v>
       </c>
       <c r="K133" t="n">
-        <v>-3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>287.7</v>
@@ -7122,7 +7144,7 @@
         <v>181</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L134" t="n">
         <v>287.8</v>
@@ -7173,7 +7195,7 @@
         <v>182</v>
       </c>
       <c r="K135" t="n">
-        <v>3.03030303030303</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L135" t="n">
         <v>288.2</v>
@@ -7224,7 +7246,7 @@
         <v>184</v>
       </c>
       <c r="K136" t="n">
-        <v>11.76470588235294</v>
+        <v>25</v>
       </c>
       <c r="L136" t="n">
         <v>288.5</v>
@@ -7275,7 +7297,7 @@
         <v>185</v>
       </c>
       <c r="K137" t="n">
-        <v>14.28571428571428</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L137" t="n">
         <v>289</v>
@@ -7326,7 +7348,7 @@
         <v>186</v>
       </c>
       <c r="K138" t="n">
-        <v>11.11111111111111</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L138" t="n">
         <v>289.4</v>
@@ -7377,7 +7399,7 @@
         <v>186</v>
       </c>
       <c r="K139" t="n">
-        <v>-3.225806451612903</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L139" t="n">
         <v>289.8</v>
@@ -7428,7 +7450,7 @@
         <v>187</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L140" t="n">
         <v>290.5</v>
@@ -7479,7 +7501,7 @@
         <v>188</v>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L141" t="n">
         <v>290.5</v>
@@ -7530,7 +7552,7 @@
         <v>188</v>
       </c>
       <c r="K142" t="n">
-        <v>7.142857142857142</v>
+        <v>25</v>
       </c>
       <c r="L142" t="n">
         <v>290.7</v>
@@ -7581,7 +7603,7 @@
         <v>188</v>
       </c>
       <c r="K143" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L143" t="n">
         <v>290.9</v>
@@ -7632,7 +7654,7 @@
         <v>190</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L144" t="n">
         <v>290.8</v>
@@ -7683,7 +7705,7 @@
         <v>193</v>
       </c>
       <c r="K145" t="n">
-        <v>17.24137931034483</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L145" t="n">
         <v>290.9</v>
@@ -7734,7 +7756,7 @@
         <v>193</v>
       </c>
       <c r="K146" t="n">
-        <v>7.692307692307693</v>
+        <v>-25</v>
       </c>
       <c r="L146" t="n">
         <v>290.8</v>
@@ -7785,7 +7807,7 @@
         <v>194</v>
       </c>
       <c r="K147" t="n">
-        <v>7.692307692307693</v>
+        <v>-25</v>
       </c>
       <c r="L147" t="n">
         <v>290.5</v>
@@ -7836,7 +7858,7 @@
         <v>195</v>
       </c>
       <c r="K148" t="n">
-        <v>11.11111111111111</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L148" t="n">
         <v>290.4</v>
@@ -7887,7 +7909,7 @@
         <v>195</v>
       </c>
       <c r="K149" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
         <v>290.3</v>
@@ -7938,7 +7960,7 @@
         <v>198</v>
       </c>
       <c r="K150" t="n">
-        <v>15.38461538461539</v>
+        <v>-20</v>
       </c>
       <c r="L150" t="n">
         <v>290</v>

--- a/BackTest/2019-11-02 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-02 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S150"/>
+  <dimension ref="A1:M129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -481,19 +451,15 @@
         <v>286.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,27 +521,15 @@
         <v>286.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>6</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
-        <v>285</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="n">
-        <v>285</v>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -610,31 +556,15 @@
         <v>286.9</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
-        <v>288</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
-        <v>285</v>
-      </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -664,26 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>285</v>
-      </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -713,26 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
-        <v>285</v>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -762,26 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
-      </c>
-      <c r="J8" t="n">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
-        <v>285</v>
-      </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -811,26 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v>285</v>
-      </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -860,26 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
-        <v>285</v>
-      </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -909,28 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>290.7</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>285</v>
-      </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -960,30 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>25</v>
-      </c>
-      <c r="K12" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L12" t="n">
-        <v>291</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
-        <v>285</v>
-      </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1013,30 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>25</v>
-      </c>
-      <c r="K13" t="n">
-        <v>15.78947368421053</v>
-      </c>
-      <c r="L13" t="n">
-        <v>291.6</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q13" t="n">
-        <v>285</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1066,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>26</v>
-      </c>
-      <c r="K14" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L14" t="n">
-        <v>292</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>29</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-4.761904761904762</v>
-      </c>
-      <c r="L15" t="n">
-        <v>291.9</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>30</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-4.761904761904762</v>
-      </c>
-      <c r="L16" t="n">
-        <v>291.9</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1207,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>33</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="L17" t="n">
-        <v>292.1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1254,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>34</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L18" t="n">
-        <v>291.4</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1301,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>34</v>
-      </c>
-      <c r="K19" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L19" t="n">
-        <v>291.2</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1348,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>34</v>
-      </c>
-      <c r="K20" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L20" t="n">
-        <v>291.3</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1395,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>35</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>291.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>291</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J22" t="n">
-        <v>36</v>
-      </c>
-      <c r="K22" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L22" t="n">
-        <v>291.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>291.2</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1493,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>38</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L23" t="n">
-        <v>291.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>291.45</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1542,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
-      </c>
-      <c r="J24" t="n">
-        <v>40</v>
-      </c>
-      <c r="K24" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L24" t="n">
-        <v>291.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>291.65</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1591,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>40</v>
-      </c>
-      <c r="K25" t="n">
-        <v>20</v>
-      </c>
-      <c r="L25" t="n">
-        <v>291.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>291.75</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1640,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>41</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L26" t="n">
-        <v>291.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>291.8</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1689,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>42</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L27" t="n">
-        <v>291.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>291.75</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1738,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>42</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L28" t="n">
-        <v>291.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>291.3</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1787,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>43</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L29" t="n">
-        <v>290.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>291.05</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1836,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>44</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L30" t="n">
-        <v>290.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>291</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1885,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>45</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L31" t="n">
-        <v>290.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>290.9</v>
-      </c>
-      <c r="N31" t="n">
-        <v>290.8333333333333</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1936,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>45</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L32" t="n">
-        <v>290.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>290.8</v>
-      </c>
-      <c r="N32" t="n">
-        <v>290.8666666666667</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1989,26 +1541,10 @@
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>46</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L33" t="n">
-        <v>290</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>290.65</v>
-      </c>
-      <c r="N33" t="n">
-        <v>290.9666666666666</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2038,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>47</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L34" t="n">
-        <v>289.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>290.5</v>
-      </c>
-      <c r="N34" t="n">
-        <v>291</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2089,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>47</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L35" t="n">
-        <v>289.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>290.5</v>
-      </c>
-      <c r="N35" t="n">
-        <v>290.9666666666666</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2140,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>47</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L36" t="n">
-        <v>289.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>290.45</v>
-      </c>
-      <c r="N36" t="n">
-        <v>290.9333333333333</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2191,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>47</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L37" t="n">
-        <v>289.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>290.25</v>
-      </c>
-      <c r="N37" t="n">
-        <v>290.8666666666667</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2244,26 +1716,10 @@
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>48</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L38" t="n">
-        <v>288.9</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>290.05</v>
-      </c>
-      <c r="N38" t="n">
-        <v>290.5</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2293,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>49</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L39" t="n">
-        <v>288.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>289.8</v>
-      </c>
-      <c r="N39" t="n">
-        <v>290.2666666666667</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2344,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>49</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L40" t="n">
-        <v>288.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>289.55</v>
-      </c>
-      <c r="N40" t="n">
-        <v>290.1333333333333</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2395,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>51</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>288.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>289.45</v>
-      </c>
-      <c r="N41" t="n">
-        <v>290.0666666666667</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2448,26 +1856,10 @@
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>52</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>288.3</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>289.25</v>
-      </c>
-      <c r="N42" t="n">
-        <v>289.9666666666666</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2497,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>54</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L43" t="n">
-        <v>288.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>289.05</v>
-      </c>
-      <c r="N43" t="n">
-        <v>289.8</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J44" t="n">
-        <v>55</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L44" t="n">
-        <v>287.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>288.7</v>
-      </c>
-      <c r="N44" t="n">
-        <v>289.5666666666667</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2599,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>57</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L45" t="n">
-        <v>287.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>288.45</v>
-      </c>
-      <c r="N45" t="n">
-        <v>289.5</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2650,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J46" t="n">
-        <v>60</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-38.46153846153847</v>
-      </c>
-      <c r="L46" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>288.1</v>
-      </c>
-      <c r="N46" t="n">
-        <v>289.3</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2701,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>63</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L47" t="n">
-        <v>286.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>287.95</v>
-      </c>
-      <c r="N47" t="n">
-        <v>289.1</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2752,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J48" t="n">
-        <v>67</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L48" t="n">
-        <v>286.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>287.6</v>
-      </c>
-      <c r="N48" t="n">
-        <v>288.8</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2803,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J49" t="n">
-        <v>69</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L49" t="n">
-        <v>286.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>287.4</v>
-      </c>
-      <c r="N49" t="n">
-        <v>288.5666666666667</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2851,31 +2131,19 @@
         <v>290.7333333333333</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>69</v>
+        <v>285</v>
       </c>
       <c r="K50" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L50" t="n">
-        <v>285.9</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>287.15</v>
-      </c>
-      <c r="N50" t="n">
-        <v>288.3333333333333</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2902,31 +2170,23 @@
         <v>290.45</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>69</v>
+        <v>285</v>
       </c>
       <c r="K51" t="n">
-        <v>-17.64705882352941</v>
-      </c>
-      <c r="L51" t="n">
-        <v>285.5</v>
+        <v>285</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>286.95</v>
-      </c>
-      <c r="N51" t="n">
-        <v>288.1333333333333</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2953,31 +2213,23 @@
         <v>290.2</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>69</v>
+        <v>285</v>
       </c>
       <c r="K52" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L52" t="n">
-        <v>285.2</v>
+        <v>285</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>286.75</v>
-      </c>
-      <c r="N52" t="n">
-        <v>287.9</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3004,31 +2256,23 @@
         <v>289.9333333333333</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>70</v>
+        <v>285</v>
       </c>
       <c r="K53" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L53" t="n">
-        <v>285</v>
+        <v>285</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>286.55</v>
-      </c>
-      <c r="N53" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3055,31 +2299,23 @@
         <v>289.6</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>70</v>
+        <v>284</v>
       </c>
       <c r="K54" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L54" t="n">
-        <v>284.9</v>
+        <v>285</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>286.3</v>
-      </c>
-      <c r="N54" t="n">
-        <v>287.4333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3106,31 +2342,23 @@
         <v>289.25</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>70</v>
+        <v>284</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>284.6</v>
+        <v>285</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>286.05</v>
-      </c>
-      <c r="N55" t="n">
-        <v>287.1666666666667</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3157,31 +2385,23 @@
         <v>289.0666666666667</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>71</v>
+        <v>285</v>
       </c>
       <c r="K56" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L56" t="n">
-        <v>284.7</v>
+        <v>285</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>285.85</v>
-      </c>
-      <c r="N56" t="n">
-        <v>286.9666666666666</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3211,28 +2431,18 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J57" t="n">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>60</v>
-      </c>
-      <c r="L57" t="n">
-        <v>284.6</v>
+        <v>285</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>285.7</v>
-      </c>
-      <c r="N57" t="n">
-        <v>286.8333333333333</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3259,31 +2469,23 @@
         <v>288.8333333333333</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>72</v>
+        <v>286</v>
       </c>
       <c r="K58" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L58" t="n">
-        <v>284.9</v>
+        <v>285</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>285.6</v>
-      </c>
-      <c r="N58" t="n">
-        <v>286.7</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3310,31 +2512,23 @@
         <v>288.75</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>73</v>
+        <v>285</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>284.9</v>
+        <v>285</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>285.5</v>
-      </c>
-      <c r="N59" t="n">
-        <v>286.5666666666667</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3361,31 +2555,23 @@
         <v>288.7</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>75</v>
+        <v>284</v>
       </c>
       <c r="K60" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L60" t="n">
-        <v>285.1</v>
+        <v>285</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>285.5</v>
-      </c>
-      <c r="N60" t="n">
-        <v>286.4666666666666</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3412,31 +2598,23 @@
         <v>288.6</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="K61" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L61" t="n">
-        <v>285.2</v>
+        <v>285</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>285.35</v>
-      </c>
-      <c r="N61" t="n">
-        <v>286.3666666666667</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3463,31 +2641,23 @@
         <v>288.5666666666667</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="K62" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L62" t="n">
-        <v>285.3</v>
+        <v>285</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>285.25</v>
-      </c>
-      <c r="N62" t="n">
-        <v>286.2666666666667</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3514,31 +2684,23 @@
         <v>288.5666666666667</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="K63" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L63" t="n">
-        <v>285.4</v>
+        <v>285</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>285.2</v>
-      </c>
-      <c r="N63" t="n">
-        <v>286.1666666666667</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3565,31 +2727,23 @@
         <v>288.5333333333334</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="K64" t="n">
-        <v>25</v>
-      </c>
-      <c r="L64" t="n">
-        <v>285.6</v>
+        <v>285</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>285.25</v>
-      </c>
-      <c r="N64" t="n">
-        <v>286.0666666666667</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3616,31 +2770,23 @@
         <v>288.3666666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>84</v>
+        <v>285</v>
       </c>
       <c r="K65" t="n">
-        <v>-38.46153846153847</v>
-      </c>
-      <c r="L65" t="n">
-        <v>285.2</v>
+        <v>285</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>284.9</v>
-      </c>
-      <c r="N65" t="n">
-        <v>285.7666666666667</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3667,31 +2813,23 @@
         <v>288.2</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>84</v>
+        <v>281</v>
       </c>
       <c r="K66" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L66" t="n">
-        <v>284.7</v>
+        <v>285</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>284.7</v>
-      </c>
-      <c r="N66" t="n">
-        <v>285.4666666666666</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3718,31 +2856,23 @@
         <v>288.0666666666667</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>87</v>
+        <v>284</v>
       </c>
       <c r="K67" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L67" t="n">
-        <v>284.4</v>
+        <v>285</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>284.5</v>
-      </c>
-      <c r="N67" t="n">
-        <v>285.2666666666667</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3769,31 +2899,23 @@
         <v>287.85</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>90</v>
+        <v>285</v>
       </c>
       <c r="K68" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L68" t="n">
-        <v>284.4</v>
+        <v>285</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>284.65</v>
-      </c>
-      <c r="N68" t="n">
-        <v>285.2</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,31 +2942,23 @@
         <v>287.7666666666667</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>93</v>
+        <v>287</v>
       </c>
       <c r="K69" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L69" t="n">
-        <v>284.8</v>
+        <v>285</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>284.85</v>
-      </c>
-      <c r="N69" t="n">
-        <v>285.2666666666667</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3871,31 +2985,23 @@
         <v>287.7</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>95</v>
+        <v>288</v>
       </c>
       <c r="K70" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L70" t="n">
-        <v>284.8</v>
+        <v>285</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>284.95</v>
-      </c>
-      <c r="N70" t="n">
-        <v>285.2666666666667</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3922,31 +3028,23 @@
         <v>287.6833333333333</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>98</v>
+        <v>289</v>
       </c>
       <c r="K71" t="n">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="L71" t="n">
-        <v>285.2</v>
+        <v>285</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>285.2</v>
-      </c>
-      <c r="N71" t="n">
-        <v>285.3</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3973,31 +3071,23 @@
         <v>287.6166666666667</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>101</v>
+        <v>287</v>
       </c>
       <c r="K72" t="n">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="L72" t="n">
-        <v>285.3</v>
+        <v>285</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>285.3</v>
-      </c>
-      <c r="N72" t="n">
-        <v>285.2666666666667</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4024,31 +3114,23 @@
         <v>287.5833333333333</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>103</v>
+        <v>288</v>
       </c>
       <c r="K73" t="n">
-        <v>12</v>
-      </c>
-      <c r="L73" t="n">
-        <v>285.7</v>
+        <v>285</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>285.55</v>
-      </c>
-      <c r="N73" t="n">
-        <v>285.3666666666667</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4075,31 +3157,23 @@
         <v>287.5333333333334</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>103</v>
+        <v>289</v>
       </c>
       <c r="K74" t="n">
-        <v>47.36842105263158</v>
-      </c>
-      <c r="L74" t="n">
-        <v>286</v>
+        <v>285</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>285.8</v>
-      </c>
-      <c r="N74" t="n">
-        <v>285.5</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4126,31 +3200,23 @@
         <v>287.55</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>104</v>
+        <v>290</v>
       </c>
       <c r="K75" t="n">
-        <v>50</v>
-      </c>
-      <c r="L75" t="n">
-        <v>287</v>
+        <v>285</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>286.1</v>
-      </c>
-      <c r="N75" t="n">
-        <v>285.6</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4177,31 +3243,23 @@
         <v>287.55</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>104</v>
+        <v>290</v>
       </c>
       <c r="K76" t="n">
-        <v>41.17647058823529</v>
-      </c>
-      <c r="L76" t="n">
-        <v>288</v>
+        <v>285</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>286.35</v>
-      </c>
-      <c r="N76" t="n">
-        <v>285.8</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4231,28 +3289,18 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>20</v>
-      </c>
-      <c r="L77" t="n">
-        <v>288.6</v>
+        <v>285</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>286.5</v>
-      </c>
-      <c r="N77" t="n">
-        <v>285.8666666666667</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4282,28 +3330,18 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
-      </c>
-      <c r="J78" t="n">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L78" t="n">
-        <v>289.1</v>
+        <v>285</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>286.75</v>
-      </c>
-      <c r="N78" t="n">
-        <v>286.1333333333333</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,28 +3371,18 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
-      </c>
-      <c r="J79" t="n">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L79" t="n">
-        <v>289.3</v>
+        <v>285</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>287.05</v>
-      </c>
-      <c r="N79" t="n">
-        <v>286.3333333333333</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,28 +3412,18 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L80" t="n">
-        <v>289.5</v>
+        <v>285</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>287.15</v>
-      </c>
-      <c r="N80" t="n">
-        <v>286.4666666666666</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4435,28 +3453,18 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
-      </c>
-      <c r="J81" t="n">
-        <v>111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>40</v>
-      </c>
-      <c r="L81" t="n">
-        <v>289.6</v>
+        <v>285</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>287.4</v>
-      </c>
-      <c r="N81" t="n">
-        <v>286.6666666666667</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4486,28 +3494,18 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L82" t="n">
-        <v>289.6</v>
+        <v>285</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>287.45</v>
-      </c>
-      <c r="N82" t="n">
-        <v>286.7333333333333</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4537,28 +3535,18 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>289.6</v>
+        <v>285</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>287.65</v>
-      </c>
-      <c r="N83" t="n">
-        <v>286.9</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4588,28 +3576,18 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L84" t="n">
-        <v>289.4</v>
+        <v>285</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="N84" t="n">
-        <v>287</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4639,28 +3617,18 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L85" t="n">
-        <v>289.1</v>
+        <v>285</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>288.05</v>
-      </c>
-      <c r="N85" t="n">
-        <v>287.1</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4690,28 +3658,18 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L86" t="n">
-        <v>288.8</v>
+        <v>285</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>288.4</v>
-      </c>
-      <c r="N86" t="n">
-        <v>287.1666666666667</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4743,26 +3701,16 @@
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>120</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L87" t="n">
-        <v>288.7</v>
+        <v>285</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>288.65</v>
-      </c>
-      <c r="N87" t="n">
-        <v>287.2333333333333</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4789,31 +3737,23 @@
         <v>287.0333333333334</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>122</v>
+        <v>289</v>
       </c>
       <c r="K88" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L88" t="n">
-        <v>288.6</v>
+        <v>285</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>288.85</v>
-      </c>
-      <c r="N88" t="n">
-        <v>287.3666666666667</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4843,28 +3783,18 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
-      </c>
-      <c r="J89" t="n">
-        <v>122</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L89" t="n">
-        <v>288.5</v>
+        <v>285</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>288.9</v>
-      </c>
-      <c r="N89" t="n">
-        <v>287.5333333333334</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4894,28 +3824,18 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
-      </c>
-      <c r="J90" t="n">
-        <v>123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" t="n">
-        <v>288.7</v>
+        <v>285</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>289.1</v>
-      </c>
-      <c r="N90" t="n">
-        <v>287.6666666666667</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4945,28 +3865,18 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>4</v>
-      </c>
-      <c r="J91" t="n">
-        <v>124</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L91" t="n">
-        <v>288.8</v>
+        <v>285</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>289.2</v>
-      </c>
-      <c r="N91" t="n">
-        <v>287.8666666666667</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4996,28 +3906,18 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>6</v>
-      </c>
-      <c r="J92" t="n">
-        <v>126</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L92" t="n">
-        <v>289.5</v>
+        <v>285</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>289.55</v>
-      </c>
-      <c r="N92" t="n">
-        <v>288.1333333333333</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5047,28 +3947,18 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>6</v>
-      </c>
-      <c r="J93" t="n">
-        <v>126</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>100</v>
-      </c>
-      <c r="L93" t="n">
-        <v>290</v>
+        <v>285</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>289.8</v>
-      </c>
-      <c r="N93" t="n">
-        <v>288.4333333333333</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5098,28 +3988,18 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>5</v>
-      </c>
-      <c r="J94" t="n">
-        <v>127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>75</v>
-      </c>
-      <c r="L94" t="n">
-        <v>290.6</v>
+        <v>285</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>290</v>
-      </c>
-      <c r="N94" t="n">
-        <v>288.6666666666667</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5149,28 +4029,18 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>7</v>
-      </c>
-      <c r="J95" t="n">
-        <v>129</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>80</v>
-      </c>
-      <c r="L95" t="n">
-        <v>291.4</v>
+        <v>285</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>290.25</v>
-      </c>
-      <c r="N95" t="n">
-        <v>289.1666666666667</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5200,28 +4070,18 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>7</v>
-      </c>
-      <c r="J96" t="n">
-        <v>129</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>77.77777777777779</v>
-      </c>
-      <c r="L96" t="n">
-        <v>292.2</v>
+        <v>285</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>290.5</v>
-      </c>
-      <c r="N96" t="n">
-        <v>289.6666666666667</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5251,29 +4111,19 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>4</v>
-      </c>
-      <c r="J97" t="n">
-        <v>132</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>20</v>
-      </c>
-      <c r="L97" t="n">
-        <v>292.6</v>
+        <v>285</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>290.65</v>
-      </c>
-      <c r="N97" t="n">
-        <v>289.9666666666666</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
-        <v>1</v>
+        <v>1.019561403508772</v>
       </c>
     </row>
     <row r="98">
@@ -5302,28 +4152,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>133</v>
-      </c>
-      <c r="K98" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L98" t="n">
-        <v>292.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>290.75</v>
-      </c>
-      <c r="N98" t="n">
-        <v>290.2</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5353,28 +4187,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>5</v>
-      </c>
-      <c r="J99" t="n">
-        <v>133</v>
-      </c>
-      <c r="K99" t="n">
-        <v>20</v>
-      </c>
-      <c r="L99" t="n">
-        <v>293.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>290.85</v>
-      </c>
-      <c r="N99" t="n">
-        <v>290.3333333333333</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5404,28 +4222,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>5</v>
-      </c>
-      <c r="J100" t="n">
-        <v>133</v>
-      </c>
-      <c r="K100" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L100" t="n">
-        <v>293.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>291.05</v>
-      </c>
-      <c r="N100" t="n">
-        <v>290.5333333333334</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5455,28 +4257,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
-      </c>
-      <c r="J101" t="n">
-        <v>135</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L101" t="n">
-        <v>293.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>291.05</v>
-      </c>
-      <c r="N101" t="n">
-        <v>290.5666666666667</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5506,28 +4292,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
-      </c>
-      <c r="J102" t="n">
-        <v>135</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L102" t="n">
-        <v>293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>291.25</v>
-      </c>
-      <c r="N102" t="n">
-        <v>290.7</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5557,28 +4327,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
-      </c>
-      <c r="J103" t="n">
-        <v>135</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L103" t="n">
-        <v>292.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>291.35</v>
-      </c>
-      <c r="N103" t="n">
-        <v>290.7666666666667</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5608,28 +4362,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
-      </c>
-      <c r="J104" t="n">
-        <v>136</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L104" t="n">
-        <v>292.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>291.5</v>
-      </c>
-      <c r="N104" t="n">
-        <v>290.8</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5659,28 +4397,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>4</v>
-      </c>
-      <c r="J105" t="n">
-        <v>138</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L105" t="n">
-        <v>292.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>291.75</v>
-      </c>
-      <c r="N105" t="n">
-        <v>290.8666666666667</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5710,28 +4432,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
-      </c>
-      <c r="J106" t="n">
-        <v>139</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L106" t="n">
-        <v>291.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>291.95</v>
-      </c>
-      <c r="N106" t="n">
-        <v>290.9</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5761,28 +4467,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>5</v>
-      </c>
-      <c r="J107" t="n">
-        <v>141</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0</v>
-      </c>
-      <c r="L107" t="n">
-        <v>291.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>292.2</v>
-      </c>
-      <c r="N107" t="n">
-        <v>291.0333333333334</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5812,28 +4502,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>5</v>
-      </c>
-      <c r="J108" t="n">
-        <v>141</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0</v>
-      </c>
-      <c r="L108" t="n">
-        <v>291.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>292.35</v>
-      </c>
-      <c r="N108" t="n">
-        <v>291.1</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5863,28 +4537,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>4</v>
-      </c>
-      <c r="J109" t="n">
-        <v>142</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L109" t="n">
-        <v>291.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>292.45</v>
-      </c>
-      <c r="N109" t="n">
-        <v>291.1333333333333</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5914,28 +4572,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>6</v>
-      </c>
-      <c r="J110" t="n">
-        <v>144</v>
-      </c>
-      <c r="K110" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L110" t="n">
-        <v>291.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>292.6</v>
-      </c>
-      <c r="N110" t="n">
-        <v>291.3</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5965,28 +4607,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>3</v>
-      </c>
-      <c r="J111" t="n">
-        <v>147</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" t="n">
-        <v>291.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>292.55</v>
-      </c>
-      <c r="N111" t="n">
-        <v>291.3</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6016,28 +4642,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
-      </c>
-      <c r="J112" t="n">
-        <v>147</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>291.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>292.4</v>
-      </c>
-      <c r="N112" t="n">
-        <v>291.4333333333333</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6067,28 +4677,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>149</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L113" t="n">
-        <v>291.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>292.15</v>
-      </c>
-      <c r="N113" t="n">
-        <v>291.4333333333333</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,28 +4712,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>149</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L114" t="n">
-        <v>291.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>291.95</v>
-      </c>
-      <c r="N114" t="n">
-        <v>291.5</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6169,28 +4747,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>149</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L115" t="n">
-        <v>291.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>291.65</v>
-      </c>
-      <c r="N115" t="n">
-        <v>291.5666666666667</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6222,26 +4784,10 @@
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>150</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L116" t="n">
-        <v>290.9</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>291.3</v>
-      </c>
-      <c r="N116" t="n">
-        <v>291.6</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6273,26 +4819,10 @@
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>150</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L117" t="n">
-        <v>290.4</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>291.1</v>
-      </c>
-      <c r="N117" t="n">
-        <v>291.6</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6324,26 +4854,10 @@
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>150</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L118" t="n">
-        <v>289.9</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>290.85</v>
-      </c>
-      <c r="N118" t="n">
-        <v>291.5333333333334</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6373,28 +4887,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>5</v>
-      </c>
-      <c r="J119" t="n">
-        <v>155</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L119" t="n">
-        <v>290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>290.85</v>
-      </c>
-      <c r="N119" t="n">
-        <v>291.6333333333333</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6424,28 +4922,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>3</v>
-      </c>
-      <c r="J120" t="n">
-        <v>157</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0</v>
-      </c>
-      <c r="L120" t="n">
-        <v>289.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>290.75</v>
-      </c>
-      <c r="N120" t="n">
-        <v>291.6333333333333</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6475,28 +4957,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>2</v>
-      </c>
-      <c r="J121" t="n">
-        <v>158</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L121" t="n">
-        <v>289.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>290.7</v>
-      </c>
-      <c r="N121" t="n">
-        <v>291.5666666666667</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6528,26 +4994,10 @@
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>160</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L122" t="n">
-        <v>289.3</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>290.55</v>
-      </c>
-      <c r="N122" t="n">
-        <v>291.3666666666667</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6577,28 +5027,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>161</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L123" t="n">
-        <v>289.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>290.35</v>
-      </c>
-      <c r="N123" t="n">
-        <v>291.1333333333333</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6630,26 +5064,10 @@
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>162</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L124" t="n">
-        <v>289</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>290.25</v>
-      </c>
-      <c r="N124" t="n">
-        <v>290.9666666666666</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6679,28 +5097,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J125" t="n">
-        <v>164</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L125" t="n">
-        <v>288.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>289.95</v>
-      </c>
-      <c r="N125" t="n">
-        <v>290.6666666666667</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6730,28 +5132,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="n">
-        <v>167</v>
-      </c>
-      <c r="K126" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L126" t="n">
-        <v>288.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>289.85</v>
-      </c>
-      <c r="N126" t="n">
-        <v>290.4666666666666</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,26 +5169,10 @@
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>168</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0</v>
-      </c>
-      <c r="L127" t="n">
-        <v>288.8</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>289.6</v>
-      </c>
-      <c r="N127" t="n">
-        <v>290.3333333333333</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6834,26 +5204,10 @@
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>168</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-38.46153846153847</v>
-      </c>
-      <c r="L128" t="n">
-        <v>288.8</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>289.35</v>
-      </c>
-      <c r="N128" t="n">
-        <v>290.1666666666667</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6885,1097 +5239,10 @@
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>168</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L129" t="n">
-        <v>288.3</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>289.15</v>
-      </c>
-      <c r="N129" t="n">
-        <v>290</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>287</v>
-      </c>
-      <c r="C130" t="n">
-        <v>284</v>
-      </c>
-      <c r="D130" t="n">
-        <v>287</v>
-      </c>
-      <c r="E130" t="n">
-        <v>284</v>
-      </c>
-      <c r="F130" t="n">
-        <v>4967.3</v>
-      </c>
-      <c r="G130" t="n">
-        <v>290.1166666666667</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J130" t="n">
-        <v>172</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L130" t="n">
-        <v>287.6</v>
-      </c>
-      <c r="M130" t="n">
-        <v>288.65</v>
-      </c>
-      <c r="N130" t="n">
-        <v>289.7</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>290</v>
-      </c>
-      <c r="C131" t="n">
-        <v>290</v>
-      </c>
-      <c r="D131" t="n">
-        <v>290</v>
-      </c>
-      <c r="E131" t="n">
-        <v>290</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1</v>
-      </c>
-      <c r="G131" t="n">
-        <v>290.1166666666667</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>2</v>
-      </c>
-      <c r="J131" t="n">
-        <v>178</v>
-      </c>
-      <c r="K131" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L131" t="n">
-        <v>287.6</v>
-      </c>
-      <c r="M131" t="n">
-        <v>288.6</v>
-      </c>
-      <c r="N131" t="n">
-        <v>289.6666666666667</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>286</v>
-      </c>
-      <c r="C132" t="n">
-        <v>288</v>
-      </c>
-      <c r="D132" t="n">
-        <v>288</v>
-      </c>
-      <c r="E132" t="n">
-        <v>286</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1305.2968</v>
-      </c>
-      <c r="G132" t="n">
-        <v>290.1333333333333</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>180</v>
-      </c>
-      <c r="K132" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L132" t="n">
-        <v>287.6</v>
-      </c>
-      <c r="M132" t="n">
-        <v>288.45</v>
-      </c>
-      <c r="N132" t="n">
-        <v>289.5666666666667</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>288</v>
-      </c>
-      <c r="C133" t="n">
-        <v>288</v>
-      </c>
-      <c r="D133" t="n">
-        <v>289</v>
-      </c>
-      <c r="E133" t="n">
-        <v>287</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1760.821</v>
-      </c>
-      <c r="G133" t="n">
-        <v>290.1166666666667</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>180</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0</v>
-      </c>
-      <c r="L133" t="n">
-        <v>287.7</v>
-      </c>
-      <c r="M133" t="n">
-        <v>288.4</v>
-      </c>
-      <c r="N133" t="n">
-        <v>289.4666666666666</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>290</v>
-      </c>
-      <c r="C134" t="n">
-        <v>289</v>
-      </c>
-      <c r="D134" t="n">
-        <v>290</v>
-      </c>
-      <c r="E134" t="n">
-        <v>289</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1060.1034</v>
-      </c>
-      <c r="G134" t="n">
-        <v>290.1166666666667</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="n">
-        <v>181</v>
-      </c>
-      <c r="K134" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L134" t="n">
-        <v>287.8</v>
-      </c>
-      <c r="M134" t="n">
-        <v>288.4</v>
-      </c>
-      <c r="N134" t="n">
-        <v>289.4333333333333</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>290</v>
-      </c>
-      <c r="C135" t="n">
-        <v>290</v>
-      </c>
-      <c r="D135" t="n">
-        <v>290</v>
-      </c>
-      <c r="E135" t="n">
-        <v>290</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1578.8034</v>
-      </c>
-      <c r="G135" t="n">
-        <v>290.1166666666667</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>2</v>
-      </c>
-      <c r="J135" t="n">
-        <v>182</v>
-      </c>
-      <c r="K135" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L135" t="n">
-        <v>288.2</v>
-      </c>
-      <c r="M135" t="n">
-        <v>288.45</v>
-      </c>
-      <c r="N135" t="n">
-        <v>289.3666666666667</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>290</v>
-      </c>
-      <c r="C136" t="n">
-        <v>292</v>
-      </c>
-      <c r="D136" t="n">
-        <v>292</v>
-      </c>
-      <c r="E136" t="n">
-        <v>290</v>
-      </c>
-      <c r="F136" t="n">
-        <v>354.5592</v>
-      </c>
-      <c r="G136" t="n">
-        <v>290.15</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>4</v>
-      </c>
-      <c r="J136" t="n">
-        <v>184</v>
-      </c>
-      <c r="K136" t="n">
-        <v>25</v>
-      </c>
-      <c r="L136" t="n">
-        <v>288.5</v>
-      </c>
-      <c r="M136" t="n">
-        <v>288.65</v>
-      </c>
-      <c r="N136" t="n">
-        <v>289.4</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>292</v>
-      </c>
-      <c r="C137" t="n">
-        <v>293</v>
-      </c>
-      <c r="D137" t="n">
-        <v>293</v>
-      </c>
-      <c r="E137" t="n">
-        <v>292</v>
-      </c>
-      <c r="F137" t="n">
-        <v>874.6652</v>
-      </c>
-      <c r="G137" t="n">
-        <v>290.2166666666666</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>5</v>
-      </c>
-      <c r="J137" t="n">
-        <v>185</v>
-      </c>
-      <c r="K137" t="n">
-        <v>29.41176470588236</v>
-      </c>
-      <c r="L137" t="n">
-        <v>289</v>
-      </c>
-      <c r="M137" t="n">
-        <v>288.9</v>
-      </c>
-      <c r="N137" t="n">
-        <v>289.4</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>293</v>
-      </c>
-      <c r="C138" t="n">
-        <v>292</v>
-      </c>
-      <c r="D138" t="n">
-        <v>293</v>
-      </c>
-      <c r="E138" t="n">
-        <v>292</v>
-      </c>
-      <c r="F138" t="n">
-        <v>860.2922</v>
-      </c>
-      <c r="G138" t="n">
-        <v>290.2333333333333</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>4</v>
-      </c>
-      <c r="J138" t="n">
-        <v>186</v>
-      </c>
-      <c r="K138" t="n">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="L138" t="n">
-        <v>289.4</v>
-      </c>
-      <c r="M138" t="n">
-        <v>289.1</v>
-      </c>
-      <c r="N138" t="n">
-        <v>289.3666666666667</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>292</v>
-      </c>
-      <c r="C139" t="n">
-        <v>292</v>
-      </c>
-      <c r="D139" t="n">
-        <v>292</v>
-      </c>
-      <c r="E139" t="n">
-        <v>292</v>
-      </c>
-      <c r="F139" t="n">
-        <v>210.4088</v>
-      </c>
-      <c r="G139" t="n">
-        <v>290.25</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>4</v>
-      </c>
-      <c r="J139" t="n">
-        <v>186</v>
-      </c>
-      <c r="K139" t="n">
-        <v>57.14285714285714</v>
-      </c>
-      <c r="L139" t="n">
-        <v>289.8</v>
-      </c>
-      <c r="M139" t="n">
-        <v>289.05</v>
-      </c>
-      <c r="N139" t="n">
-        <v>289.3666666666667</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>291</v>
-      </c>
-      <c r="C140" t="n">
-        <v>291</v>
-      </c>
-      <c r="D140" t="n">
-        <v>291</v>
-      </c>
-      <c r="E140" t="n">
-        <v>291</v>
-      </c>
-      <c r="F140" t="n">
-        <v>488.5773</v>
-      </c>
-      <c r="G140" t="n">
-        <v>290.2833333333334</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>3</v>
-      </c>
-      <c r="J140" t="n">
-        <v>187</v>
-      </c>
-      <c r="K140" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L140" t="n">
-        <v>290.5</v>
-      </c>
-      <c r="M140" t="n">
-        <v>289.05</v>
-      </c>
-      <c r="N140" t="n">
-        <v>289.2666666666667</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>290</v>
-      </c>
-      <c r="C141" t="n">
-        <v>290</v>
-      </c>
-      <c r="D141" t="n">
-        <v>290</v>
-      </c>
-      <c r="E141" t="n">
-        <v>290</v>
-      </c>
-      <c r="F141" t="n">
-        <v>326</v>
-      </c>
-      <c r="G141" t="n">
-        <v>290.2666666666667</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>2</v>
-      </c>
-      <c r="J141" t="n">
-        <v>188</v>
-      </c>
-      <c r="K141" t="n">
-        <v>25</v>
-      </c>
-      <c r="L141" t="n">
-        <v>290.5</v>
-      </c>
-      <c r="M141" t="n">
-        <v>289.05</v>
-      </c>
-      <c r="N141" t="n">
-        <v>289.2333333333333</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>290</v>
-      </c>
-      <c r="C142" t="n">
-        <v>290</v>
-      </c>
-      <c r="D142" t="n">
-        <v>290</v>
-      </c>
-      <c r="E142" t="n">
-        <v>290</v>
-      </c>
-      <c r="F142" t="n">
-        <v>482.8034</v>
-      </c>
-      <c r="G142" t="n">
-        <v>290.3166666666667</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>2</v>
-      </c>
-      <c r="J142" t="n">
-        <v>188</v>
-      </c>
-      <c r="K142" t="n">
-        <v>25</v>
-      </c>
-      <c r="L142" t="n">
-        <v>290.7</v>
-      </c>
-      <c r="M142" t="n">
-        <v>289.15</v>
-      </c>
-      <c r="N142" t="n">
-        <v>289.2</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>290</v>
-      </c>
-      <c r="C143" t="n">
-        <v>290</v>
-      </c>
-      <c r="D143" t="n">
-        <v>290</v>
-      </c>
-      <c r="E143" t="n">
-        <v>290</v>
-      </c>
-      <c r="F143" t="n">
-        <v>345.2943</v>
-      </c>
-      <c r="G143" t="n">
-        <v>290.3333333333333</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>2</v>
-      </c>
-      <c r="J143" t="n">
-        <v>188</v>
-      </c>
-      <c r="K143" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L143" t="n">
-        <v>290.9</v>
-      </c>
-      <c r="M143" t="n">
-        <v>289.3</v>
-      </c>
-      <c r="N143" t="n">
-        <v>289.2333333333333</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>288</v>
-      </c>
-      <c r="C144" t="n">
-        <v>288</v>
-      </c>
-      <c r="D144" t="n">
-        <v>288</v>
-      </c>
-      <c r="E144" t="n">
-        <v>288</v>
-      </c>
-      <c r="F144" t="n">
-        <v>375</v>
-      </c>
-      <c r="G144" t="n">
-        <v>290.35</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>190</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L144" t="n">
-        <v>290.8</v>
-      </c>
-      <c r="M144" t="n">
-        <v>289.3</v>
-      </c>
-      <c r="N144" t="n">
-        <v>289.2</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>288</v>
-      </c>
-      <c r="C145" t="n">
-        <v>291</v>
-      </c>
-      <c r="D145" t="n">
-        <v>291</v>
-      </c>
-      <c r="E145" t="n">
-        <v>288</v>
-      </c>
-      <c r="F145" t="n">
-        <v>653.0976000000001</v>
-      </c>
-      <c r="G145" t="n">
-        <v>290.4166666666667</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>3</v>
-      </c>
-      <c r="J145" t="n">
-        <v>193</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L145" t="n">
-        <v>290.9</v>
-      </c>
-      <c r="M145" t="n">
-        <v>289.55</v>
-      </c>
-      <c r="N145" t="n">
-        <v>289.2666666666667</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>291</v>
-      </c>
-      <c r="C146" t="n">
-        <v>291</v>
-      </c>
-      <c r="D146" t="n">
-        <v>291</v>
-      </c>
-      <c r="E146" t="n">
-        <v>291</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1112.1573</v>
-      </c>
-      <c r="G146" t="n">
-        <v>290.4833333333333</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>3</v>
-      </c>
-      <c r="J146" t="n">
-        <v>193</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L146" t="n">
-        <v>290.8</v>
-      </c>
-      <c r="M146" t="n">
-        <v>289.65</v>
-      </c>
-      <c r="N146" t="n">
-        <v>289.3666666666667</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>290</v>
-      </c>
-      <c r="C147" t="n">
-        <v>290</v>
-      </c>
-      <c r="D147" t="n">
-        <v>290</v>
-      </c>
-      <c r="E147" t="n">
-        <v>290</v>
-      </c>
-      <c r="F147" t="n">
-        <v>869.2062</v>
-      </c>
-      <c r="G147" t="n">
-        <v>290.5166666666667</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>2</v>
-      </c>
-      <c r="J147" t="n">
-        <v>194</v>
-      </c>
-      <c r="K147" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L147" t="n">
-        <v>290.5</v>
-      </c>
-      <c r="M147" t="n">
-        <v>289.75</v>
-      </c>
-      <c r="N147" t="n">
-        <v>289.4333333333333</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>291</v>
-      </c>
-      <c r="C148" t="n">
-        <v>291</v>
-      </c>
-      <c r="D148" t="n">
-        <v>291</v>
-      </c>
-      <c r="E148" t="n">
-        <v>291</v>
-      </c>
-      <c r="F148" t="n">
-        <v>651.9047</v>
-      </c>
-      <c r="G148" t="n">
-        <v>290.5333333333334</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>3</v>
-      </c>
-      <c r="J148" t="n">
-        <v>195</v>
-      </c>
-      <c r="K148" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L148" t="n">
-        <v>290.4</v>
-      </c>
-      <c r="M148" t="n">
-        <v>289.9</v>
-      </c>
-      <c r="N148" t="n">
-        <v>289.5333333333334</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>291</v>
-      </c>
-      <c r="C149" t="n">
-        <v>291</v>
-      </c>
-      <c r="D149" t="n">
-        <v>291</v>
-      </c>
-      <c r="E149" t="n">
-        <v>291</v>
-      </c>
-      <c r="F149" t="n">
-        <v>488.9285</v>
-      </c>
-      <c r="G149" t="n">
-        <v>290.55</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>3</v>
-      </c>
-      <c r="J149" t="n">
-        <v>195</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0</v>
-      </c>
-      <c r="L149" t="n">
-        <v>290.3</v>
-      </c>
-      <c r="M149" t="n">
-        <v>290.05</v>
-      </c>
-      <c r="N149" t="n">
-        <v>289.4666666666666</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>289</v>
-      </c>
-      <c r="C150" t="n">
-        <v>288</v>
-      </c>
-      <c r="D150" t="n">
-        <v>289</v>
-      </c>
-      <c r="E150" t="n">
-        <v>288</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1137.9811</v>
-      </c>
-      <c r="G150" t="n">
-        <v>290.5</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>198</v>
-      </c>
-      <c r="K150" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L150" t="n">
-        <v>290</v>
-      </c>
-      <c r="M150" t="n">
-        <v>290.25</v>
-      </c>
-      <c r="N150" t="n">
-        <v>289.3666666666667</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-02 BackTest PIVX.xlsx
@@ -1711,13 +1711,17 @@
         <v>292.1666666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>289</v>
+      </c>
+      <c r="K38" t="n">
+        <v>289</v>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
@@ -1746,14 +1750,22 @@
         <v>292.1666666666667</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>288</v>
+      </c>
+      <c r="K39" t="n">
+        <v>289</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1787,8 +1799,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>289</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1816,13 +1834,17 @@
         <v>292.1166666666667</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>287</v>
+      </c>
+      <c r="K41" t="n">
+        <v>287</v>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
@@ -1857,8 +1879,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>287</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1892,8 +1920,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>287</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1927,8 +1961,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>287</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1962,8 +2002,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>287</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1997,8 +2043,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>287</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2032,8 +2084,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>287</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2067,8 +2125,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>287</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2102,8 +2166,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>287</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2131,18 +2201,20 @@
         <v>290.7333333333333</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>285</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>285</v>
-      </c>
-      <c r="L50" t="inlineStr"/>
+        <v>287</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2170,20 +2242,18 @@
         <v>290.45</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>285</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M51" t="n">
@@ -2213,20 +2283,18 @@
         <v>290.2</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>285</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M52" t="n">
@@ -2256,20 +2324,18 @@
         <v>289.9333333333333</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>285</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M53" t="n">
@@ -2299,16 +2365,14 @@
         <v>289.6</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>284</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2342,16 +2406,14 @@
         <v>289.25</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>284</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2385,16 +2447,14 @@
         <v>289.0666666666667</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>285</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2435,7 +2495,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2469,16 +2529,14 @@
         <v>288.8333333333333</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>286</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2512,16 +2570,14 @@
         <v>288.75</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>285</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2555,16 +2611,14 @@
         <v>288.7</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>284</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2598,16 +2652,14 @@
         <v>288.6</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>287</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2641,16 +2693,14 @@
         <v>288.5666666666667</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>286</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2684,16 +2734,14 @@
         <v>288.5666666666667</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>287</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2727,16 +2775,14 @@
         <v>288.5333333333334</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>286</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2770,16 +2816,14 @@
         <v>288.3666666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>285</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2813,16 +2857,14 @@
         <v>288.2</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>281</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2856,16 +2898,14 @@
         <v>288.0666666666667</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>284</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -2899,16 +2939,14 @@
         <v>287.85</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>285</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -2942,16 +2980,14 @@
         <v>287.7666666666667</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>287</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -2985,16 +3021,14 @@
         <v>287.7</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>288</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3028,16 +3062,14 @@
         <v>287.6833333333333</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>289</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3071,16 +3103,14 @@
         <v>287.6166666666667</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>287</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3114,16 +3144,14 @@
         <v>287.5833333333333</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>288</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3157,16 +3185,14 @@
         <v>287.5333333333334</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>289</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3200,16 +3226,14 @@
         <v>287.55</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>290</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3243,16 +3267,14 @@
         <v>287.55</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>290</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3293,7 +3315,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3334,7 +3356,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3375,7 +3397,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3416,7 +3438,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3457,7 +3479,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3498,7 +3520,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3539,7 +3561,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3580,7 +3602,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3621,7 +3643,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3662,7 +3684,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3703,7 +3725,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3737,16 +3759,14 @@
         <v>287.0333333333334</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>289</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3787,7 +3807,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3828,7 +3848,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3869,7 +3889,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3910,7 +3930,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -3951,7 +3971,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -3992,7 +4012,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4033,7 +4053,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4074,7 +4094,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4115,7 +4135,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4123,7 +4143,7 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>1.019561403508772</v>
+        <v>1.012421602787457</v>
       </c>
     </row>
     <row r="98">
@@ -4187,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4222,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4292,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4572,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>

--- a/BackTest/2019-11-02 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-02 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C2" t="n">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D2" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E2" t="n">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F2" t="n">
-        <v>975.2862</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>286.6</v>
+        <v>286.4333333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C3" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D3" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E3" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F3" t="n">
-        <v>5877.4059</v>
+        <v>975.2862</v>
       </c>
       <c r="G3" t="n">
-        <v>286.6666666666667</v>
+        <v>286.6</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>288</v>
       </c>
       <c r="C4" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D4" t="n">
         <v>288</v>
       </c>
       <c r="E4" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F4" t="n">
-        <v>230.5442</v>
+        <v>5877.4059</v>
       </c>
       <c r="G4" t="n">
-        <v>286.8</v>
+        <v>286.6666666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C5" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D5" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E5" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F5" t="n">
-        <v>977.8336</v>
+        <v>230.5442</v>
       </c>
       <c r="G5" t="n">
-        <v>286.9</v>
+        <v>286.8</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>290</v>
       </c>
       <c r="F6" t="n">
-        <v>566</v>
+        <v>977.8336</v>
       </c>
       <c r="G6" t="n">
-        <v>287</v>
+        <v>286.9</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C7" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D7" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E7" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F7" t="n">
-        <v>18722.2053</v>
+        <v>566</v>
       </c>
       <c r="G7" t="n">
-        <v>287.1833333333333</v>
+        <v>287</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C8" t="n">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D8" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E8" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F8" t="n">
-        <v>5205.4016</v>
+        <v>18722.2053</v>
       </c>
       <c r="G8" t="n">
-        <v>287.5666666666667</v>
+        <v>287.1833333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C9" t="n">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D9" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E9" t="n">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F9" t="n">
-        <v>15560.6376</v>
+        <v>5205.4016</v>
       </c>
       <c r="G9" t="n">
-        <v>287.8333333333333</v>
+        <v>287.5666666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>296</v>
+      </c>
+      <c r="C10" t="n">
         <v>294</v>
       </c>
-      <c r="C10" t="n">
-        <v>291</v>
-      </c>
       <c r="D10" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E10" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F10" t="n">
-        <v>10449.7568</v>
+        <v>15560.6376</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0333333333334</v>
+        <v>287.8333333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C11" t="n">
         <v>291</v>
       </c>
       <c r="D11" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E11" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F11" t="n">
-        <v>9915.777</v>
+        <v>10449.7568</v>
       </c>
       <c r="G11" t="n">
-        <v>288.2333333333333</v>
+        <v>288.0333333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C12" t="n">
         <v>291</v>
@@ -795,10 +795,10 @@
         <v>289</v>
       </c>
       <c r="F12" t="n">
-        <v>1940.5394</v>
+        <v>9915.777</v>
       </c>
       <c r="G12" t="n">
-        <v>288.4666666666666</v>
+        <v>288.2333333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C13" t="n">
         <v>291</v>
@@ -827,23 +827,29 @@
         <v>291</v>
       </c>
       <c r="E13" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>1940.5394</v>
       </c>
       <c r="G13" t="n">
-        <v>288.6833333333333</v>
+        <v>288.4666666666666</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>291</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -853,32 +859,38 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C14" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D14" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E14" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F14" t="n">
-        <v>1308.5526</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>288.8666666666667</v>
+        <v>288.6833333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>291</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -888,32 +900,38 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C15" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D15" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E15" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F15" t="n">
-        <v>1218.1492</v>
+        <v>1308.5526</v>
       </c>
       <c r="G15" t="n">
-        <v>289.0166666666667</v>
+        <v>288.8666666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>291</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -926,19 +944,19 @@
         <v>290</v>
       </c>
       <c r="C16" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D16" t="n">
         <v>290</v>
       </c>
       <c r="E16" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F16" t="n">
-        <v>27.5629</v>
+        <v>1218.1492</v>
       </c>
       <c r="G16" t="n">
-        <v>289.2</v>
+        <v>289.0166666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -948,7 +966,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -958,22 +980,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C17" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D17" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E17" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F17" t="n">
-        <v>3.9795</v>
+        <v>27.5629</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4166666666667</v>
+        <v>289.2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -983,7 +1005,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -993,22 +1019,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C18" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D18" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E18" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F18" t="n">
-        <v>1056.7191</v>
+        <v>3.9795</v>
       </c>
       <c r="G18" t="n">
-        <v>289.6</v>
+        <v>289.4166666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1018,7 +1044,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1040,10 +1070,10 @@
         <v>292</v>
       </c>
       <c r="F19" t="n">
-        <v>926.5993999999999</v>
+        <v>1056.7191</v>
       </c>
       <c r="G19" t="n">
-        <v>289.8</v>
+        <v>289.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1053,7 +1083,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1072,13 +1106,13 @@
         <v>292</v>
       </c>
       <c r="E20" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F20" t="n">
-        <v>523</v>
+        <v>926.5993999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>289.9666666666666</v>
+        <v>289.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1088,7 +1122,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1098,22 +1136,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C21" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D21" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E21" t="n">
         <v>291</v>
       </c>
       <c r="F21" t="n">
-        <v>4436.1566</v>
+        <v>523</v>
       </c>
       <c r="G21" t="n">
-        <v>290.1333333333333</v>
+        <v>289.9666666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1123,7 +1161,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,22 +1175,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C22" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D22" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E22" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F22" t="n">
-        <v>1550.1569</v>
+        <v>4436.1566</v>
       </c>
       <c r="G22" t="n">
-        <v>290.3</v>
+        <v>290.1333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1158,7 +1200,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1168,22 +1214,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C23" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D23" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E23" t="n">
         <v>290</v>
       </c>
       <c r="F23" t="n">
-        <v>2154.1976</v>
+        <v>1550.1569</v>
       </c>
       <c r="G23" t="n">
-        <v>290.4666666666666</v>
+        <v>290.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1193,7 +1239,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,22 +1253,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C24" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D24" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E24" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F24" t="n">
-        <v>200</v>
+        <v>2154.1976</v>
       </c>
       <c r="G24" t="n">
-        <v>290.7166666666666</v>
+        <v>290.4666666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1228,7 +1278,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,7 +1292,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C25" t="n">
         <v>292</v>
@@ -1247,13 +1301,13 @@
         <v>292</v>
       </c>
       <c r="E25" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F25" t="n">
-        <v>1177</v>
+        <v>200</v>
       </c>
       <c r="G25" t="n">
-        <v>290.8666666666667</v>
+        <v>290.7166666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,7 +1317,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1273,22 +1331,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C26" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D26" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E26" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F26" t="n">
-        <v>400</v>
+        <v>1177</v>
       </c>
       <c r="G26" t="n">
-        <v>291.0333333333334</v>
+        <v>290.8666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,7 +1356,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,22 +1370,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C27" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D27" t="n">
         <v>291</v>
       </c>
       <c r="E27" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F27" t="n">
-        <v>3299.7156</v>
+        <v>400</v>
       </c>
       <c r="G27" t="n">
-        <v>291.2666666666667</v>
+        <v>291.0333333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,7 +1395,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,22 +1409,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C28" t="n">
         <v>290</v>
       </c>
       <c r="D28" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E28" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F28" t="n">
-        <v>1556.4768</v>
+        <v>3299.7156</v>
       </c>
       <c r="G28" t="n">
-        <v>291.4666666666666</v>
+        <v>291.2666666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,7 +1434,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1381,19 +1451,19 @@
         <v>290</v>
       </c>
       <c r="C29" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D29" t="n">
         <v>290</v>
       </c>
       <c r="E29" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F29" t="n">
-        <v>699.3404</v>
+        <v>1556.4768</v>
       </c>
       <c r="G29" t="n">
-        <v>291.6166666666667</v>
+        <v>291.4666666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,7 +1473,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1416,19 +1490,19 @@
         <v>290</v>
       </c>
       <c r="C30" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D30" t="n">
         <v>290</v>
       </c>
       <c r="E30" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F30" t="n">
-        <v>544.2103</v>
+        <v>699.3404</v>
       </c>
       <c r="G30" t="n">
-        <v>291.7666666666667</v>
+        <v>291.6166666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,7 +1512,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,22 +1526,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C31" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D31" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E31" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F31" t="n">
-        <v>4910.628</v>
+        <v>544.2103</v>
       </c>
       <c r="G31" t="n">
-        <v>291.9</v>
+        <v>291.7666666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,7 +1551,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1483,7 +1565,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C32" t="n">
         <v>289</v>
@@ -1492,13 +1574,13 @@
         <v>289</v>
       </c>
       <c r="E32" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F32" t="n">
-        <v>1153.8768</v>
+        <v>4910.628</v>
       </c>
       <c r="G32" t="n">
-        <v>291.9333333333333</v>
+        <v>291.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,7 +1590,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1521,19 +1607,19 @@
         <v>289</v>
       </c>
       <c r="C33" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D33" t="n">
         <v>289</v>
       </c>
       <c r="E33" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F33" t="n">
-        <v>1574.9337</v>
+        <v>1153.8768</v>
       </c>
       <c r="G33" t="n">
-        <v>291.95</v>
+        <v>291.9333333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,7 +1629,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1556,19 +1646,19 @@
         <v>289</v>
       </c>
       <c r="C34" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D34" t="n">
         <v>289</v>
       </c>
       <c r="E34" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F34" t="n">
-        <v>12485.5284</v>
+        <v>1574.9337</v>
       </c>
       <c r="G34" t="n">
-        <v>292.05</v>
+        <v>291.95</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,7 +1668,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1600,10 +1694,10 @@
         <v>289</v>
       </c>
       <c r="F35" t="n">
-        <v>2483.1089</v>
+        <v>12485.5284</v>
       </c>
       <c r="G35" t="n">
-        <v>292.1166666666667</v>
+        <v>292.05</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,7 +1707,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1635,10 +1733,10 @@
         <v>289</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>2483.1089</v>
       </c>
       <c r="G36" t="n">
-        <v>292.1833333333333</v>
+        <v>292.1166666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,7 +1746,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1670,7 +1772,7 @@
         <v>289</v>
       </c>
       <c r="F37" t="n">
-        <v>4486.8633</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>292.1833333333333</v>
@@ -1683,7 +1785,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,36 +1799,36 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C38" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D38" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E38" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F38" t="n">
-        <v>987.0703999999999</v>
+        <v>4486.8633</v>
       </c>
       <c r="G38" t="n">
-        <v>292.1666666666667</v>
+        <v>292.1833333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>289</v>
-      </c>
-      <c r="K38" t="n">
-        <v>289</v>
-      </c>
-      <c r="L38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1732,38 +1838,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C39" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D39" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E39" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F39" t="n">
-        <v>157.1332</v>
+        <v>987.0703999999999</v>
       </c>
       <c r="G39" t="n">
         <v>292.1666666666667</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>288</v>
-      </c>
-      <c r="K39" t="n">
-        <v>289</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M39" t="n">
@@ -1787,10 +1889,10 @@
         <v>287</v>
       </c>
       <c r="F40" t="n">
-        <v>42.8668</v>
+        <v>157.1332</v>
       </c>
       <c r="G40" t="n">
-        <v>292.1166666666667</v>
+        <v>292.1666666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1799,12 +1901,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>289</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M40" t="n">
@@ -1816,36 +1916,36 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C41" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D41" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E41" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>42.8668</v>
       </c>
       <c r="G41" t="n">
         <v>292.1166666666667</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>287</v>
-      </c>
-      <c r="K41" t="n">
-        <v>287</v>
-      </c>
-      <c r="L41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1855,22 +1955,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C42" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D42" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E42" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F42" t="n">
-        <v>5028</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>292.0833333333333</v>
+        <v>292.1166666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1879,12 +1979,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>287</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M42" t="n">
@@ -1896,22 +1994,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C43" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D43" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E43" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F43" t="n">
-        <v>15586.1575</v>
+        <v>5028</v>
       </c>
       <c r="G43" t="n">
-        <v>292.0166666666667</v>
+        <v>292.0833333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1920,12 +2018,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>287</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M43" t="n">
@@ -1937,22 +2033,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C44" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D44" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E44" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F44" t="n">
-        <v>409.3234</v>
+        <v>15586.1575</v>
       </c>
       <c r="G44" t="n">
-        <v>291.9333333333333</v>
+        <v>292.0166666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1961,9 +2057,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>287</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1978,22 +2072,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C45" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D45" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E45" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F45" t="n">
-        <v>1290.6626</v>
+        <v>409.3234</v>
       </c>
       <c r="G45" t="n">
-        <v>291.9</v>
+        <v>291.9333333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2002,9 +2096,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>287</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2022,19 +2114,19 @@
         <v>284</v>
       </c>
       <c r="C46" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D46" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E46" t="n">
         <v>284</v>
       </c>
       <c r="F46" t="n">
-        <v>1237.153</v>
+        <v>1290.6626</v>
       </c>
       <c r="G46" t="n">
-        <v>291.8</v>
+        <v>291.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2043,9 +2135,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>287</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2063,19 +2153,19 @@
         <v>284</v>
       </c>
       <c r="C47" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D47" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E47" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F47" t="n">
-        <v>2567.9951</v>
+        <v>1237.153</v>
       </c>
       <c r="G47" t="n">
-        <v>291.7166666666666</v>
+        <v>291.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2084,9 +2174,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>287</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2101,22 +2189,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C48" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D48" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E48" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F48" t="n">
-        <v>114</v>
+        <v>2567.9951</v>
       </c>
       <c r="G48" t="n">
-        <v>291.4166666666667</v>
+        <v>291.7166666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2125,9 +2213,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>287</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2142,22 +2228,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C49" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D49" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E49" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="G49" t="n">
-        <v>291.0833333333333</v>
+        <v>291.4166666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,9 +2252,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>287</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2183,7 +2267,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C50" t="n">
         <v>285</v>
@@ -2192,13 +2276,13 @@
         <v>285</v>
       </c>
       <c r="E50" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F50" t="n">
-        <v>2397.2647</v>
+        <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>290.7333333333333</v>
+        <v>291.0833333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2207,9 +2291,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>287</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2236,10 +2318,10 @@
         <v>285</v>
       </c>
       <c r="F51" t="n">
-        <v>237329.2053</v>
+        <v>2397.2647</v>
       </c>
       <c r="G51" t="n">
-        <v>290.45</v>
+        <v>290.7333333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2248,9 +2330,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>287</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2277,10 +2357,10 @@
         <v>285</v>
       </c>
       <c r="F52" t="n">
-        <v>258904.5876</v>
+        <v>237329.2053</v>
       </c>
       <c r="G52" t="n">
-        <v>290.2</v>
+        <v>290.45</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2289,9 +2369,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>287</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2309,19 +2387,19 @@
         <v>285</v>
       </c>
       <c r="C53" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D53" t="n">
         <v>285</v>
       </c>
       <c r="E53" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F53" t="n">
-        <v>5226.608</v>
+        <v>258904.5876</v>
       </c>
       <c r="G53" t="n">
-        <v>289.9333333333333</v>
+        <v>290.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2330,9 +2408,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>287</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2347,22 +2423,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C54" t="n">
         <v>284</v>
       </c>
       <c r="D54" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E54" t="n">
         <v>284</v>
       </c>
       <c r="F54" t="n">
-        <v>292172.1639</v>
+        <v>5226.608</v>
       </c>
       <c r="G54" t="n">
-        <v>289.6</v>
+        <v>289.9333333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2371,9 +2447,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>287</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2394,16 +2468,16 @@
         <v>284</v>
       </c>
       <c r="D55" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E55" t="n">
         <v>284</v>
       </c>
       <c r="F55" t="n">
-        <v>843595.6845</v>
+        <v>292172.1639</v>
       </c>
       <c r="G55" t="n">
-        <v>289.25</v>
+        <v>289.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2412,9 +2486,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>287</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2429,10 +2501,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C56" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D56" t="n">
         <v>285</v>
@@ -2441,10 +2513,10 @@
         <v>284</v>
       </c>
       <c r="F56" t="n">
-        <v>755.5749</v>
+        <v>843595.6845</v>
       </c>
       <c r="G56" t="n">
-        <v>289.0666666666667</v>
+        <v>289.25</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2453,9 +2525,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>287</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2470,22 +2540,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C57" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D57" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E57" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F57" t="n">
-        <v>287.2724</v>
+        <v>755.5749</v>
       </c>
       <c r="G57" t="n">
-        <v>288.95</v>
+        <v>289.0666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2494,9 +2564,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>287</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2511,7 +2579,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C58" t="n">
         <v>286</v>
@@ -2520,13 +2588,13 @@
         <v>286</v>
       </c>
       <c r="E58" t="n">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F58" t="n">
-        <v>1004.7018</v>
+        <v>287.2724</v>
       </c>
       <c r="G58" t="n">
-        <v>288.8333333333333</v>
+        <v>288.95</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2535,9 +2603,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>287</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2552,22 +2618,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C59" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D59" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E59" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F59" t="n">
-        <v>281.2632</v>
+        <v>1004.7018</v>
       </c>
       <c r="G59" t="n">
-        <v>288.75</v>
+        <v>288.8333333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2576,9 +2642,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>287</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2593,22 +2657,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C60" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D60" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E60" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F60" t="n">
-        <v>3.9756</v>
+        <v>281.2632</v>
       </c>
       <c r="G60" t="n">
-        <v>288.7</v>
+        <v>288.75</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2617,9 +2681,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>287</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2634,22 +2696,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>284</v>
+      </c>
+      <c r="C61" t="n">
         <v>287</v>
-      </c>
-      <c r="C61" t="n">
-        <v>286</v>
       </c>
       <c r="D61" t="n">
         <v>287</v>
       </c>
       <c r="E61" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F61" t="n">
-        <v>1724.804</v>
+        <v>3.9756</v>
       </c>
       <c r="G61" t="n">
-        <v>288.6</v>
+        <v>288.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2658,9 +2720,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>287</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2675,22 +2735,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C62" t="n">
         <v>286</v>
       </c>
       <c r="D62" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E62" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F62" t="n">
-        <v>2004.8601</v>
+        <v>1724.804</v>
       </c>
       <c r="G62" t="n">
-        <v>288.5666666666667</v>
+        <v>288.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2699,9 +2759,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>287</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2716,19 +2774,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C63" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D63" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E63" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F63" t="n">
-        <v>1923.601</v>
+        <v>2004.8601</v>
       </c>
       <c r="G63" t="n">
         <v>288.5666666666667</v>
@@ -2740,9 +2798,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>287</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2757,22 +2813,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C64" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D64" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E64" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F64" t="n">
-        <v>146.1479</v>
+        <v>1923.601</v>
       </c>
       <c r="G64" t="n">
-        <v>288.5333333333334</v>
+        <v>288.5666666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2781,9 +2837,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>287</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2798,22 +2852,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C65" t="n">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D65" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E65" t="n">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F65" t="n">
-        <v>13210.9019</v>
+        <v>146.1479</v>
       </c>
       <c r="G65" t="n">
-        <v>288.3666666666667</v>
+        <v>288.5333333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2822,9 +2876,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>287</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2839,22 +2891,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C66" t="n">
         <v>280</v>
       </c>
       <c r="D66" t="n">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E66" t="n">
         <v>280</v>
       </c>
       <c r="F66" t="n">
-        <v>10359.9019</v>
+        <v>13210.9019</v>
       </c>
       <c r="G66" t="n">
-        <v>288.2</v>
+        <v>288.3666666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2863,9 +2915,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>287</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2880,22 +2930,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C67" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D67" t="n">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E67" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F67" t="n">
-        <v>733</v>
+        <v>10359.9019</v>
       </c>
       <c r="G67" t="n">
-        <v>288.0666666666667</v>
+        <v>288.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2904,9 +2954,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>287</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2921,22 +2969,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C68" t="n">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D68" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E68" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F68" t="n">
-        <v>11060.0541</v>
+        <v>733</v>
       </c>
       <c r="G68" t="n">
-        <v>287.85</v>
+        <v>288.0666666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2945,9 +2993,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>287</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2962,22 +3008,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C69" t="n">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D69" t="n">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E69" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F69" t="n">
-        <v>24739.8894</v>
+        <v>11060.0541</v>
       </c>
       <c r="G69" t="n">
-        <v>287.7666666666667</v>
+        <v>287.85</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2986,9 +3032,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>287</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3003,22 +3047,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C70" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D70" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E70" t="n">
         <v>287</v>
       </c>
       <c r="F70" t="n">
-        <v>4026.7195</v>
+        <v>24739.8894</v>
       </c>
       <c r="G70" t="n">
-        <v>287.7</v>
+        <v>287.7666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3027,9 +3071,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>287</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3044,22 +3086,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C71" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D71" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E71" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F71" t="n">
-        <v>2122.1292</v>
+        <v>4026.7195</v>
       </c>
       <c r="G71" t="n">
-        <v>287.6833333333333</v>
+        <v>287.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3068,9 +3110,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>287</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3085,22 +3125,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C72" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D72" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E72" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F72" t="n">
-        <v>154.0195</v>
+        <v>2122.1292</v>
       </c>
       <c r="G72" t="n">
-        <v>287.6166666666667</v>
+        <v>287.6833333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3109,9 +3149,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>287</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3126,22 +3164,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C73" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D73" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E73" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F73" t="n">
-        <v>3.9861</v>
+        <v>154.0195</v>
       </c>
       <c r="G73" t="n">
-        <v>287.5833333333333</v>
+        <v>287.6166666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3150,9 +3188,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>287</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3167,7 +3203,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C74" t="n">
         <v>289</v>
@@ -3176,13 +3212,13 @@
         <v>289</v>
       </c>
       <c r="E74" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F74" t="n">
-        <v>4586.7998</v>
+        <v>3.9861</v>
       </c>
       <c r="G74" t="n">
-        <v>287.5333333333334</v>
+        <v>287.5833333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3191,9 +3227,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>287</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3208,22 +3242,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C75" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D75" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E75" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F75" t="n">
-        <v>251.44</v>
+        <v>4586.7998</v>
       </c>
       <c r="G75" t="n">
-        <v>287.55</v>
+        <v>287.5333333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3232,9 +3266,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>287</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3255,13 +3287,13 @@
         <v>290</v>
       </c>
       <c r="D76" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E76" t="n">
         <v>290</v>
       </c>
       <c r="F76" t="n">
-        <v>1072.4641</v>
+        <v>251.44</v>
       </c>
       <c r="G76" t="n">
         <v>287.55</v>
@@ -3273,9 +3305,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>287</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3290,22 +3320,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C77" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D77" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E77" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F77" t="n">
-        <v>3816.2261</v>
+        <v>1072.4641</v>
       </c>
       <c r="G77" t="n">
-        <v>287.4833333333333</v>
+        <v>287.55</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3314,9 +3344,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>287</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3331,22 +3359,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C78" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D78" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E78" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F78" t="n">
-        <v>1358.1019</v>
+        <v>3816.2261</v>
       </c>
       <c r="G78" t="n">
-        <v>287.4666666666666</v>
+        <v>287.4833333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3355,9 +3383,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>287</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3372,22 +3398,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C79" t="n">
         <v>291</v>
       </c>
       <c r="D79" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E79" t="n">
         <v>291</v>
       </c>
       <c r="F79" t="n">
-        <v>104</v>
+        <v>1358.1019</v>
       </c>
       <c r="G79" t="n">
-        <v>287.45</v>
+        <v>287.4666666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3396,9 +3422,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>287</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3413,22 +3437,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C80" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D80" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E80" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F80" t="n">
-        <v>10.5677</v>
+        <v>104</v>
       </c>
       <c r="G80" t="n">
-        <v>287.4</v>
+        <v>287.45</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3437,9 +3461,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>287</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3454,19 +3476,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C81" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D81" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E81" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F81" t="n">
-        <v>10094.8945</v>
+        <v>10.5677</v>
       </c>
       <c r="G81" t="n">
         <v>287.4</v>
@@ -3478,9 +3500,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>287</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3495,22 +3515,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C82" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D82" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E82" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F82" t="n">
-        <v>157.8151</v>
+        <v>10094.8945</v>
       </c>
       <c r="G82" t="n">
-        <v>287.3166666666667</v>
+        <v>287.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3519,9 +3539,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>287</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3536,22 +3554,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C83" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D83" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E83" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F83" t="n">
-        <v>528.4687</v>
+        <v>157.8151</v>
       </c>
       <c r="G83" t="n">
-        <v>287.3</v>
+        <v>287.3166666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3560,9 +3578,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>287</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3577,22 +3593,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C84" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D84" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E84" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F84" t="n">
-        <v>1002.1901</v>
+        <v>528.4687</v>
       </c>
       <c r="G84" t="n">
-        <v>287.2166666666666</v>
+        <v>287.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3601,9 +3617,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>287</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3630,10 +3644,10 @@
         <v>287</v>
       </c>
       <c r="F85" t="n">
-        <v>154.6233</v>
+        <v>1002.1901</v>
       </c>
       <c r="G85" t="n">
-        <v>287.1333333333333</v>
+        <v>287.2166666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3642,9 +3656,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>287</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3659,22 +3671,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C86" t="n">
         <v>287</v>
       </c>
       <c r="D86" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E86" t="n">
         <v>287</v>
       </c>
       <c r="F86" t="n">
-        <v>1475.1694</v>
+        <v>154.6233</v>
       </c>
       <c r="G86" t="n">
-        <v>287.0666666666667</v>
+        <v>287.1333333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3683,9 +3695,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>287</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3703,19 +3713,19 @@
         <v>288</v>
       </c>
       <c r="C87" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D87" t="n">
         <v>288</v>
       </c>
       <c r="E87" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F87" t="n">
-        <v>1283.81</v>
+        <v>1475.1694</v>
       </c>
       <c r="G87" t="n">
-        <v>287.0333333333334</v>
+        <v>287.0666666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3724,9 +3734,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>287</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3741,19 +3749,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C88" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D88" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E88" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F88" t="n">
-        <v>2690.562</v>
+        <v>1283.81</v>
       </c>
       <c r="G88" t="n">
         <v>287.0333333333334</v>
@@ -3765,9 +3773,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>287</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3782,7 +3788,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C89" t="n">
         <v>290</v>
@@ -3791,13 +3797,13 @@
         <v>290</v>
       </c>
       <c r="E89" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F89" t="n">
-        <v>4085.0395</v>
+        <v>2690.562</v>
       </c>
       <c r="G89" t="n">
-        <v>287.05</v>
+        <v>287.0333333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3806,9 +3812,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>287</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3826,19 +3830,19 @@
         <v>290</v>
       </c>
       <c r="C90" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D90" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E90" t="n">
         <v>290</v>
       </c>
       <c r="F90" t="n">
-        <v>1112.5945</v>
+        <v>4085.0395</v>
       </c>
       <c r="G90" t="n">
-        <v>287.0666666666667</v>
+        <v>287.05</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3847,9 +3851,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>287</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3864,22 +3866,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C91" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D91" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E91" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F91" t="n">
-        <v>7447.7349</v>
+        <v>1112.5945</v>
       </c>
       <c r="G91" t="n">
-        <v>287.1166666666667</v>
+        <v>287.0666666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3888,9 +3890,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>287</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3905,22 +3905,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C92" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D92" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E92" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F92" t="n">
-        <v>9124.6047</v>
+        <v>7447.7349</v>
       </c>
       <c r="G92" t="n">
-        <v>287.2</v>
+        <v>287.1166666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3929,9 +3929,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>287</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3946,7 +3944,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C93" t="n">
         <v>294</v>
@@ -3958,10 +3956,10 @@
         <v>292</v>
       </c>
       <c r="F93" t="n">
-        <v>2731.8643</v>
+        <v>9124.6047</v>
       </c>
       <c r="G93" t="n">
-        <v>287.3</v>
+        <v>287.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3970,9 +3968,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>287</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3990,19 +3986,19 @@
         <v>294</v>
       </c>
       <c r="C94" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D94" t="n">
         <v>294</v>
       </c>
       <c r="E94" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F94" t="n">
-        <v>300</v>
+        <v>2731.8643</v>
       </c>
       <c r="G94" t="n">
-        <v>287.3666666666667</v>
+        <v>287.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4011,9 +4007,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>287</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4028,22 +4022,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C95" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D95" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E95" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F95" t="n">
-        <v>692</v>
+        <v>300</v>
       </c>
       <c r="G95" t="n">
-        <v>287.4666666666666</v>
+        <v>287.3666666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4052,9 +4046,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>287</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4081,10 +4073,10 @@
         <v>295</v>
       </c>
       <c r="F96" t="n">
-        <v>3741.1372</v>
+        <v>692</v>
       </c>
       <c r="G96" t="n">
-        <v>287.5666666666667</v>
+        <v>287.4666666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4093,9 +4085,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>287</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4110,40 +4100,38 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C97" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D97" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E97" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F97" t="n">
-        <v>3990</v>
+        <v>3741.1372</v>
       </c>
       <c r="G97" t="n">
-        <v>287.6166666666667</v>
+        <v>287.5666666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>287</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>1.012421602787457</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -4154,19 +4142,19 @@
         <v>293</v>
       </c>
       <c r="C98" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D98" t="n">
         <v>293</v>
       </c>
       <c r="E98" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F98" t="n">
-        <v>19.8426</v>
+        <v>3990</v>
       </c>
       <c r="G98" t="n">
-        <v>287.7</v>
+        <v>287.6166666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4176,10 +4164,12 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4198,16 +4188,16 @@
         <v>293</v>
       </c>
       <c r="F99" t="n">
-        <v>40</v>
+        <v>19.8426</v>
       </c>
       <c r="G99" t="n">
-        <v>287.8</v>
+        <v>287.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4233,10 +4223,10 @@
         <v>293</v>
       </c>
       <c r="F100" t="n">
-        <v>293.4937</v>
+        <v>40</v>
       </c>
       <c r="G100" t="n">
-        <v>287.9</v>
+        <v>287.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4259,19 +4249,19 @@
         <v>293</v>
       </c>
       <c r="C101" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D101" t="n">
         <v>293</v>
       </c>
       <c r="E101" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F101" t="n">
-        <v>16399.7904</v>
+        <v>293.4937</v>
       </c>
       <c r="G101" t="n">
-        <v>287.9333333333333</v>
+        <v>287.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4291,28 +4281,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C102" t="n">
         <v>291</v>
       </c>
       <c r="D102" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E102" t="n">
         <v>291</v>
       </c>
       <c r="F102" t="n">
-        <v>5587.8758</v>
+        <v>16399.7904</v>
       </c>
       <c r="G102" t="n">
-        <v>287.9833333333333</v>
+        <v>287.9333333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4338,10 +4328,10 @@
         <v>291</v>
       </c>
       <c r="F103" t="n">
-        <v>3448.2758</v>
+        <v>5587.8758</v>
       </c>
       <c r="G103" t="n">
-        <v>288.0666666666667</v>
+        <v>287.9833333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4361,22 +4351,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C104" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D104" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E104" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F104" t="n">
-        <v>953.8847</v>
+        <v>3448.2758</v>
       </c>
       <c r="G104" t="n">
-        <v>288.15</v>
+        <v>288.0666666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4399,19 +4389,19 @@
         <v>290</v>
       </c>
       <c r="C105" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D105" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E105" t="n">
         <v>290</v>
       </c>
       <c r="F105" t="n">
-        <v>3.9828</v>
+        <v>953.8847</v>
       </c>
       <c r="G105" t="n">
-        <v>288.2333333333333</v>
+        <v>288.15</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4431,22 +4421,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>290</v>
+      </c>
+      <c r="C106" t="n">
         <v>292</v>
-      </c>
-      <c r="C106" t="n">
-        <v>291</v>
       </c>
       <c r="D106" t="n">
         <v>292</v>
       </c>
       <c r="E106" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F106" t="n">
-        <v>1025.1429</v>
+        <v>3.9828</v>
       </c>
       <c r="G106" t="n">
-        <v>288.35</v>
+        <v>288.2333333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4469,19 +4459,19 @@
         <v>292</v>
       </c>
       <c r="C107" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D107" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E107" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F107" t="n">
-        <v>176.3154</v>
+        <v>1025.1429</v>
       </c>
       <c r="G107" t="n">
-        <v>288.45</v>
+        <v>288.35</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4501,7 +4491,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C108" t="n">
         <v>293</v>
@@ -4510,13 +4500,13 @@
         <v>293</v>
       </c>
       <c r="E108" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F108" t="n">
-        <v>32.8515</v>
+        <v>176.3154</v>
       </c>
       <c r="G108" t="n">
-        <v>288.6166666666667</v>
+        <v>288.45</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4536,22 +4526,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C109" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D109" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E109" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F109" t="n">
-        <v>322.981</v>
+        <v>32.8515</v>
       </c>
       <c r="G109" t="n">
-        <v>288.7333333333333</v>
+        <v>288.6166666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4571,28 +4561,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C110" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D110" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E110" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F110" t="n">
-        <v>1.11</v>
+        <v>322.981</v>
       </c>
       <c r="G110" t="n">
-        <v>288.8833333333333</v>
+        <v>288.7333333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4606,22 +4596,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C111" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D111" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E111" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F111" t="n">
-        <v>314.1699</v>
+        <v>1.11</v>
       </c>
       <c r="G111" t="n">
-        <v>288.9833333333333</v>
+        <v>288.8833333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4653,10 +4643,10 @@
         <v>291</v>
       </c>
       <c r="F112" t="n">
-        <v>114</v>
+        <v>314.1699</v>
       </c>
       <c r="G112" t="n">
-        <v>289.0833333333333</v>
+        <v>288.9833333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4679,19 +4669,19 @@
         <v>291</v>
       </c>
       <c r="C113" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D113" t="n">
         <v>291</v>
       </c>
       <c r="E113" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F113" t="n">
-        <v>8073.0802</v>
+        <v>114</v>
       </c>
       <c r="G113" t="n">
-        <v>289.1666666666667</v>
+        <v>289.0833333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4711,22 +4701,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C114" t="n">
         <v>289</v>
       </c>
       <c r="D114" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E114" t="n">
         <v>289</v>
       </c>
       <c r="F114" t="n">
-        <v>550.6</v>
+        <v>8073.0802</v>
       </c>
       <c r="G114" t="n">
-        <v>289.25</v>
+        <v>289.1666666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4758,10 +4748,10 @@
         <v>289</v>
       </c>
       <c r="F115" t="n">
-        <v>798.5999</v>
+        <v>550.6</v>
       </c>
       <c r="G115" t="n">
-        <v>289.3333333333333</v>
+        <v>289.25</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4784,19 +4774,19 @@
         <v>289</v>
       </c>
       <c r="C116" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D116" t="n">
         <v>289</v>
       </c>
       <c r="E116" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F116" t="n">
-        <v>2116.2093</v>
+        <v>798.5999</v>
       </c>
       <c r="G116" t="n">
-        <v>289.3833333333333</v>
+        <v>289.3333333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4816,22 +4806,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C117" t="n">
         <v>288</v>
       </c>
       <c r="D117" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E117" t="n">
         <v>288</v>
       </c>
       <c r="F117" t="n">
-        <v>557</v>
+        <v>2116.2093</v>
       </c>
       <c r="G117" t="n">
-        <v>289.4166666666667</v>
+        <v>289.3833333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4863,10 +4853,10 @@
         <v>288</v>
       </c>
       <c r="F118" t="n">
-        <v>1011.8903</v>
+        <v>557</v>
       </c>
       <c r="G118" t="n">
-        <v>289.45</v>
+        <v>289.4166666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4889,19 +4879,19 @@
         <v>288</v>
       </c>
       <c r="C119" t="n">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D119" t="n">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E119" t="n">
         <v>288</v>
       </c>
       <c r="F119" t="n">
-        <v>3354.6491</v>
+        <v>1011.8903</v>
       </c>
       <c r="G119" t="n">
-        <v>289.5833333333333</v>
+        <v>289.45</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4921,22 +4911,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>288</v>
+      </c>
+      <c r="C120" t="n">
         <v>293</v>
-      </c>
-      <c r="C120" t="n">
-        <v>291</v>
       </c>
       <c r="D120" t="n">
         <v>293</v>
       </c>
       <c r="E120" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F120" t="n">
-        <v>3201.2746</v>
+        <v>3354.6491</v>
       </c>
       <c r="G120" t="n">
-        <v>289.65</v>
+        <v>289.5833333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4956,22 +4946,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C121" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D121" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E121" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F121" t="n">
-        <v>104.3997</v>
+        <v>3201.2746</v>
       </c>
       <c r="G121" t="n">
-        <v>289.7166666666666</v>
+        <v>289.65</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4991,22 +4981,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C122" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D122" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E122" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F122" t="n">
-        <v>1999.848</v>
+        <v>104.3997</v>
       </c>
       <c r="G122" t="n">
-        <v>289.75</v>
+        <v>289.7166666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5026,22 +5016,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C123" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D123" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E123" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F123" t="n">
-        <v>4900.7607</v>
+        <v>1999.848</v>
       </c>
       <c r="G123" t="n">
-        <v>289.7833333333334</v>
+        <v>289.75</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5061,22 +5051,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C124" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D124" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E124" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F124" t="n">
-        <v>1174.1672</v>
+        <v>4900.7607</v>
       </c>
       <c r="G124" t="n">
-        <v>289.8166666666667</v>
+        <v>289.7833333333334</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5096,22 +5086,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C125" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D125" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E125" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F125" t="n">
-        <v>5944.4851</v>
+        <v>1174.1672</v>
       </c>
       <c r="G125" t="n">
-        <v>289.9166666666667</v>
+        <v>289.8166666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5131,22 +5121,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C126" t="n">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D126" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E126" t="n">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F126" t="n">
-        <v>149.7543</v>
+        <v>5944.4851</v>
       </c>
       <c r="G126" t="n">
-        <v>290.0666666666667</v>
+        <v>289.9166666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5169,19 +5159,19 @@
         <v>289</v>
       </c>
       <c r="C127" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D127" t="n">
         <v>289</v>
       </c>
       <c r="E127" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F127" t="n">
-        <v>149.7</v>
+        <v>149.7543</v>
       </c>
       <c r="G127" t="n">
-        <v>290.15</v>
+        <v>290.0666666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5201,22 +5191,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C128" t="n">
         <v>288</v>
       </c>
       <c r="D128" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E128" t="n">
         <v>288</v>
       </c>
       <c r="F128" t="n">
-        <v>149.7155</v>
+        <v>149.7</v>
       </c>
       <c r="G128" t="n">
-        <v>290.1833333333333</v>
+        <v>290.15</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5248,10 +5238,10 @@
         <v>288</v>
       </c>
       <c r="F129" t="n">
-        <v>139.4</v>
+        <v>149.7155</v>
       </c>
       <c r="G129" t="n">
-        <v>290.1666666666667</v>
+        <v>290.1833333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5266,6 +5256,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>288</v>
+      </c>
+      <c r="C130" t="n">
+        <v>288</v>
+      </c>
+      <c r="D130" t="n">
+        <v>288</v>
+      </c>
+      <c r="E130" t="n">
+        <v>288</v>
+      </c>
+      <c r="F130" t="n">
+        <v>139.4</v>
+      </c>
+      <c r="G130" t="n">
+        <v>290.1666666666667</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-02 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-02 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M130"/>
+  <dimension ref="A1:N140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
+        <v>297.9333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>286.4333333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>975.2862</v>
       </c>
       <c r="G3" t="n">
+        <v>297.6666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>286.6</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>5877.4059</v>
       </c>
       <c r="G4" t="n">
+        <v>296.6</v>
+      </c>
+      <c r="H4" t="n">
         <v>286.6666666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>230.5442</v>
       </c>
       <c r="G5" t="n">
+        <v>295.4666666666666</v>
+      </c>
+      <c r="H5" t="n">
         <v>286.8</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>977.8336</v>
       </c>
       <c r="G6" t="n">
+        <v>294.4</v>
+      </c>
+      <c r="H6" t="n">
         <v>286.9</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>566</v>
       </c>
       <c r="G7" t="n">
+        <v>293.6</v>
+      </c>
+      <c r="H7" t="n">
         <v>287</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>18722.2053</v>
       </c>
       <c r="G8" t="n">
+        <v>293</v>
+      </c>
+      <c r="H8" t="n">
         <v>287.1833333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>5205.4016</v>
       </c>
       <c r="G9" t="n">
+        <v>292.9333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>287.5666666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>15560.6376</v>
       </c>
       <c r="G10" t="n">
+        <v>292.2666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>287.8333333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>10449.7568</v>
       </c>
       <c r="G11" t="n">
+        <v>291.3333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>288.0333333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>9915.777</v>
       </c>
       <c r="G12" t="n">
+        <v>291</v>
+      </c>
+      <c r="H12" t="n">
         <v>288.2333333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,24 +871,21 @@
         <v>1940.5394</v>
       </c>
       <c r="G13" t="n">
+        <v>290.8666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>288.4666666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>291</v>
+        <v>1</v>
       </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -874,24 +909,21 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
+        <v>290.7333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>288.6833333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -915,24 +947,21 @@
         <v>1308.5526</v>
       </c>
       <c r="G15" t="n">
+        <v>290.8666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>288.8666666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>291</v>
+        <v>1</v>
       </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -956,22 +985,21 @@
         <v>1218.1492</v>
       </c>
       <c r="G16" t="n">
+        <v>290.8</v>
+      </c>
+      <c r="H16" t="n">
         <v>289.0166666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -995,22 +1023,21 @@
         <v>27.5629</v>
       </c>
       <c r="G17" t="n">
+        <v>290.6666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>289.2</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1034,22 +1061,21 @@
         <v>3.9795</v>
       </c>
       <c r="G18" t="n">
+        <v>291</v>
+      </c>
+      <c r="H18" t="n">
         <v>289.4166666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1073,22 +1099,21 @@
         <v>1056.7191</v>
       </c>
       <c r="G19" t="n">
+        <v>291.4666666666666</v>
+      </c>
+      <c r="H19" t="n">
         <v>289.6</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1112,22 +1137,21 @@
         <v>926.5993999999999</v>
       </c>
       <c r="G20" t="n">
+        <v>291.7333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>289.8</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1151,22 +1175,21 @@
         <v>523</v>
       </c>
       <c r="G21" t="n">
+        <v>291.8666666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>289.9666666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1190,22 +1213,21 @@
         <v>4436.1566</v>
       </c>
       <c r="G22" t="n">
+        <v>291.9333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>290.1333333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1229,22 +1251,21 @@
         <v>1550.1569</v>
       </c>
       <c r="G23" t="n">
+        <v>292</v>
+      </c>
+      <c r="H23" t="n">
         <v>290.3</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1268,22 +1289,21 @@
         <v>2154.1976</v>
       </c>
       <c r="G24" t="n">
+        <v>291.4</v>
+      </c>
+      <c r="H24" t="n">
         <v>290.4666666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1307,22 +1327,21 @@
         <v>200</v>
       </c>
       <c r="G25" t="n">
+        <v>291.2666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>290.7166666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1346,22 +1365,21 @@
         <v>1177</v>
       </c>
       <c r="G26" t="n">
+        <v>291.3333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>290.8666666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1385,22 +1403,21 @@
         <v>400</v>
       </c>
       <c r="G27" t="n">
+        <v>291.3333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>291.0333333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1427,19 +1444,18 @@
         <v>291.2666666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>291.2666666666667</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,22 +1479,21 @@
         <v>1556.4768</v>
       </c>
       <c r="G29" t="n">
+        <v>291.2</v>
+      </c>
+      <c r="H29" t="n">
         <v>291.4666666666666</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,22 +1517,21 @@
         <v>699.3404</v>
       </c>
       <c r="G30" t="n">
+        <v>291</v>
+      </c>
+      <c r="H30" t="n">
         <v>291.6166666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1541,22 +1555,21 @@
         <v>544.2103</v>
       </c>
       <c r="G31" t="n">
+        <v>291.0666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>291.7666666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,22 +1593,21 @@
         <v>4910.628</v>
       </c>
       <c r="G32" t="n">
+        <v>291</v>
+      </c>
+      <c r="H32" t="n">
         <v>291.9</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,22 +1631,21 @@
         <v>1153.8768</v>
       </c>
       <c r="G33" t="n">
+        <v>290.7333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>291.9333333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1658,22 +1669,21 @@
         <v>1574.9337</v>
       </c>
       <c r="G34" t="n">
+        <v>290.4666666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>291.95</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1697,22 +1707,21 @@
         <v>12485.5284</v>
       </c>
       <c r="G35" t="n">
+        <v>290.2666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>292.05</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1736,22 +1745,21 @@
         <v>2483.1089</v>
       </c>
       <c r="G36" t="n">
+        <v>290.0666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>292.1166666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1775,22 +1783,21 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
+        <v>289.9333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>292.1833333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1814,22 +1821,21 @@
         <v>4486.8633</v>
       </c>
       <c r="G38" t="n">
+        <v>289.7333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>292.1833333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1853,22 +1859,21 @@
         <v>987.0703999999999</v>
       </c>
       <c r="G39" t="n">
+        <v>289.6</v>
+      </c>
+      <c r="H39" t="n">
         <v>292.1666666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1892,22 +1897,21 @@
         <v>157.1332</v>
       </c>
       <c r="G40" t="n">
+        <v>289.2666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>292.1666666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1931,22 +1935,21 @@
         <v>42.8668</v>
       </c>
       <c r="G41" t="n">
+        <v>288.9333333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>292.1166666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1970,22 +1973,21 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="H42" t="n">
         <v>292.1166666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2009,22 +2011,21 @@
         <v>5028</v>
       </c>
       <c r="G43" t="n">
+        <v>288.6666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>292.0833333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2048,22 +2049,21 @@
         <v>15586.1575</v>
       </c>
       <c r="G44" t="n">
+        <v>288.4</v>
+      </c>
+      <c r="H44" t="n">
         <v>292.0166666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2087,22 +2087,21 @@
         <v>409.3234</v>
       </c>
       <c r="G45" t="n">
+        <v>288.1333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>291.9333333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2126,22 +2125,21 @@
         <v>1290.6626</v>
       </c>
       <c r="G46" t="n">
+        <v>287.9333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>291.9</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2165,22 +2163,21 @@
         <v>1237.153</v>
       </c>
       <c r="G47" t="n">
+        <v>287.6</v>
+      </c>
+      <c r="H47" t="n">
         <v>291.8</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2204,22 +2201,21 @@
         <v>2567.9951</v>
       </c>
       <c r="G48" t="n">
+        <v>287.4666666666666</v>
+      </c>
+      <c r="H48" t="n">
         <v>291.7166666666666</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2243,22 +2239,21 @@
         <v>114</v>
       </c>
       <c r="G49" t="n">
+        <v>287.1333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>291.4166666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2282,22 +2277,21 @@
         <v>100</v>
       </c>
       <c r="G50" t="n">
+        <v>286.8666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>291.0833333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2321,22 +2315,21 @@
         <v>2397.2647</v>
       </c>
       <c r="G51" t="n">
+        <v>286.6</v>
+      </c>
+      <c r="H51" t="n">
         <v>290.7333333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2360,22 +2353,21 @@
         <v>237329.2053</v>
       </c>
       <c r="G52" t="n">
+        <v>286.3333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>290.45</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2399,22 +2391,21 @@
         <v>258904.5876</v>
       </c>
       <c r="G53" t="n">
+        <v>286.0666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>290.2</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2438,22 +2429,21 @@
         <v>5226.608</v>
       </c>
       <c r="G54" t="n">
+        <v>285.8</v>
+      </c>
+      <c r="H54" t="n">
         <v>289.9333333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2477,22 +2467,21 @@
         <v>292172.1639</v>
       </c>
       <c r="G55" t="n">
+        <v>285.6</v>
+      </c>
+      <c r="H55" t="n">
         <v>289.6</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2516,22 +2505,27 @@
         <v>843595.6845</v>
       </c>
       <c r="G56" t="n">
+        <v>285.4</v>
+      </c>
+      <c r="H56" t="n">
         <v>289.25</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>284</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2555,22 +2549,25 @@
         <v>755.5749</v>
       </c>
       <c r="G57" t="n">
+        <v>285.1333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>289.0666666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2594,22 +2591,25 @@
         <v>287.2724</v>
       </c>
       <c r="G58" t="n">
+        <v>285</v>
+      </c>
+      <c r="H58" t="n">
         <v>288.95</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2633,22 +2633,25 @@
         <v>1004.7018</v>
       </c>
       <c r="G59" t="n">
+        <v>285</v>
+      </c>
+      <c r="H59" t="n">
         <v>288.8333333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2672,22 +2675,25 @@
         <v>281.2632</v>
       </c>
       <c r="G60" t="n">
+        <v>285</v>
+      </c>
+      <c r="H60" t="n">
         <v>288.75</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2711,22 +2717,25 @@
         <v>3.9756</v>
       </c>
       <c r="G61" t="n">
+        <v>285</v>
+      </c>
+      <c r="H61" t="n">
         <v>288.7</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2750,22 +2759,27 @@
         <v>1724.804</v>
       </c>
       <c r="G62" t="n">
+        <v>285.1333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>288.6</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>287</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2789,22 +2803,27 @@
         <v>2004.8601</v>
       </c>
       <c r="G63" t="n">
+        <v>285.0666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>288.5666666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>286</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,22 +2847,27 @@
         <v>1923.601</v>
       </c>
       <c r="G64" t="n">
+        <v>285.2</v>
+      </c>
+      <c r="H64" t="n">
         <v>288.5666666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>286</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2867,22 +2891,27 @@
         <v>146.1479</v>
       </c>
       <c r="G65" t="n">
+        <v>285.2666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>288.5333333333334</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>285</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2906,22 +2935,27 @@
         <v>13210.9019</v>
       </c>
       <c r="G66" t="n">
+        <v>284.9333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>288.3666666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>286</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2945,22 +2979,27 @@
         <v>10359.9019</v>
       </c>
       <c r="G67" t="n">
+        <v>284.6</v>
+      </c>
+      <c r="H67" t="n">
         <v>288.2</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>280</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,22 +3023,27 @@
         <v>733</v>
       </c>
       <c r="G68" t="n">
+        <v>284.4666666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>288.0666666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>280</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3023,22 +3067,27 @@
         <v>11060.0541</v>
       </c>
       <c r="G69" t="n">
+        <v>284.6</v>
+      </c>
+      <c r="H69" t="n">
         <v>287.85</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>283</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3062,22 +3111,27 @@
         <v>24739.8894</v>
       </c>
       <c r="G70" t="n">
+        <v>284.9333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>287.7666666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>286</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3101,22 +3155,25 @@
         <v>4026.7195</v>
       </c>
       <c r="G71" t="n">
+        <v>285.1333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>287.7</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3140,22 +3197,25 @@
         <v>2122.1292</v>
       </c>
       <c r="G72" t="n">
+        <v>285.4666666666666</v>
+      </c>
+      <c r="H72" t="n">
         <v>287.6833333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3179,22 +3239,25 @@
         <v>154.0195</v>
       </c>
       <c r="G73" t="n">
+        <v>285.5333333333334</v>
+      </c>
+      <c r="H73" t="n">
         <v>287.6166666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3218,22 +3281,25 @@
         <v>3.9861</v>
       </c>
       <c r="G74" t="n">
+        <v>285.7333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>287.5833333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3257,22 +3323,25 @@
         <v>4586.7998</v>
       </c>
       <c r="G75" t="n">
+        <v>286</v>
+      </c>
+      <c r="H75" t="n">
         <v>287.5333333333334</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3296,22 +3365,25 @@
         <v>251.44</v>
       </c>
       <c r="G76" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="H76" t="n">
         <v>287.55</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3335,22 +3407,25 @@
         <v>1072.4641</v>
       </c>
       <c r="G77" t="n">
+        <v>286.4666666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>287.55</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3374,22 +3449,25 @@
         <v>3816.2261</v>
       </c>
       <c r="G78" t="n">
+        <v>286.6666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>287.4833333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3413,22 +3491,25 @@
         <v>1358.1019</v>
       </c>
       <c r="G79" t="n">
+        <v>287.0666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>287.4666666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3452,22 +3533,25 @@
         <v>104</v>
       </c>
       <c r="G80" t="n">
+        <v>287.4</v>
+      </c>
+      <c r="H80" t="n">
         <v>287.45</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3491,22 +3575,25 @@
         <v>10.5677</v>
       </c>
       <c r="G81" t="n">
+        <v>288</v>
+      </c>
+      <c r="H81" t="n">
         <v>287.4</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3530,22 +3617,25 @@
         <v>10094.8945</v>
       </c>
       <c r="G82" t="n">
+        <v>288.7333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>287.4</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3569,22 +3659,25 @@
         <v>157.8151</v>
       </c>
       <c r="G83" t="n">
+        <v>289</v>
+      </c>
+      <c r="H83" t="n">
         <v>287.3166666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3608,22 +3701,25 @@
         <v>528.4687</v>
       </c>
       <c r="G84" t="n">
+        <v>289.2</v>
+      </c>
+      <c r="H84" t="n">
         <v>287.3</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3647,22 +3743,25 @@
         <v>1002.1901</v>
       </c>
       <c r="G85" t="n">
+        <v>289.0666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>287.2166666666666</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,22 +3785,25 @@
         <v>154.6233</v>
       </c>
       <c r="G86" t="n">
+        <v>289.0666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>287.1333333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3725,22 +3827,25 @@
         <v>1475.1694</v>
       </c>
       <c r="G87" t="n">
+        <v>288.8666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>287.0666666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3764,22 +3869,25 @@
         <v>1283.81</v>
       </c>
       <c r="G88" t="n">
+        <v>288.9333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>287.0333333333334</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3803,22 +3911,25 @@
         <v>2690.562</v>
       </c>
       <c r="G89" t="n">
+        <v>289</v>
+      </c>
+      <c r="H89" t="n">
         <v>287.0333333333334</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3842,22 +3953,25 @@
         <v>4085.0395</v>
       </c>
       <c r="G90" t="n">
+        <v>289.0666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>287.05</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3881,22 +3995,25 @@
         <v>1112.5945</v>
       </c>
       <c r="G91" t="n">
+        <v>289.1333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>287.0666666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3920,22 +4037,25 @@
         <v>7447.7349</v>
       </c>
       <c r="G92" t="n">
+        <v>289.2666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>287.1166666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3959,22 +4079,25 @@
         <v>9124.6047</v>
       </c>
       <c r="G93" t="n">
+        <v>289.6</v>
+      </c>
+      <c r="H93" t="n">
         <v>287.2</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3998,22 +4121,25 @@
         <v>2731.8643</v>
       </c>
       <c r="G94" t="n">
+        <v>289.8</v>
+      </c>
+      <c r="H94" t="n">
         <v>287.3</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4037,22 +4163,25 @@
         <v>300</v>
       </c>
       <c r="G95" t="n">
+        <v>289.9333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>287.3666666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4076,22 +4205,25 @@
         <v>692</v>
       </c>
       <c r="G96" t="n">
+        <v>290.3333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>287.4666666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4115,22 +4247,25 @@
         <v>3741.1372</v>
       </c>
       <c r="G97" t="n">
+        <v>290.6</v>
+      </c>
+      <c r="H97" t="n">
         <v>287.5666666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4154,22 +4289,27 @@
         <v>3990</v>
       </c>
       <c r="G98" t="n">
+        <v>290.9333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>287.6166666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4191,18 +4331,25 @@
         <v>19.8426</v>
       </c>
       <c r="G99" t="n">
+        <v>291.2</v>
+      </c>
+      <c r="H99" t="n">
         <v>287.7</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4226,18 +4373,25 @@
         <v>40</v>
       </c>
       <c r="G100" t="n">
+        <v>291.6</v>
+      </c>
+      <c r="H100" t="n">
         <v>287.8</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4261,18 +4415,25 @@
         <v>293.4937</v>
       </c>
       <c r="G101" t="n">
+        <v>292</v>
+      </c>
+      <c r="H101" t="n">
         <v>287.9</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4296,18 +4457,25 @@
         <v>16399.7904</v>
       </c>
       <c r="G102" t="n">
+        <v>292.2666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>287.9333333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4331,18 +4499,25 @@
         <v>5587.8758</v>
       </c>
       <c r="G103" t="n">
+        <v>292.4666666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>287.9833333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4366,18 +4541,25 @@
         <v>3448.2758</v>
       </c>
       <c r="G104" t="n">
+        <v>292.5333333333334</v>
+      </c>
+      <c r="H104" t="n">
         <v>288.0666666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4401,18 +4583,25 @@
         <v>953.8847</v>
       </c>
       <c r="G105" t="n">
+        <v>292.5333333333334</v>
+      </c>
+      <c r="H105" t="n">
         <v>288.15</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4436,18 +4625,25 @@
         <v>3.9828</v>
       </c>
       <c r="G106" t="n">
+        <v>292.6</v>
+      </c>
+      <c r="H106" t="n">
         <v>288.2333333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4471,18 +4667,25 @@
         <v>1025.1429</v>
       </c>
       <c r="G107" t="n">
+        <v>292.5333333333334</v>
+      </c>
+      <c r="H107" t="n">
         <v>288.35</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4506,18 +4709,25 @@
         <v>176.3154</v>
       </c>
       <c r="G108" t="n">
+        <v>292.4666666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>288.45</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4541,18 +4751,25 @@
         <v>32.8515</v>
       </c>
       <c r="G109" t="n">
+        <v>292.4</v>
+      </c>
+      <c r="H109" t="n">
         <v>288.6166666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4576,18 +4793,25 @@
         <v>322.981</v>
       </c>
       <c r="G110" t="n">
+        <v>292.3333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>288.7333333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4611,18 +4835,25 @@
         <v>1.11</v>
       </c>
       <c r="G111" t="n">
+        <v>292.2666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>288.8833333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4646,18 +4877,25 @@
         <v>314.1699</v>
       </c>
       <c r="G112" t="n">
+        <v>292</v>
+      </c>
+      <c r="H112" t="n">
         <v>288.9833333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,18 +4919,25 @@
         <v>114</v>
       </c>
       <c r="G113" t="n">
+        <v>291.9333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>289.0833333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4716,18 +4961,25 @@
         <v>8073.0802</v>
       </c>
       <c r="G114" t="n">
+        <v>291.6666666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>289.1666666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4751,18 +5003,25 @@
         <v>550.6</v>
       </c>
       <c r="G115" t="n">
+        <v>291.4</v>
+      </c>
+      <c r="H115" t="n">
         <v>289.25</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4786,18 +5045,25 @@
         <v>798.5999</v>
       </c>
       <c r="G116" t="n">
+        <v>291.1333333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>289.3333333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4821,18 +5087,25 @@
         <v>2116.2093</v>
       </c>
       <c r="G117" t="n">
+        <v>290.9333333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>289.3833333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4856,18 +5129,25 @@
         <v>557</v>
       </c>
       <c r="G118" t="n">
+        <v>290.7333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>289.4166666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4891,18 +5171,25 @@
         <v>1011.8903</v>
       </c>
       <c r="G119" t="n">
+        <v>290.5333333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>289.45</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4926,18 +5213,25 @@
         <v>3354.6491</v>
       </c>
       <c r="G120" t="n">
+        <v>290.7333333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>289.5833333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4961,18 +5255,25 @@
         <v>3201.2746</v>
       </c>
       <c r="G121" t="n">
+        <v>290.6666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>289.65</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4996,18 +5297,25 @@
         <v>104.3997</v>
       </c>
       <c r="G122" t="n">
+        <v>290.6</v>
+      </c>
+      <c r="H122" t="n">
         <v>289.7166666666666</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5031,18 +5339,25 @@
         <v>1999.848</v>
       </c>
       <c r="G123" t="n">
+        <v>290.2666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>289.75</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5066,18 +5381,25 @@
         <v>4900.7607</v>
       </c>
       <c r="G124" t="n">
+        <v>289.8666666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>289.7833333333334</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5101,18 +5423,25 @@
         <v>1174.1672</v>
       </c>
       <c r="G125" t="n">
+        <v>289.6</v>
+      </c>
+      <c r="H125" t="n">
         <v>289.8166666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5136,18 +5465,25 @@
         <v>5944.4851</v>
       </c>
       <c r="G126" t="n">
+        <v>289.0666666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>289.9166666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5171,18 +5507,25 @@
         <v>149.7543</v>
       </c>
       <c r="G127" t="n">
+        <v>288.9333333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>290.0666666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5206,18 +5549,27 @@
         <v>149.7</v>
       </c>
       <c r="G128" t="n">
+        <v>288.7333333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>290.15</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>289</v>
+      </c>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5241,18 +5593,25 @@
         <v>149.7155</v>
       </c>
       <c r="G129" t="n">
+        <v>288.6666666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>290.1833333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5276,18 +5635,445 @@
         <v>139.4</v>
       </c>
       <c r="G130" t="n">
+        <v>288.6</v>
+      </c>
+      <c r="H130" t="n">
         <v>290.1666666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>287</v>
+      </c>
+      <c r="C131" t="n">
+        <v>284</v>
+      </c>
+      <c r="D131" t="n">
+        <v>287</v>
+      </c>
+      <c r="E131" t="n">
+        <v>284</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4967.3</v>
+      </c>
+      <c r="G131" t="n">
+        <v>288.2666666666667</v>
+      </c>
+      <c r="H131" t="n">
+        <v>290.1166666666667</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>290</v>
+      </c>
+      <c r="C132" t="n">
+        <v>290</v>
+      </c>
+      <c r="D132" t="n">
+        <v>290</v>
+      </c>
+      <c r="E132" t="n">
+        <v>290</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" t="n">
+        <v>288.4</v>
+      </c>
+      <c r="H132" t="n">
+        <v>290.1166666666667</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>286</v>
+      </c>
+      <c r="C133" t="n">
+        <v>288</v>
+      </c>
+      <c r="D133" t="n">
+        <v>288</v>
+      </c>
+      <c r="E133" t="n">
+        <v>286</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1305.2968</v>
+      </c>
+      <c r="G133" t="n">
+        <v>288.4</v>
+      </c>
+      <c r="H133" t="n">
+        <v>290.1333333333333</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>288</v>
+      </c>
+      <c r="C134" t="n">
+        <v>288</v>
+      </c>
+      <c r="D134" t="n">
+        <v>289</v>
+      </c>
+      <c r="E134" t="n">
+        <v>287</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1760.821</v>
+      </c>
+      <c r="G134" t="n">
+        <v>288.4</v>
+      </c>
+      <c r="H134" t="n">
+        <v>290.1166666666667</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>290</v>
+      </c>
+      <c r="C135" t="n">
+        <v>289</v>
+      </c>
+      <c r="D135" t="n">
+        <v>290</v>
+      </c>
+      <c r="E135" t="n">
+        <v>289</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1060.1034</v>
+      </c>
+      <c r="G135" t="n">
+        <v>288.1333333333333</v>
+      </c>
+      <c r="H135" t="n">
+        <v>290.1166666666667</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>290</v>
+      </c>
+      <c r="C136" t="n">
+        <v>290</v>
+      </c>
+      <c r="D136" t="n">
+        <v>290</v>
+      </c>
+      <c r="E136" t="n">
+        <v>290</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1578.8034</v>
+      </c>
+      <c r="G136" t="n">
+        <v>288.0666666666667</v>
+      </c>
+      <c r="H136" t="n">
+        <v>290.1166666666667</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>290</v>
+      </c>
+      <c r="C137" t="n">
+        <v>292</v>
+      </c>
+      <c r="D137" t="n">
+        <v>292</v>
+      </c>
+      <c r="E137" t="n">
+        <v>290</v>
+      </c>
+      <c r="F137" t="n">
+        <v>354.5592</v>
+      </c>
+      <c r="G137" t="n">
+        <v>288.2</v>
+      </c>
+      <c r="H137" t="n">
+        <v>290.15</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>292</v>
+      </c>
+      <c r="C138" t="n">
+        <v>293</v>
+      </c>
+      <c r="D138" t="n">
+        <v>293</v>
+      </c>
+      <c r="E138" t="n">
+        <v>292</v>
+      </c>
+      <c r="F138" t="n">
+        <v>874.6652</v>
+      </c>
+      <c r="G138" t="n">
+        <v>288.5333333333334</v>
+      </c>
+      <c r="H138" t="n">
+        <v>290.2166666666666</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>293</v>
+      </c>
+      <c r="C139" t="n">
+        <v>292</v>
+      </c>
+      <c r="D139" t="n">
+        <v>293</v>
+      </c>
+      <c r="E139" t="n">
+        <v>292</v>
+      </c>
+      <c r="F139" t="n">
+        <v>860.2922</v>
+      </c>
+      <c r="G139" t="n">
+        <v>288.8666666666667</v>
+      </c>
+      <c r="H139" t="n">
+        <v>290.2333333333333</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>292</v>
+      </c>
+      <c r="C140" t="n">
+        <v>292</v>
+      </c>
+      <c r="D140" t="n">
+        <v>292</v>
+      </c>
+      <c r="E140" t="n">
+        <v>292</v>
+      </c>
+      <c r="F140" t="n">
+        <v>210.4088</v>
+      </c>
+      <c r="G140" t="n">
+        <v>289.1333333333333</v>
+      </c>
+      <c r="H140" t="n">
+        <v>290.25</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-02 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N140"/>
+  <dimension ref="A1:M169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C2" t="n">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D2" t="n">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E2" t="n">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>15719.686</v>
       </c>
       <c r="G2" t="n">
-        <v>297.9333333333333</v>
+        <v>18325.45126284</v>
       </c>
       <c r="H2" t="n">
-        <v>286.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C3" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D3" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E3" t="n">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F3" t="n">
-        <v>975.2862</v>
+        <v>21243.4224</v>
       </c>
       <c r="G3" t="n">
-        <v>297.6666666666667</v>
+        <v>18325.45126284</v>
       </c>
       <c r="H3" t="n">
-        <v>286.6</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C4" t="n">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D4" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E4" t="n">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F4" t="n">
-        <v>5877.4059</v>
+        <v>11049.2044</v>
       </c>
       <c r="G4" t="n">
-        <v>296.6</v>
+        <v>7276.24686284</v>
       </c>
       <c r="H4" t="n">
-        <v>286.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C5" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D5" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E5" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F5" t="n">
-        <v>230.5442</v>
+        <v>5386.9835</v>
       </c>
       <c r="G5" t="n">
-        <v>295.4666666666666</v>
+        <v>12663.23036284</v>
       </c>
       <c r="H5" t="n">
-        <v>286.8</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C6" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D6" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E6" t="n">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F6" t="n">
-        <v>977.8336</v>
+        <v>16523.701</v>
       </c>
       <c r="G6" t="n">
-        <v>294.4</v>
+        <v>12663.23036284</v>
       </c>
       <c r="H6" t="n">
-        <v>286.9</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C7" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D7" t="n">
         <v>290</v>
       </c>
       <c r="E7" t="n">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F7" t="n">
-        <v>566</v>
+        <v>10523.3572</v>
       </c>
       <c r="G7" t="n">
-        <v>293.6</v>
+        <v>23186.58756284</v>
       </c>
       <c r="H7" t="n">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C8" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D8" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E8" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F8" t="n">
-        <v>18722.2053</v>
+        <v>476.8872</v>
       </c>
       <c r="G8" t="n">
-        <v>293</v>
+        <v>23186.58756284</v>
       </c>
       <c r="H8" t="n">
-        <v>287.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C9" t="n">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="D9" t="n">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="E9" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F9" t="n">
-        <v>5205.4016</v>
+        <v>2436.8797</v>
       </c>
       <c r="G9" t="n">
-        <v>292.9333333333333</v>
+        <v>20749.70786284</v>
       </c>
       <c r="H9" t="n">
-        <v>287.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C10" t="n">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D10" t="n">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E10" t="n">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F10" t="n">
-        <v>15560.6376</v>
+        <v>4569.4345</v>
       </c>
       <c r="G10" t="n">
-        <v>292.2666666666667</v>
+        <v>25319.14236284</v>
       </c>
       <c r="H10" t="n">
-        <v>287.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C11" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D11" t="n">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E11" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F11" t="n">
-        <v>10449.7568</v>
+        <v>641.5096</v>
       </c>
       <c r="G11" t="n">
-        <v>291.3333333333333</v>
+        <v>24677.63276284</v>
       </c>
       <c r="H11" t="n">
-        <v>288.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C12" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D12" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E12" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F12" t="n">
-        <v>9915.777</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>291</v>
+        <v>24678.63276284</v>
       </c>
       <c r="H12" t="n">
-        <v>288.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -859,33 +821,30 @@
         <v>289</v>
       </c>
       <c r="C13" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D13" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E13" t="n">
         <v>289</v>
       </c>
       <c r="F13" t="n">
-        <v>1940.5394</v>
+        <v>93.7149</v>
       </c>
       <c r="G13" t="n">
-        <v>290.8666666666667</v>
+        <v>24678.63276284</v>
       </c>
       <c r="H13" t="n">
-        <v>288.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C14" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D14" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E14" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>497.3896</v>
       </c>
       <c r="G14" t="n">
-        <v>290.7333333333333</v>
+        <v>24678.63276284</v>
       </c>
       <c r="H14" t="n">
-        <v>288.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C15" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D15" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E15" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F15" t="n">
-        <v>1308.5526</v>
+        <v>1036.1785</v>
       </c>
       <c r="G15" t="n">
-        <v>290.8666666666667</v>
+        <v>23642.45426284</v>
       </c>
       <c r="H15" t="n">
-        <v>288.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,33 +926,30 @@
         <v>290</v>
       </c>
       <c r="C16" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D16" t="n">
         <v>290</v>
       </c>
       <c r="E16" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F16" t="n">
-        <v>1218.1492</v>
+        <v>1498.5793</v>
       </c>
       <c r="G16" t="n">
-        <v>290.8</v>
+        <v>25141.03356284</v>
       </c>
       <c r="H16" t="n">
-        <v>289.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1011,33 +961,30 @@
         <v>290</v>
       </c>
       <c r="C17" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D17" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E17" t="n">
         <v>290</v>
       </c>
       <c r="F17" t="n">
-        <v>27.5629</v>
+        <v>5196.347</v>
       </c>
       <c r="G17" t="n">
-        <v>290.6666666666667</v>
+        <v>30337.38056284</v>
       </c>
       <c r="H17" t="n">
-        <v>289.2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C18" t="n">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D18" t="n">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="E18" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F18" t="n">
-        <v>3.9795</v>
+        <v>30558.5331</v>
       </c>
       <c r="G18" t="n">
-        <v>291</v>
+        <v>60895.91366284</v>
       </c>
       <c r="H18" t="n">
-        <v>289.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C19" t="n">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D19" t="n">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="E19" t="n">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="F19" t="n">
-        <v>1056.7191</v>
+        <v>8970.527899999999</v>
       </c>
       <c r="G19" t="n">
-        <v>291.4666666666666</v>
+        <v>69866.44156284</v>
       </c>
       <c r="H19" t="n">
-        <v>289.6</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="C20" t="n">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="D20" t="n">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="E20" t="n">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="F20" t="n">
-        <v>926.5993999999999</v>
+        <v>15243.1684</v>
       </c>
       <c r="G20" t="n">
-        <v>291.7333333333333</v>
+        <v>85109.60996284</v>
       </c>
       <c r="H20" t="n">
-        <v>289.8</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C21" t="n">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="D21" t="n">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="E21" t="n">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="F21" t="n">
-        <v>523</v>
+        <v>521.6124</v>
       </c>
       <c r="G21" t="n">
-        <v>291.8666666666667</v>
+        <v>84587.99756284</v>
       </c>
       <c r="H21" t="n">
-        <v>289.9666666666666</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C22" t="n">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="D22" t="n">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="E22" t="n">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="F22" t="n">
-        <v>4436.1566</v>
+        <v>11722.7766</v>
       </c>
       <c r="G22" t="n">
-        <v>291.9333333333333</v>
+        <v>72865.22096284</v>
       </c>
       <c r="H22" t="n">
-        <v>290.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C23" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D23" t="n">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E23" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="F23" t="n">
-        <v>1550.1569</v>
+        <v>10108.7354</v>
       </c>
       <c r="G23" t="n">
-        <v>292</v>
+        <v>72865.22096284</v>
       </c>
       <c r="H23" t="n">
-        <v>290.3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="C24" t="n">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="D24" t="n">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="E24" t="n">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="F24" t="n">
-        <v>2154.1976</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>291.4</v>
+        <v>72866.22096284</v>
       </c>
       <c r="H24" t="n">
-        <v>290.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="C25" t="n">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D25" t="n">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="E25" t="n">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="F25" t="n">
-        <v>200</v>
+        <v>9079.5417</v>
       </c>
       <c r="G25" t="n">
-        <v>291.2666666666667</v>
+        <v>81945.76266284</v>
       </c>
       <c r="H25" t="n">
-        <v>290.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="C26" t="n">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D26" t="n">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="E26" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F26" t="n">
-        <v>1177</v>
+        <v>21388.0158</v>
       </c>
       <c r="G26" t="n">
-        <v>291.3333333333333</v>
+        <v>60557.74686284</v>
       </c>
       <c r="H26" t="n">
-        <v>290.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C27" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D27" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E27" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F27" t="n">
-        <v>400</v>
+        <v>1887.7551</v>
       </c>
       <c r="G27" t="n">
-        <v>291.3333333333333</v>
+        <v>58669.99176284</v>
       </c>
       <c r="H27" t="n">
-        <v>291.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C28" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D28" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E28" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F28" t="n">
-        <v>3299.7156</v>
+        <v>200</v>
       </c>
       <c r="G28" t="n">
-        <v>291.2666666666667</v>
+        <v>58669.99176284</v>
       </c>
       <c r="H28" t="n">
-        <v>291.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C29" t="n">
         <v>290</v>
       </c>
       <c r="D29" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E29" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F29" t="n">
-        <v>1556.4768</v>
+        <v>11343.8513</v>
       </c>
       <c r="G29" t="n">
-        <v>291.2</v>
+        <v>47326.14046284</v>
       </c>
       <c r="H29" t="n">
-        <v>291.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C30" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D30" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E30" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F30" t="n">
-        <v>699.3404</v>
+        <v>19276.5804</v>
       </c>
       <c r="G30" t="n">
-        <v>291</v>
+        <v>47326.14046284</v>
       </c>
       <c r="H30" t="n">
-        <v>291.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C31" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D31" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E31" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F31" t="n">
-        <v>544.2103</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>291.0666666666667</v>
+        <v>47327.14046284</v>
       </c>
       <c r="H31" t="n">
-        <v>291.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C32" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D32" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E32" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F32" t="n">
-        <v>4910.628</v>
+        <v>975.2862</v>
       </c>
       <c r="G32" t="n">
-        <v>291</v>
+        <v>46351.85426284</v>
       </c>
       <c r="H32" t="n">
-        <v>291.9</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C33" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D33" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E33" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F33" t="n">
-        <v>1153.8768</v>
+        <v>5877.4059</v>
       </c>
       <c r="G33" t="n">
-        <v>290.7333333333333</v>
+        <v>40474.44836284</v>
       </c>
       <c r="H33" t="n">
-        <v>291.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C34" t="n">
         <v>288</v>
       </c>
       <c r="D34" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E34" t="n">
         <v>288</v>
       </c>
       <c r="F34" t="n">
-        <v>1574.9337</v>
+        <v>230.5442</v>
       </c>
       <c r="G34" t="n">
-        <v>290.4666666666666</v>
+        <v>40704.99256283999</v>
       </c>
       <c r="H34" t="n">
-        <v>291.95</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C35" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D35" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E35" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F35" t="n">
-        <v>12485.5284</v>
+        <v>977.8336</v>
       </c>
       <c r="G35" t="n">
-        <v>290.2666666666667</v>
+        <v>41682.82616283999</v>
       </c>
       <c r="H35" t="n">
-        <v>292.05</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C36" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D36" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E36" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F36" t="n">
-        <v>2483.1089</v>
+        <v>566</v>
       </c>
       <c r="G36" t="n">
-        <v>290.0666666666667</v>
+        <v>41682.82616283999</v>
       </c>
       <c r="H36" t="n">
-        <v>292.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C37" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D37" t="n">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="E37" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>18722.2053</v>
       </c>
       <c r="G37" t="n">
-        <v>289.9333333333333</v>
+        <v>60405.03146283999</v>
       </c>
       <c r="H37" t="n">
-        <v>292.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C38" t="n">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="D38" t="n">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="E38" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F38" t="n">
-        <v>4486.8633</v>
+        <v>5205.4016</v>
       </c>
       <c r="G38" t="n">
-        <v>289.7333333333333</v>
+        <v>65610.43306283999</v>
       </c>
       <c r="H38" t="n">
-        <v>292.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C39" t="n">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D39" t="n">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E39" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F39" t="n">
-        <v>987.0703999999999</v>
+        <v>15560.6376</v>
       </c>
       <c r="G39" t="n">
-        <v>289.6</v>
+        <v>50049.79546283999</v>
       </c>
       <c r="H39" t="n">
-        <v>292.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C40" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D40" t="n">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E40" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F40" t="n">
-        <v>157.1332</v>
+        <v>10449.7568</v>
       </c>
       <c r="G40" t="n">
-        <v>289.2666666666667</v>
+        <v>39600.03866283999</v>
       </c>
       <c r="H40" t="n">
-        <v>292.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C41" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D41" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E41" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F41" t="n">
-        <v>42.8668</v>
+        <v>9915.777</v>
       </c>
       <c r="G41" t="n">
-        <v>288.9333333333333</v>
+        <v>39600.03866283999</v>
       </c>
       <c r="H41" t="n">
-        <v>292.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1961,33 +1836,30 @@
         <v>289</v>
       </c>
       <c r="C42" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D42" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E42" t="n">
         <v>289</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>1940.5394</v>
       </c>
       <c r="G42" t="n">
-        <v>288.8</v>
+        <v>39600.03866283999</v>
       </c>
       <c r="H42" t="n">
-        <v>292.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C43" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D43" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E43" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F43" t="n">
-        <v>5028</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>288.6666666666667</v>
+        <v>39600.03866283999</v>
       </c>
       <c r="H43" t="n">
-        <v>292.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C44" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D44" t="n">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E44" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="F44" t="n">
-        <v>15586.1575</v>
+        <v>1308.5526</v>
       </c>
       <c r="G44" t="n">
-        <v>288.4</v>
+        <v>40908.59126283999</v>
       </c>
       <c r="H44" t="n">
-        <v>292.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C45" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D45" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E45" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F45" t="n">
-        <v>409.3234</v>
+        <v>1218.1492</v>
       </c>
       <c r="G45" t="n">
-        <v>288.1333333333333</v>
+        <v>39690.44206283999</v>
       </c>
       <c r="H45" t="n">
-        <v>291.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C46" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D46" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E46" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F46" t="n">
-        <v>1290.6626</v>
+        <v>27.5629</v>
       </c>
       <c r="G46" t="n">
-        <v>287.9333333333333</v>
+        <v>39718.00496283999</v>
       </c>
       <c r="H46" t="n">
-        <v>291.9</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C47" t="n">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="D47" t="n">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E47" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F47" t="n">
-        <v>1237.153</v>
+        <v>3.9795</v>
       </c>
       <c r="G47" t="n">
-        <v>287.6</v>
+        <v>39721.98446283999</v>
       </c>
       <c r="H47" t="n">
-        <v>291.8</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C48" t="n">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D48" t="n">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E48" t="n">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="F48" t="n">
-        <v>2567.9951</v>
+        <v>1056.7191</v>
       </c>
       <c r="G48" t="n">
-        <v>287.4666666666666</v>
+        <v>38665.26536283999</v>
       </c>
       <c r="H48" t="n">
-        <v>291.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C49" t="n">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="D49" t="n">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="E49" t="n">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="F49" t="n">
-        <v>114</v>
+        <v>926.5993999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>287.1333333333333</v>
+        <v>38665.26536283999</v>
       </c>
       <c r="H49" t="n">
-        <v>291.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C50" t="n">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D50" t="n">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E50" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F50" t="n">
-        <v>100</v>
+        <v>523</v>
       </c>
       <c r="G50" t="n">
-        <v>286.8666666666667</v>
+        <v>38665.26536283999</v>
       </c>
       <c r="H50" t="n">
-        <v>291.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C51" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D51" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E51" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F51" t="n">
-        <v>2397.2647</v>
+        <v>4436.1566</v>
       </c>
       <c r="G51" t="n">
-        <v>286.6</v>
+        <v>34229.10876283998</v>
       </c>
       <c r="H51" t="n">
-        <v>290.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C52" t="n">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D52" t="n">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E52" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F52" t="n">
-        <v>237329.2053</v>
+        <v>1550.1569</v>
       </c>
       <c r="G52" t="n">
-        <v>286.3333333333333</v>
+        <v>35779.26566283999</v>
       </c>
       <c r="H52" t="n">
-        <v>290.45</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C53" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D53" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E53" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F53" t="n">
-        <v>258904.5876</v>
+        <v>2154.1976</v>
       </c>
       <c r="G53" t="n">
-        <v>286.0666666666667</v>
+        <v>33625.06806283999</v>
       </c>
       <c r="H53" t="n">
-        <v>290.2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C54" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D54" t="n">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E54" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F54" t="n">
-        <v>5226.608</v>
+        <v>200</v>
       </c>
       <c r="G54" t="n">
-        <v>285.8</v>
+        <v>33825.06806283999</v>
       </c>
       <c r="H54" t="n">
-        <v>289.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C55" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D55" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E55" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F55" t="n">
-        <v>292172.1639</v>
+        <v>1177</v>
       </c>
       <c r="G55" t="n">
-        <v>285.6</v>
+        <v>33825.06806283999</v>
       </c>
       <c r="H55" t="n">
-        <v>289.6</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,42 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C56" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="D56" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E56" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F56" t="n">
-        <v>843595.6845</v>
+        <v>400</v>
       </c>
       <c r="G56" t="n">
-        <v>285.4</v>
+        <v>33425.06806283999</v>
       </c>
       <c r="H56" t="n">
-        <v>289.25</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2534,40 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C57" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D57" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E57" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F57" t="n">
-        <v>755.5749</v>
+        <v>3299.7156</v>
       </c>
       <c r="G57" t="n">
-        <v>285.1333333333333</v>
+        <v>30125.35246283999</v>
       </c>
       <c r="H57" t="n">
-        <v>289.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2576,40 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C58" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D58" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E58" t="n">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="F58" t="n">
-        <v>287.2724</v>
+        <v>1556.4768</v>
       </c>
       <c r="G58" t="n">
-        <v>285</v>
+        <v>30125.35246283999</v>
       </c>
       <c r="H58" t="n">
-        <v>288.95</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,40 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C59" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D59" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E59" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F59" t="n">
-        <v>1004.7018</v>
+        <v>699.3404</v>
       </c>
       <c r="G59" t="n">
-        <v>285</v>
+        <v>29426.01206283999</v>
       </c>
       <c r="H59" t="n">
-        <v>288.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2660,40 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C60" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D60" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E60" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F60" t="n">
-        <v>281.2632</v>
+        <v>544.2103</v>
       </c>
       <c r="G60" t="n">
-        <v>285</v>
+        <v>29970.22236283998</v>
       </c>
       <c r="H60" t="n">
-        <v>288.75</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2702,40 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C61" t="n">
+        <v>289</v>
+      </c>
+      <c r="D61" t="n">
+        <v>289</v>
+      </c>
+      <c r="E61" t="n">
         <v>287</v>
       </c>
-      <c r="D61" t="n">
-        <v>287</v>
-      </c>
-      <c r="E61" t="n">
-        <v>284</v>
-      </c>
       <c r="F61" t="n">
-        <v>3.9756</v>
+        <v>4910.628</v>
       </c>
       <c r="G61" t="n">
-        <v>285</v>
+        <v>25059.59436283998</v>
       </c>
       <c r="H61" t="n">
-        <v>288.7</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2744,42 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C62" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D62" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E62" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F62" t="n">
-        <v>1724.804</v>
+        <v>1153.8768</v>
       </c>
       <c r="G62" t="n">
-        <v>285.1333333333333</v>
+        <v>25059.59436283998</v>
       </c>
       <c r="H62" t="n">
-        <v>288.6</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2788,42 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C63" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D63" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E63" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F63" t="n">
-        <v>2004.8601</v>
+        <v>1574.9337</v>
       </c>
       <c r="G63" t="n">
-        <v>285.0666666666667</v>
+        <v>23484.66066283998</v>
       </c>
       <c r="H63" t="n">
-        <v>288.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,42 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C64" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D64" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E64" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F64" t="n">
-        <v>1923.601</v>
+        <v>12485.5284</v>
       </c>
       <c r="G64" t="n">
-        <v>285.2</v>
+        <v>35970.18906283999</v>
       </c>
       <c r="H64" t="n">
-        <v>288.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2876,42 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C65" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D65" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E65" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F65" t="n">
-        <v>146.1479</v>
+        <v>2483.1089</v>
       </c>
       <c r="G65" t="n">
-        <v>285.2666666666667</v>
+        <v>35970.18906283999</v>
       </c>
       <c r="H65" t="n">
-        <v>288.5333333333334</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2920,42 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C66" t="n">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="D66" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E66" t="n">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="F66" t="n">
-        <v>13210.9019</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>284.9333333333333</v>
+        <v>35970.18906283999</v>
       </c>
       <c r="H66" t="n">
-        <v>288.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="n">
-        <v>286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2964,42 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C67" t="n">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="D67" t="n">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="E67" t="n">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="F67" t="n">
-        <v>10359.9019</v>
+        <v>4486.8633</v>
       </c>
       <c r="G67" t="n">
-        <v>284.6</v>
+        <v>35970.18906283999</v>
       </c>
       <c r="H67" t="n">
-        <v>288.2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="n">
-        <v>280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3008,42 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C68" t="n">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D68" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E68" t="n">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F68" t="n">
-        <v>733</v>
+        <v>987.0703999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>284.4666666666666</v>
+        <v>34983.11866283999</v>
       </c>
       <c r="H68" t="n">
-        <v>288.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="n">
-        <v>280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3052,42 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C69" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D69" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E69" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F69" t="n">
-        <v>11060.0541</v>
+        <v>157.1332</v>
       </c>
       <c r="G69" t="n">
-        <v>284.6</v>
+        <v>34825.98546283999</v>
       </c>
       <c r="H69" t="n">
-        <v>287.85</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3099,39 +2816,30 @@
         <v>287</v>
       </c>
       <c r="C70" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D70" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E70" t="n">
         <v>287</v>
       </c>
       <c r="F70" t="n">
-        <v>24739.8894</v>
+        <v>42.8668</v>
       </c>
       <c r="G70" t="n">
-        <v>284.9333333333333</v>
+        <v>34825.98546283999</v>
       </c>
       <c r="H70" t="n">
-        <v>287.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="n">
-        <v>286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3140,40 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C71" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D71" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E71" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F71" t="n">
-        <v>4026.7195</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>285.1333333333333</v>
+        <v>34826.98546283999</v>
       </c>
       <c r="H71" t="n">
-        <v>287.7</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3182,40 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C72" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D72" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E72" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F72" t="n">
-        <v>2122.1292</v>
+        <v>5028</v>
       </c>
       <c r="G72" t="n">
-        <v>285.4666666666666</v>
+        <v>29798.98546283999</v>
       </c>
       <c r="H72" t="n">
-        <v>287.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3224,40 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C73" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D73" t="n">
         <v>287</v>
       </c>
       <c r="E73" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F73" t="n">
-        <v>154.0195</v>
+        <v>15586.1575</v>
       </c>
       <c r="G73" t="n">
-        <v>285.5333333333334</v>
+        <v>14212.82796283999</v>
       </c>
       <c r="H73" t="n">
-        <v>287.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,40 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C74" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D74" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E74" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F74" t="n">
-        <v>3.9861</v>
+        <v>409.3234</v>
       </c>
       <c r="G74" t="n">
-        <v>285.7333333333333</v>
+        <v>13803.50456283999</v>
       </c>
       <c r="H74" t="n">
-        <v>287.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3308,40 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C75" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D75" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E75" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F75" t="n">
-        <v>4586.7998</v>
+        <v>1290.6626</v>
       </c>
       <c r="G75" t="n">
-        <v>286</v>
+        <v>15094.16716283999</v>
       </c>
       <c r="H75" t="n">
-        <v>287.5333333333334</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3350,40 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C76" t="n">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D76" t="n">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E76" t="n">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F76" t="n">
-        <v>251.44</v>
+        <v>1237.153</v>
       </c>
       <c r="G76" t="n">
-        <v>286.2</v>
+        <v>13857.01416283999</v>
       </c>
       <c r="H76" t="n">
-        <v>287.55</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3392,40 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C77" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D77" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E77" t="n">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F77" t="n">
-        <v>1072.4641</v>
+        <v>2567.9951</v>
       </c>
       <c r="G77" t="n">
-        <v>286.4666666666666</v>
+        <v>16425.00926283999</v>
       </c>
       <c r="H77" t="n">
-        <v>287.55</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3434,40 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C78" t="n">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D78" t="n">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E78" t="n">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F78" t="n">
-        <v>3816.2261</v>
+        <v>114</v>
       </c>
       <c r="G78" t="n">
-        <v>286.6666666666667</v>
+        <v>16311.00926283999</v>
       </c>
       <c r="H78" t="n">
-        <v>287.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,40 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C79" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D79" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E79" t="n">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F79" t="n">
-        <v>1358.1019</v>
+        <v>100</v>
       </c>
       <c r="G79" t="n">
-        <v>287.0666666666667</v>
+        <v>16411.00926283999</v>
       </c>
       <c r="H79" t="n">
-        <v>287.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3518,40 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C80" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D80" t="n">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E80" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F80" t="n">
-        <v>104</v>
+        <v>2397.2647</v>
       </c>
       <c r="G80" t="n">
-        <v>287.4</v>
+        <v>16411.00926283999</v>
       </c>
       <c r="H80" t="n">
-        <v>287.45</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3560,40 +3198,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C81" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D81" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E81" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F81" t="n">
-        <v>10.5677</v>
+        <v>237329.2053</v>
       </c>
       <c r="G81" t="n">
-        <v>288</v>
+        <v>16411.00926283999</v>
       </c>
       <c r="H81" t="n">
-        <v>287.4</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
+        <v>285</v>
+      </c>
+      <c r="K81" t="n">
+        <v>285</v>
+      </c>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3602,40 +3237,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C82" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D82" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E82" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F82" t="n">
-        <v>10094.8945</v>
+        <v>258904.5876</v>
       </c>
       <c r="G82" t="n">
-        <v>288.7333333333333</v>
+        <v>16411.00926283999</v>
       </c>
       <c r="H82" t="n">
-        <v>287.4</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>285</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3644,40 +3278,41 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C83" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D83" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E83" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F83" t="n">
-        <v>157.8151</v>
+        <v>5226.608</v>
       </c>
       <c r="G83" t="n">
-        <v>289</v>
+        <v>11184.40126283999</v>
       </c>
       <c r="H83" t="n">
-        <v>287.3166666666667</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+        <v>285</v>
+      </c>
+      <c r="K83" t="n">
+        <v>285</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,40 +3321,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C84" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D84" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E84" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F84" t="n">
-        <v>528.4687</v>
+        <v>292172.1639</v>
       </c>
       <c r="G84" t="n">
-        <v>289.2</v>
+        <v>11184.40126283999</v>
       </c>
       <c r="H84" t="n">
-        <v>287.3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>285</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3728,40 +3362,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C85" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D85" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E85" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F85" t="n">
-        <v>1002.1901</v>
+        <v>843595.6845</v>
       </c>
       <c r="G85" t="n">
-        <v>289.0666666666667</v>
+        <v>11184.40126283999</v>
       </c>
       <c r="H85" t="n">
-        <v>287.2166666666666</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>285</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3770,40 +3403,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C86" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D86" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E86" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F86" t="n">
-        <v>154.6233</v>
+        <v>755.5749</v>
       </c>
       <c r="G86" t="n">
-        <v>289.0666666666667</v>
+        <v>11939.97616283999</v>
       </c>
       <c r="H86" t="n">
-        <v>287.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>285</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3812,40 +3444,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C87" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D87" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E87" t="n">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F87" t="n">
-        <v>1475.1694</v>
+        <v>287.2724</v>
       </c>
       <c r="G87" t="n">
-        <v>288.8666666666667</v>
+        <v>12227.24856283999</v>
       </c>
       <c r="H87" t="n">
-        <v>287.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>285</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3854,40 +3485,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C88" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D88" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E88" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F88" t="n">
-        <v>1283.81</v>
+        <v>1004.7018</v>
       </c>
       <c r="G88" t="n">
-        <v>288.9333333333333</v>
+        <v>12227.24856283999</v>
       </c>
       <c r="H88" t="n">
-        <v>287.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>285</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,40 +3526,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C89" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D89" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E89" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F89" t="n">
-        <v>2690.562</v>
+        <v>281.2632</v>
       </c>
       <c r="G89" t="n">
-        <v>289</v>
+        <v>11945.98536283999</v>
       </c>
       <c r="H89" t="n">
-        <v>287.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>285</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3938,40 +3567,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C90" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D90" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E90" t="n">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F90" t="n">
-        <v>4085.0395</v>
+        <v>3.9756</v>
       </c>
       <c r="G90" t="n">
-        <v>289.0666666666667</v>
+        <v>11949.96096283999</v>
       </c>
       <c r="H90" t="n">
-        <v>287.05</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>285</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3980,40 +3608,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C91" t="n">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D91" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E91" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F91" t="n">
-        <v>1112.5945</v>
+        <v>1724.804</v>
       </c>
       <c r="G91" t="n">
-        <v>289.1333333333333</v>
+        <v>10225.15696283999</v>
       </c>
       <c r="H91" t="n">
-        <v>287.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>285</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4022,40 +3649,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C92" t="n">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D92" t="n">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E92" t="n">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F92" t="n">
-        <v>7447.7349</v>
+        <v>2004.8601</v>
       </c>
       <c r="G92" t="n">
-        <v>289.2666666666667</v>
+        <v>10225.15696283999</v>
       </c>
       <c r="H92" t="n">
-        <v>287.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>285</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4064,40 +3690,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C93" t="n">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D93" t="n">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E93" t="n">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F93" t="n">
-        <v>9124.6047</v>
+        <v>1923.601</v>
       </c>
       <c r="G93" t="n">
-        <v>289.6</v>
+        <v>8301.555962839993</v>
       </c>
       <c r="H93" t="n">
-        <v>287.2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>285</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,40 +3731,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C94" t="n">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D94" t="n">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E94" t="n">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F94" t="n">
-        <v>2731.8643</v>
+        <v>146.1479</v>
       </c>
       <c r="G94" t="n">
-        <v>289.8</v>
+        <v>8447.703862839993</v>
       </c>
       <c r="H94" t="n">
-        <v>287.3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>285</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4148,40 +3772,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C95" t="n">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D95" t="n">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E95" t="n">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="F95" t="n">
-        <v>300</v>
+        <v>13210.9019</v>
       </c>
       <c r="G95" t="n">
-        <v>289.9333333333333</v>
+        <v>-4763.198037160008</v>
       </c>
       <c r="H95" t="n">
-        <v>287.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>285</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4190,40 +3813,41 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C96" t="n">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D96" t="n">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="E96" t="n">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="F96" t="n">
-        <v>692</v>
+        <v>10359.9019</v>
       </c>
       <c r="G96" t="n">
-        <v>290.3333333333333</v>
+        <v>-4763.198037160008</v>
       </c>
       <c r="H96" t="n">
-        <v>287.4666666666666</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+        <v>280</v>
+      </c>
+      <c r="K96" t="n">
+        <v>285</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4232,40 +3856,41 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C97" t="n">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D97" t="n">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E97" t="n">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F97" t="n">
-        <v>3741.1372</v>
+        <v>733</v>
       </c>
       <c r="G97" t="n">
-        <v>290.6</v>
+        <v>-4030.198037160008</v>
       </c>
       <c r="H97" t="n">
-        <v>287.5666666666667</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+        <v>280</v>
+      </c>
+      <c r="K97" t="n">
+        <v>285</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4274,40 +3899,41 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C98" t="n">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D98" t="n">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E98" t="n">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F98" t="n">
-        <v>3990</v>
+        <v>11060.0541</v>
       </c>
       <c r="G98" t="n">
-        <v>290.9333333333333</v>
+        <v>7029.856062839992</v>
       </c>
       <c r="H98" t="n">
-        <v>287.6166666666667</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+        <v>283</v>
+      </c>
+      <c r="K98" t="n">
+        <v>285</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,40 +3942,41 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C99" t="n">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D99" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E99" t="n">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F99" t="n">
-        <v>19.8426</v>
+        <v>24739.8894</v>
       </c>
       <c r="G99" t="n">
-        <v>291.2</v>
+        <v>31769.74546283999</v>
       </c>
       <c r="H99" t="n">
-        <v>287.7</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+        <v>286</v>
+      </c>
+      <c r="K99" t="n">
+        <v>285</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4358,40 +3985,41 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C100" t="n">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D100" t="n">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E100" t="n">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F100" t="n">
-        <v>40</v>
+        <v>4026.7195</v>
       </c>
       <c r="G100" t="n">
-        <v>291.6</v>
+        <v>27743.02596283999</v>
       </c>
       <c r="H100" t="n">
-        <v>287.8</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+        <v>289</v>
+      </c>
+      <c r="K100" t="n">
+        <v>285</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4400,40 +4028,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C101" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D101" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E101" t="n">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F101" t="n">
-        <v>293.4937</v>
+        <v>2122.1292</v>
       </c>
       <c r="G101" t="n">
-        <v>292</v>
+        <v>29865.15516283999</v>
       </c>
       <c r="H101" t="n">
-        <v>287.9</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>285</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4442,40 +4069,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C102" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D102" t="n">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E102" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F102" t="n">
-        <v>16399.7904</v>
+        <v>154.0195</v>
       </c>
       <c r="G102" t="n">
-        <v>292.2666666666667</v>
+        <v>29711.13566284</v>
       </c>
       <c r="H102" t="n">
-        <v>287.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>285</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4484,40 +4110,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C103" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D103" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E103" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F103" t="n">
-        <v>5587.8758</v>
+        <v>3.9861</v>
       </c>
       <c r="G103" t="n">
-        <v>292.4666666666666</v>
+        <v>29715.12176283999</v>
       </c>
       <c r="H103" t="n">
-        <v>287.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>285</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,40 +4151,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C104" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D104" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E104" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F104" t="n">
-        <v>3448.2758</v>
+        <v>4586.7998</v>
       </c>
       <c r="G104" t="n">
-        <v>292.5333333333334</v>
+        <v>29715.12176283999</v>
       </c>
       <c r="H104" t="n">
-        <v>288.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>285</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4574,34 +4198,33 @@
         <v>290</v>
       </c>
       <c r="D105" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E105" t="n">
         <v>290</v>
       </c>
       <c r="F105" t="n">
-        <v>953.8847</v>
+        <v>251.44</v>
       </c>
       <c r="G105" t="n">
-        <v>292.5333333333334</v>
+        <v>29966.56176283999</v>
       </c>
       <c r="H105" t="n">
-        <v>288.15</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>285</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,37 +4236,36 @@
         <v>290</v>
       </c>
       <c r="C106" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D106" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E106" t="n">
         <v>290</v>
       </c>
       <c r="F106" t="n">
-        <v>3.9828</v>
+        <v>1072.4641</v>
       </c>
       <c r="G106" t="n">
-        <v>292.6</v>
+        <v>29966.56176283999</v>
       </c>
       <c r="H106" t="n">
-        <v>288.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>285</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4652,40 +4274,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C107" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D107" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E107" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F107" t="n">
-        <v>1025.1429</v>
+        <v>3816.2261</v>
       </c>
       <c r="G107" t="n">
-        <v>292.5333333333334</v>
+        <v>26150.33566283999</v>
       </c>
       <c r="H107" t="n">
-        <v>288.35</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>285</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4694,40 +4315,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C108" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D108" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E108" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F108" t="n">
-        <v>176.3154</v>
+        <v>1358.1019</v>
       </c>
       <c r="G108" t="n">
-        <v>292.4666666666666</v>
+        <v>27508.43756283999</v>
       </c>
       <c r="H108" t="n">
-        <v>288.45</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>285</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,40 +4356,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C109" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D109" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E109" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F109" t="n">
-        <v>32.8515</v>
+        <v>104</v>
       </c>
       <c r="G109" t="n">
-        <v>292.4</v>
+        <v>27508.43756283999</v>
       </c>
       <c r="H109" t="n">
-        <v>288.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>285</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4778,40 +4397,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C110" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D110" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E110" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F110" t="n">
-        <v>322.981</v>
+        <v>10.5677</v>
       </c>
       <c r="G110" t="n">
-        <v>292.3333333333333</v>
+        <v>27497.86986283999</v>
       </c>
       <c r="H110" t="n">
-        <v>288.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>285</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4820,40 +4438,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C111" t="n">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D111" t="n">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E111" t="n">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F111" t="n">
-        <v>1.11</v>
+        <v>10094.8945</v>
       </c>
       <c r="G111" t="n">
-        <v>292.2666666666667</v>
+        <v>37592.76436284</v>
       </c>
       <c r="H111" t="n">
-        <v>288.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>285</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4862,40 +4479,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C112" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D112" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E112" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F112" t="n">
-        <v>314.1699</v>
+        <v>157.8151</v>
       </c>
       <c r="G112" t="n">
-        <v>292</v>
+        <v>37434.94926284</v>
       </c>
       <c r="H112" t="n">
-        <v>288.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>285</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4904,40 +4520,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C113" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D113" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E113" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F113" t="n">
-        <v>114</v>
+        <v>528.4687</v>
       </c>
       <c r="G113" t="n">
-        <v>291.9333333333333</v>
+        <v>37963.41796283999</v>
       </c>
       <c r="H113" t="n">
-        <v>289.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>285</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,40 +4561,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C114" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D114" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E114" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F114" t="n">
-        <v>8073.0802</v>
+        <v>1002.1901</v>
       </c>
       <c r="G114" t="n">
-        <v>291.6666666666667</v>
+        <v>36961.22786283999</v>
       </c>
       <c r="H114" t="n">
-        <v>289.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>285</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4988,40 +4602,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C115" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D115" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E115" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F115" t="n">
-        <v>550.6</v>
+        <v>154.6233</v>
       </c>
       <c r="G115" t="n">
-        <v>291.4</v>
+        <v>36961.22786283999</v>
       </c>
       <c r="H115" t="n">
-        <v>289.25</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>285</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5030,40 +4643,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C116" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D116" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E116" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F116" t="n">
-        <v>798.5999</v>
+        <v>1475.1694</v>
       </c>
       <c r="G116" t="n">
-        <v>291.1333333333333</v>
+        <v>36961.22786283999</v>
       </c>
       <c r="H116" t="n">
-        <v>289.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>285</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5072,40 +4684,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C117" t="n">
         <v>288</v>
       </c>
       <c r="D117" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E117" t="n">
         <v>288</v>
       </c>
       <c r="F117" t="n">
-        <v>2116.2093</v>
+        <v>1283.81</v>
       </c>
       <c r="G117" t="n">
-        <v>290.9333333333333</v>
+        <v>38245.03786283999</v>
       </c>
       <c r="H117" t="n">
-        <v>289.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>285</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5114,40 +4725,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C118" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D118" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E118" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F118" t="n">
-        <v>557</v>
+        <v>2690.562</v>
       </c>
       <c r="G118" t="n">
-        <v>290.7333333333333</v>
+        <v>40935.59986283999</v>
       </c>
       <c r="H118" t="n">
-        <v>289.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>285</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5156,40 +4766,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C119" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D119" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E119" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F119" t="n">
-        <v>1011.8903</v>
+        <v>4085.0395</v>
       </c>
       <c r="G119" t="n">
-        <v>290.5333333333334</v>
+        <v>40935.59986283999</v>
       </c>
       <c r="H119" t="n">
-        <v>289.45</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>285</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5198,40 +4807,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C120" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D120" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E120" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F120" t="n">
-        <v>3354.6491</v>
+        <v>1112.5945</v>
       </c>
       <c r="G120" t="n">
-        <v>290.7333333333333</v>
+        <v>42048.19436283999</v>
       </c>
       <c r="H120" t="n">
-        <v>289.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>285</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5240,40 +4848,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C121" t="n">
+        <v>292</v>
+      </c>
+      <c r="D121" t="n">
+        <v>292</v>
+      </c>
+      <c r="E121" t="n">
         <v>291</v>
       </c>
-      <c r="D121" t="n">
-        <v>293</v>
-      </c>
-      <c r="E121" t="n">
-        <v>289</v>
-      </c>
       <c r="F121" t="n">
-        <v>3201.2746</v>
+        <v>7447.7349</v>
       </c>
       <c r="G121" t="n">
-        <v>290.6666666666667</v>
+        <v>49495.92926283999</v>
       </c>
       <c r="H121" t="n">
-        <v>289.65</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>285</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5282,40 +4889,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C122" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D122" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E122" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F122" t="n">
-        <v>104.3997</v>
+        <v>9124.6047</v>
       </c>
       <c r="G122" t="n">
-        <v>290.6</v>
+        <v>58620.53396284</v>
       </c>
       <c r="H122" t="n">
-        <v>289.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>285</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5324,40 +4930,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C123" t="n">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D123" t="n">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E123" t="n">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F123" t="n">
-        <v>1999.848</v>
+        <v>2731.8643</v>
       </c>
       <c r="G123" t="n">
-        <v>290.2666666666667</v>
+        <v>58620.53396284</v>
       </c>
       <c r="H123" t="n">
-        <v>289.75</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>285</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5366,40 +4971,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C124" t="n">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D124" t="n">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E124" t="n">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F124" t="n">
-        <v>4900.7607</v>
+        <v>300</v>
       </c>
       <c r="G124" t="n">
-        <v>289.8666666666667</v>
+        <v>58320.53396284</v>
       </c>
       <c r="H124" t="n">
-        <v>289.7833333333334</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>285</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5408,40 +5012,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C125" t="n">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D125" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E125" t="n">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="F125" t="n">
-        <v>1174.1672</v>
+        <v>692</v>
       </c>
       <c r="G125" t="n">
-        <v>289.6</v>
+        <v>59012.53396284</v>
       </c>
       <c r="H125" t="n">
-        <v>289.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>285</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5450,40 +5053,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C126" t="n">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="D126" t="n">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E126" t="n">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="F126" t="n">
-        <v>5944.4851</v>
+        <v>3741.1372</v>
       </c>
       <c r="G126" t="n">
-        <v>289.0666666666667</v>
+        <v>59012.53396284</v>
       </c>
       <c r="H126" t="n">
-        <v>289.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>285</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5492,40 +5094,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C127" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D127" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E127" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F127" t="n">
-        <v>149.7543</v>
+        <v>3990</v>
       </c>
       <c r="G127" t="n">
-        <v>288.9333333333333</v>
+        <v>55022.53396284</v>
       </c>
       <c r="H127" t="n">
-        <v>290.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>285</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5534,42 +5135,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C128" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D128" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E128" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F128" t="n">
-        <v>149.7</v>
+        <v>19.8426</v>
       </c>
       <c r="G128" t="n">
-        <v>288.7333333333333</v>
+        <v>55042.37656284</v>
       </c>
       <c r="H128" t="n">
-        <v>290.15</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>289</v>
-      </c>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+        <v>285</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5578,40 +5176,39 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C129" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D129" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E129" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F129" t="n">
-        <v>149.7155</v>
+        <v>40</v>
       </c>
       <c r="G129" t="n">
-        <v>288.6666666666667</v>
+        <v>55042.37656284</v>
       </c>
       <c r="H129" t="n">
-        <v>290.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>285</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5620,40 +5217,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C130" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D130" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E130" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F130" t="n">
-        <v>139.4</v>
+        <v>293.4937</v>
       </c>
       <c r="G130" t="n">
-        <v>288.6</v>
+        <v>55042.37656284</v>
       </c>
       <c r="H130" t="n">
-        <v>290.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>285</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5662,40 +5258,39 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C131" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="D131" t="n">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E131" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F131" t="n">
-        <v>4967.3</v>
+        <v>16399.7904</v>
       </c>
       <c r="G131" t="n">
-        <v>288.2666666666667</v>
+        <v>38642.58616284</v>
       </c>
       <c r="H131" t="n">
-        <v>290.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>285</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5704,40 +5299,39 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C132" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D132" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E132" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F132" t="n">
-        <v>1</v>
+        <v>5587.8758</v>
       </c>
       <c r="G132" t="n">
-        <v>288.4</v>
+        <v>38642.58616284</v>
       </c>
       <c r="H132" t="n">
-        <v>290.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>285</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5746,40 +5340,39 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C133" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D133" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E133" t="n">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F133" t="n">
-        <v>1305.2968</v>
+        <v>3448.2758</v>
       </c>
       <c r="G133" t="n">
-        <v>288.4</v>
+        <v>38642.58616284</v>
       </c>
       <c r="H133" t="n">
-        <v>290.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>285</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5788,40 +5381,39 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C134" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D134" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E134" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F134" t="n">
-        <v>1760.821</v>
+        <v>953.8847</v>
       </c>
       <c r="G134" t="n">
-        <v>288.4</v>
+        <v>37688.70146284</v>
       </c>
       <c r="H134" t="n">
-        <v>290.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>285</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5833,37 +5425,36 @@
         <v>290</v>
       </c>
       <c r="C135" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D135" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E135" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F135" t="n">
-        <v>1060.1034</v>
+        <v>3.9828</v>
       </c>
       <c r="G135" t="n">
-        <v>288.1333333333333</v>
+        <v>37692.68426284</v>
       </c>
       <c r="H135" t="n">
-        <v>290.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>285</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5872,40 +5463,39 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C136" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D136" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E136" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F136" t="n">
-        <v>1578.8034</v>
+        <v>1025.1429</v>
       </c>
       <c r="G136" t="n">
-        <v>288.0666666666667</v>
+        <v>36667.54136284</v>
       </c>
       <c r="H136" t="n">
-        <v>290.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>285</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5914,40 +5504,39 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C137" t="n">
+        <v>293</v>
+      </c>
+      <c r="D137" t="n">
+        <v>293</v>
+      </c>
+      <c r="E137" t="n">
         <v>292</v>
       </c>
-      <c r="D137" t="n">
-        <v>292</v>
-      </c>
-      <c r="E137" t="n">
-        <v>290</v>
-      </c>
       <c r="F137" t="n">
-        <v>354.5592</v>
+        <v>176.3154</v>
       </c>
       <c r="G137" t="n">
-        <v>288.2</v>
+        <v>36843.85676284</v>
       </c>
       <c r="H137" t="n">
-        <v>290.15</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>285</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,7 +5545,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C138" t="n">
         <v>293</v>
@@ -5965,31 +5554,30 @@
         <v>293</v>
       </c>
       <c r="E138" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F138" t="n">
-        <v>874.6652</v>
+        <v>32.8515</v>
       </c>
       <c r="G138" t="n">
-        <v>288.5333333333334</v>
+        <v>36843.85676284</v>
       </c>
       <c r="H138" t="n">
-        <v>290.2166666666666</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>285</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5998,40 +5586,39 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C139" t="n">
         <v>292</v>
       </c>
       <c r="D139" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E139" t="n">
         <v>292</v>
       </c>
       <c r="F139" t="n">
-        <v>860.2922</v>
+        <v>322.981</v>
       </c>
       <c r="G139" t="n">
-        <v>288.8666666666667</v>
+        <v>36520.87576284</v>
       </c>
       <c r="H139" t="n">
-        <v>290.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>285</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6040,40 +5627,1268 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
+        <v>294</v>
+      </c>
+      <c r="C140" t="n">
+        <v>294</v>
+      </c>
+      <c r="D140" t="n">
+        <v>294</v>
+      </c>
+      <c r="E140" t="n">
+        <v>294</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G140" t="n">
+        <v>36521.98576284</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>285</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>291</v>
+      </c>
+      <c r="C141" t="n">
+        <v>291</v>
+      </c>
+      <c r="D141" t="n">
+        <v>291</v>
+      </c>
+      <c r="E141" t="n">
+        <v>291</v>
+      </c>
+      <c r="F141" t="n">
+        <v>314.1699</v>
+      </c>
+      <c r="G141" t="n">
+        <v>36207.81586284</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>285</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>291</v>
+      </c>
+      <c r="C142" t="n">
+        <v>291</v>
+      </c>
+      <c r="D142" t="n">
+        <v>291</v>
+      </c>
+      <c r="E142" t="n">
+        <v>291</v>
+      </c>
+      <c r="F142" t="n">
+        <v>114</v>
+      </c>
+      <c r="G142" t="n">
+        <v>36207.81586284</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>285</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>291</v>
+      </c>
+      <c r="C143" t="n">
+        <v>289</v>
+      </c>
+      <c r="D143" t="n">
+        <v>291</v>
+      </c>
+      <c r="E143" t="n">
+        <v>289</v>
+      </c>
+      <c r="F143" t="n">
+        <v>8073.0802</v>
+      </c>
+      <c r="G143" t="n">
+        <v>28134.73566284</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>285</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>289</v>
+      </c>
+      <c r="C144" t="n">
+        <v>289</v>
+      </c>
+      <c r="D144" t="n">
+        <v>289</v>
+      </c>
+      <c r="E144" t="n">
+        <v>289</v>
+      </c>
+      <c r="F144" t="n">
+        <v>550.6</v>
+      </c>
+      <c r="G144" t="n">
+        <v>28134.73566284</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>285</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>289</v>
+      </c>
+      <c r="C145" t="n">
+        <v>289</v>
+      </c>
+      <c r="D145" t="n">
+        <v>289</v>
+      </c>
+      <c r="E145" t="n">
+        <v>289</v>
+      </c>
+      <c r="F145" t="n">
+        <v>798.5999</v>
+      </c>
+      <c r="G145" t="n">
+        <v>28134.73566284</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>285</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>289</v>
+      </c>
+      <c r="C146" t="n">
+        <v>288</v>
+      </c>
+      <c r="D146" t="n">
+        <v>289</v>
+      </c>
+      <c r="E146" t="n">
+        <v>288</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2116.2093</v>
+      </c>
+      <c r="G146" t="n">
+        <v>26018.52636284</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>289</v>
+      </c>
+      <c r="K146" t="n">
+        <v>285</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>288</v>
+      </c>
+      <c r="C147" t="n">
+        <v>288</v>
+      </c>
+      <c r="D147" t="n">
+        <v>288</v>
+      </c>
+      <c r="E147" t="n">
+        <v>288</v>
+      </c>
+      <c r="F147" t="n">
+        <v>557</v>
+      </c>
+      <c r="G147" t="n">
+        <v>26018.52636284</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>288</v>
+      </c>
+      <c r="K147" t="n">
+        <v>285</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>288</v>
+      </c>
+      <c r="C148" t="n">
+        <v>288</v>
+      </c>
+      <c r="D148" t="n">
+        <v>288</v>
+      </c>
+      <c r="E148" t="n">
+        <v>288</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1011.8903</v>
+      </c>
+      <c r="G148" t="n">
+        <v>26018.52636284</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>288</v>
+      </c>
+      <c r="K148" t="n">
+        <v>285</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>288</v>
+      </c>
+      <c r="C149" t="n">
+        <v>293</v>
+      </c>
+      <c r="D149" t="n">
+        <v>293</v>
+      </c>
+      <c r="E149" t="n">
+        <v>288</v>
+      </c>
+      <c r="F149" t="n">
+        <v>3354.6491</v>
+      </c>
+      <c r="G149" t="n">
+        <v>29373.17546284</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>288</v>
+      </c>
+      <c r="K149" t="n">
+        <v>285</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>293</v>
+      </c>
+      <c r="C150" t="n">
+        <v>291</v>
+      </c>
+      <c r="D150" t="n">
+        <v>293</v>
+      </c>
+      <c r="E150" t="n">
+        <v>289</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3201.2746</v>
+      </c>
+      <c r="G150" t="n">
+        <v>26171.90086284</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>293</v>
+      </c>
+      <c r="K150" t="n">
+        <v>285</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>290</v>
+      </c>
+      <c r="C151" t="n">
+        <v>290</v>
+      </c>
+      <c r="D151" t="n">
+        <v>290</v>
+      </c>
+      <c r="E151" t="n">
+        <v>290</v>
+      </c>
+      <c r="F151" t="n">
+        <v>104.3997</v>
+      </c>
+      <c r="G151" t="n">
+        <v>26067.50116284</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>291</v>
+      </c>
+      <c r="K151" t="n">
+        <v>285</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>289</v>
+      </c>
+      <c r="C152" t="n">
+        <v>288</v>
+      </c>
+      <c r="D152" t="n">
+        <v>289</v>
+      </c>
+      <c r="E152" t="n">
+        <v>288</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1999.848</v>
+      </c>
+      <c r="G152" t="n">
+        <v>24067.65316284</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>290</v>
+      </c>
+      <c r="K152" t="n">
+        <v>285</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>288</v>
+      </c>
+      <c r="C153" t="n">
+        <v>287</v>
+      </c>
+      <c r="D153" t="n">
+        <v>288</v>
+      </c>
+      <c r="E153" t="n">
+        <v>287</v>
+      </c>
+      <c r="F153" t="n">
+        <v>4900.7607</v>
+      </c>
+      <c r="G153" t="n">
+        <v>19166.89246284</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>288</v>
+      </c>
+      <c r="K153" t="n">
+        <v>285</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>290</v>
+      </c>
+      <c r="C154" t="n">
+        <v>288</v>
+      </c>
+      <c r="D154" t="n">
+        <v>290</v>
+      </c>
+      <c r="E154" t="n">
+        <v>288</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1174.1672</v>
+      </c>
+      <c r="G154" t="n">
+        <v>20341.05966284</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>287</v>
+      </c>
+      <c r="K154" t="n">
+        <v>285</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>288</v>
+      </c>
+      <c r="C155" t="n">
+        <v>286</v>
+      </c>
+      <c r="D155" t="n">
+        <v>288</v>
+      </c>
+      <c r="E155" t="n">
+        <v>286</v>
+      </c>
+      <c r="F155" t="n">
+        <v>5944.4851</v>
+      </c>
+      <c r="G155" t="n">
+        <v>14396.57456284</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>288</v>
+      </c>
+      <c r="K155" t="n">
+        <v>285</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>289</v>
+      </c>
+      <c r="C156" t="n">
+        <v>289</v>
+      </c>
+      <c r="D156" t="n">
+        <v>289</v>
+      </c>
+      <c r="E156" t="n">
+        <v>289</v>
+      </c>
+      <c r="F156" t="n">
+        <v>149.7543</v>
+      </c>
+      <c r="G156" t="n">
+        <v>14546.32886284</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>286</v>
+      </c>
+      <c r="K156" t="n">
+        <v>285</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>289</v>
+      </c>
+      <c r="C157" t="n">
+        <v>288</v>
+      </c>
+      <c r="D157" t="n">
+        <v>289</v>
+      </c>
+      <c r="E157" t="n">
+        <v>288</v>
+      </c>
+      <c r="F157" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="G157" t="n">
+        <v>14396.62886284</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>289</v>
+      </c>
+      <c r="K157" t="n">
+        <v>285</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>288</v>
+      </c>
+      <c r="C158" t="n">
+        <v>288</v>
+      </c>
+      <c r="D158" t="n">
+        <v>288</v>
+      </c>
+      <c r="E158" t="n">
+        <v>288</v>
+      </c>
+      <c r="F158" t="n">
+        <v>149.7155</v>
+      </c>
+      <c r="G158" t="n">
+        <v>14396.62886284</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>288</v>
+      </c>
+      <c r="K158" t="n">
+        <v>285</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>288</v>
+      </c>
+      <c r="C159" t="n">
+        <v>288</v>
+      </c>
+      <c r="D159" t="n">
+        <v>288</v>
+      </c>
+      <c r="E159" t="n">
+        <v>288</v>
+      </c>
+      <c r="F159" t="n">
+        <v>139.4</v>
+      </c>
+      <c r="G159" t="n">
+        <v>14396.62886284</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>288</v>
+      </c>
+      <c r="K159" t="n">
+        <v>285</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>287</v>
+      </c>
+      <c r="C160" t="n">
+        <v>284</v>
+      </c>
+      <c r="D160" t="n">
+        <v>287</v>
+      </c>
+      <c r="E160" t="n">
+        <v>284</v>
+      </c>
+      <c r="F160" t="n">
+        <v>4967.3</v>
+      </c>
+      <c r="G160" t="n">
+        <v>9429.328862839997</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>288</v>
+      </c>
+      <c r="K160" t="n">
+        <v>285</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>290</v>
+      </c>
+      <c r="C161" t="n">
+        <v>290</v>
+      </c>
+      <c r="D161" t="n">
+        <v>290</v>
+      </c>
+      <c r="E161" t="n">
+        <v>290</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>9430.328862839997</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>284</v>
+      </c>
+      <c r="K161" t="n">
+        <v>285</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>286</v>
+      </c>
+      <c r="C162" t="n">
+        <v>288</v>
+      </c>
+      <c r="D162" t="n">
+        <v>288</v>
+      </c>
+      <c r="E162" t="n">
+        <v>286</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1305.2968</v>
+      </c>
+      <c r="G162" t="n">
+        <v>8125.032062839997</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>290</v>
+      </c>
+      <c r="K162" t="n">
+        <v>285</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>288</v>
+      </c>
+      <c r="C163" t="n">
+        <v>288</v>
+      </c>
+      <c r="D163" t="n">
+        <v>289</v>
+      </c>
+      <c r="E163" t="n">
+        <v>287</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1760.821</v>
+      </c>
+      <c r="G163" t="n">
+        <v>8125.032062839997</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>288</v>
+      </c>
+      <c r="K163" t="n">
+        <v>285</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>290</v>
+      </c>
+      <c r="C164" t="n">
+        <v>289</v>
+      </c>
+      <c r="D164" t="n">
+        <v>290</v>
+      </c>
+      <c r="E164" t="n">
+        <v>289</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1060.1034</v>
+      </c>
+      <c r="G164" t="n">
+        <v>9185.135462839997</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>288</v>
+      </c>
+      <c r="K164" t="n">
+        <v>285</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>290</v>
+      </c>
+      <c r="C165" t="n">
+        <v>290</v>
+      </c>
+      <c r="D165" t="n">
+        <v>290</v>
+      </c>
+      <c r="E165" t="n">
+        <v>290</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1578.8034</v>
+      </c>
+      <c r="G165" t="n">
+        <v>10763.93886284</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>289</v>
+      </c>
+      <c r="K165" t="n">
+        <v>285</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>290</v>
+      </c>
+      <c r="C166" t="n">
         <v>292</v>
       </c>
-      <c r="C140" t="n">
+      <c r="D166" t="n">
         <v>292</v>
       </c>
-      <c r="D140" t="n">
+      <c r="E166" t="n">
+        <v>290</v>
+      </c>
+      <c r="F166" t="n">
+        <v>354.5592</v>
+      </c>
+      <c r="G166" t="n">
+        <v>11118.49806284</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>285</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
         <v>292</v>
       </c>
-      <c r="E140" t="n">
+      <c r="C167" t="n">
+        <v>293</v>
+      </c>
+      <c r="D167" t="n">
+        <v>293</v>
+      </c>
+      <c r="E167" t="n">
         <v>292</v>
       </c>
-      <c r="F140" t="n">
+      <c r="F167" t="n">
+        <v>874.6652</v>
+      </c>
+      <c r="G167" t="n">
+        <v>11993.16326284</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>285</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>293</v>
+      </c>
+      <c r="C168" t="n">
+        <v>292</v>
+      </c>
+      <c r="D168" t="n">
+        <v>293</v>
+      </c>
+      <c r="E168" t="n">
+        <v>292</v>
+      </c>
+      <c r="F168" t="n">
+        <v>860.2922</v>
+      </c>
+      <c r="G168" t="n">
+        <v>11132.87106284</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>285</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>292</v>
+      </c>
+      <c r="C169" t="n">
+        <v>292</v>
+      </c>
+      <c r="D169" t="n">
+        <v>292</v>
+      </c>
+      <c r="E169" t="n">
+        <v>292</v>
+      </c>
+      <c r="F169" t="n">
         <v>210.4088</v>
       </c>
-      <c r="G140" t="n">
-        <v>289.1333333333333</v>
-      </c>
-      <c r="H140" t="n">
-        <v>290.25</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
+      <c r="G169" t="n">
+        <v>11132.87106284</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>285</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-02 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M169"/>
+  <dimension ref="A1:N127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="C2" t="n">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D2" t="n">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E2" t="n">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="F2" t="n">
-        <v>15719.686</v>
+        <v>1308.5526</v>
       </c>
       <c r="G2" t="n">
-        <v>18325.45126284</v>
+        <v>40908.59126283999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C3" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D3" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E3" t="n">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="F3" t="n">
-        <v>21243.4224</v>
+        <v>1218.1492</v>
       </c>
       <c r="G3" t="n">
-        <v>18325.45126284</v>
+        <v>39690.44206283999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C4" t="n">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D4" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E4" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="F4" t="n">
-        <v>11049.2044</v>
+        <v>27.5629</v>
       </c>
       <c r="G4" t="n">
-        <v>7276.24686284</v>
+        <v>39718.00496283999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C5" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D5" t="n">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="E5" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F5" t="n">
-        <v>5386.9835</v>
+        <v>3.9795</v>
       </c>
       <c r="G5" t="n">
-        <v>12663.23036284</v>
+        <v>39721.98446283999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C6" t="n">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D6" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E6" t="n">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="F6" t="n">
-        <v>16523.701</v>
+        <v>1056.7191</v>
       </c>
       <c r="G6" t="n">
-        <v>12663.23036284</v>
+        <v>38665.26536283999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C7" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D7" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E7" t="n">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="F7" t="n">
-        <v>10523.3572</v>
+        <v>926.5993999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>23186.58756284</v>
+        <v>38665.26536283999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C8" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D8" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E8" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F8" t="n">
-        <v>476.8872</v>
+        <v>523</v>
       </c>
       <c r="G8" t="n">
-        <v>23186.58756284</v>
+        <v>38665.26536283999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C9" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D9" t="n">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E9" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F9" t="n">
-        <v>2436.8797</v>
+        <v>4436.1566</v>
       </c>
       <c r="G9" t="n">
-        <v>20749.70786284</v>
+        <v>34229.10876283998</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C10" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D10" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E10" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F10" t="n">
-        <v>4569.4345</v>
+        <v>1550.1569</v>
       </c>
       <c r="G10" t="n">
-        <v>25319.14236284</v>
+        <v>35779.26566283999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -751,19 +765,19 @@
         <v>290</v>
       </c>
       <c r="C11" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D11" t="n">
         <v>290</v>
       </c>
       <c r="E11" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F11" t="n">
-        <v>641.5096</v>
+        <v>2154.1976</v>
       </c>
       <c r="G11" t="n">
-        <v>24677.63276284</v>
+        <v>33625.06806283999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C12" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D12" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E12" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G12" t="n">
-        <v>24678.63276284</v>
+        <v>33825.06806283999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C13" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D13" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E13" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F13" t="n">
-        <v>93.7149</v>
+        <v>1177</v>
       </c>
       <c r="G13" t="n">
-        <v>24678.63276284</v>
+        <v>33825.06806283999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C14" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D14" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E14" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F14" t="n">
-        <v>497.3896</v>
+        <v>400</v>
       </c>
       <c r="G14" t="n">
-        <v>24678.63276284</v>
+        <v>33425.06806283999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -891,19 +909,19 @@
         <v>289</v>
       </c>
       <c r="C15" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D15" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E15" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F15" t="n">
-        <v>1036.1785</v>
+        <v>3299.7156</v>
       </c>
       <c r="G15" t="n">
-        <v>23642.45426284</v>
+        <v>30125.35246283999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -935,10 +954,10 @@
         <v>290</v>
       </c>
       <c r="F16" t="n">
-        <v>1498.5793</v>
+        <v>1556.4768</v>
       </c>
       <c r="G16" t="n">
-        <v>25141.03356284</v>
+        <v>30125.35246283999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -961,19 +981,19 @@
         <v>290</v>
       </c>
       <c r="C17" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D17" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E17" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F17" t="n">
-        <v>5196.347</v>
+        <v>699.3404</v>
       </c>
       <c r="G17" t="n">
-        <v>30337.38056284</v>
+        <v>29426.01206283999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C18" t="n">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D18" t="n">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="E18" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F18" t="n">
-        <v>30558.5331</v>
+        <v>544.2103</v>
       </c>
       <c r="G18" t="n">
-        <v>60895.91366284</v>
+        <v>29970.22236283998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="C19" t="n">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D19" t="n">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="E19" t="n">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="F19" t="n">
-        <v>8970.527899999999</v>
+        <v>4910.628</v>
       </c>
       <c r="G19" t="n">
-        <v>69866.44156284</v>
+        <v>25059.59436283998</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="C20" t="n">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="D20" t="n">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="E20" t="n">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="F20" t="n">
-        <v>15243.1684</v>
+        <v>1153.8768</v>
       </c>
       <c r="G20" t="n">
-        <v>85109.60996284</v>
+        <v>25059.59436283998</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C21" t="n">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="D21" t="n">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E21" t="n">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="F21" t="n">
-        <v>521.6124</v>
+        <v>1574.9337</v>
       </c>
       <c r="G21" t="n">
-        <v>84587.99756284</v>
+        <v>23484.66066283998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="D22" t="n">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E22" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F22" t="n">
-        <v>11722.7766</v>
+        <v>12485.5284</v>
       </c>
       <c r="G22" t="n">
-        <v>72865.22096284</v>
+        <v>35970.18906283999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C23" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="D23" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E23" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F23" t="n">
-        <v>10108.7354</v>
+        <v>2483.1089</v>
       </c>
       <c r="G23" t="n">
-        <v>72865.22096284</v>
+        <v>35970.18906283999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C24" t="n">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="D24" t="n">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E24" t="n">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>72866.22096284</v>
+        <v>35970.18906283999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C25" t="n">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D25" t="n">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="E25" t="n">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="F25" t="n">
-        <v>9079.5417</v>
+        <v>4486.8633</v>
       </c>
       <c r="G25" t="n">
-        <v>81945.76266284</v>
+        <v>35970.18906283999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C26" t="n">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D26" t="n">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E26" t="n">
         <v>288</v>
       </c>
       <c r="F26" t="n">
-        <v>21388.0158</v>
+        <v>987.0703999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>60557.74686284</v>
+        <v>34983.11866283999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C27" t="n">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D27" t="n">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E27" t="n">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F27" t="n">
-        <v>1887.7551</v>
+        <v>157.1332</v>
       </c>
       <c r="G27" t="n">
-        <v>58669.99176284</v>
+        <v>34825.98546283999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C28" t="n">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D28" t="n">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E28" t="n">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F28" t="n">
-        <v>200</v>
+        <v>42.8668</v>
       </c>
       <c r="G28" t="n">
-        <v>58669.99176284</v>
+        <v>34825.98546283999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C29" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D29" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E29" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F29" t="n">
-        <v>11343.8513</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>47326.14046284</v>
+        <v>34826.98546283999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C30" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D30" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E30" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F30" t="n">
-        <v>19276.5804</v>
+        <v>5028</v>
       </c>
       <c r="G30" t="n">
-        <v>47326.14046284</v>
+        <v>29798.98546283999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C31" t="n">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D31" t="n">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E31" t="n">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>15586.1575</v>
       </c>
       <c r="G31" t="n">
-        <v>47327.14046284</v>
+        <v>14212.82796283999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C32" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D32" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E32" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F32" t="n">
-        <v>975.2862</v>
+        <v>409.3234</v>
       </c>
       <c r="G32" t="n">
-        <v>46351.85426284</v>
+        <v>13803.50456283999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C33" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D33" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E33" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F33" t="n">
-        <v>5877.4059</v>
+        <v>1290.6626</v>
       </c>
       <c r="G33" t="n">
-        <v>40474.44836284</v>
+        <v>15094.16716283999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,63 +1583,69 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C34" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D34" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E34" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F34" t="n">
-        <v>230.5442</v>
+        <v>1237.153</v>
       </c>
       <c r="G34" t="n">
-        <v>40704.99256283999</v>
+        <v>13857.01416283999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>287</v>
+      </c>
+      <c r="K34" t="n">
+        <v>287</v>
+      </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C35" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D35" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E35" t="n">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F35" t="n">
-        <v>977.8336</v>
+        <v>2567.9951</v>
       </c>
       <c r="G35" t="n">
-        <v>41682.82616283999</v>
+        <v>16425.00926283999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,33 +1654,40 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>287</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C36" t="n">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D36" t="n">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E36" t="n">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F36" t="n">
-        <v>566</v>
+        <v>114</v>
       </c>
       <c r="G36" t="n">
-        <v>41682.82616283999</v>
+        <v>16311.00926283999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,33 +1696,40 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>287</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C37" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D37" t="n">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="E37" t="n">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F37" t="n">
-        <v>18722.2053</v>
+        <v>100</v>
       </c>
       <c r="G37" t="n">
-        <v>60405.03146283999</v>
+        <v>16411.00926283999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,11 +1738,18 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>287</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1696,509 +1759,629 @@
         <v>285</v>
       </c>
       <c r="C38" t="n">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D38" t="n">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="E38" t="n">
         <v>285</v>
       </c>
       <c r="F38" t="n">
-        <v>5205.4016</v>
+        <v>2397.2647</v>
       </c>
       <c r="G38" t="n">
-        <v>65610.43306283999</v>
+        <v>16411.00926283999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>287</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C39" t="n">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D39" t="n">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="E39" t="n">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F39" t="n">
-        <v>15560.6376</v>
+        <v>237329.2053</v>
       </c>
       <c r="G39" t="n">
-        <v>50049.79546283999</v>
+        <v>16411.00926283999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>287</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C40" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D40" t="n">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E40" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F40" t="n">
-        <v>10449.7568</v>
+        <v>258904.5876</v>
       </c>
       <c r="G40" t="n">
-        <v>39600.03866283999</v>
+        <v>16411.00926283999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>287</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C41" t="n">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D41" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E41" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F41" t="n">
-        <v>9915.777</v>
+        <v>5226.608</v>
       </c>
       <c r="G41" t="n">
-        <v>39600.03866283999</v>
+        <v>11184.40126283999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>285</v>
+      </c>
+      <c r="K41" t="n">
+        <v>287</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C42" t="n">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D42" t="n">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E42" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F42" t="n">
-        <v>1940.5394</v>
+        <v>292172.1639</v>
       </c>
       <c r="G42" t="n">
-        <v>39600.03866283999</v>
+        <v>11184.40126283999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>284</v>
+      </c>
+      <c r="K42" t="n">
+        <v>287</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C43" t="n">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D43" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E43" t="n">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>843595.6845</v>
       </c>
       <c r="G43" t="n">
-        <v>39600.03866283999</v>
+        <v>11184.40126283999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>284</v>
+      </c>
+      <c r="K43" t="n">
+        <v>287</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C44" t="n">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D44" t="n">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E44" t="n">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F44" t="n">
-        <v>1308.5526</v>
+        <v>755.5749</v>
       </c>
       <c r="G44" t="n">
-        <v>40908.59126283999</v>
+        <v>11939.97616283999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>284</v>
+      </c>
+      <c r="K44" t="n">
+        <v>287</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C45" t="n">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D45" t="n">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E45" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F45" t="n">
-        <v>1218.1492</v>
+        <v>287.2724</v>
       </c>
       <c r="G45" t="n">
-        <v>39690.44206283999</v>
+        <v>12227.24856283999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>285</v>
+      </c>
+      <c r="K45" t="n">
+        <v>287</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C46" t="n">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D46" t="n">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E46" t="n">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F46" t="n">
-        <v>27.5629</v>
+        <v>1004.7018</v>
       </c>
       <c r="G46" t="n">
-        <v>39718.00496283999</v>
+        <v>12227.24856283999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>286</v>
+      </c>
+      <c r="K46" t="n">
+        <v>287</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C47" t="n">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D47" t="n">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E47" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F47" t="n">
-        <v>3.9795</v>
+        <v>281.2632</v>
       </c>
       <c r="G47" t="n">
-        <v>39721.98446283999</v>
+        <v>11945.98536283999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>286</v>
+      </c>
+      <c r="K47" t="n">
+        <v>287</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C48" t="n">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D48" t="n">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E48" t="n">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F48" t="n">
-        <v>1056.7191</v>
+        <v>3.9756</v>
       </c>
       <c r="G48" t="n">
-        <v>38665.26536283999</v>
+        <v>11949.96096283999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>285</v>
+      </c>
+      <c r="K48" t="n">
+        <v>287</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C49" t="n">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D49" t="n">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E49" t="n">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F49" t="n">
-        <v>926.5993999999999</v>
+        <v>1724.804</v>
       </c>
       <c r="G49" t="n">
-        <v>38665.26536283999</v>
+        <v>10225.15696283999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>287</v>
+      </c>
+      <c r="K49" t="n">
+        <v>287</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C50" t="n">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D50" t="n">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E50" t="n">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F50" t="n">
-        <v>523</v>
+        <v>2004.8601</v>
       </c>
       <c r="G50" t="n">
-        <v>38665.26536283999</v>
+        <v>10225.15696283999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>286</v>
+      </c>
+      <c r="K50" t="n">
+        <v>287</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C51" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D51" t="n">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E51" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F51" t="n">
-        <v>4436.1566</v>
+        <v>1923.601</v>
       </c>
       <c r="G51" t="n">
-        <v>34229.10876283998</v>
+        <v>8301.555962839993</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>286</v>
+      </c>
+      <c r="K51" t="n">
+        <v>287</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C52" t="n">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D52" t="n">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E52" t="n">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F52" t="n">
-        <v>1550.1569</v>
+        <v>146.1479</v>
       </c>
       <c r="G52" t="n">
-        <v>35779.26566283999</v>
+        <v>8447.703862839993</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,33 +2390,40 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>287</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C53" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D53" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E53" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F53" t="n">
-        <v>2154.1976</v>
+        <v>13210.9019</v>
       </c>
       <c r="G53" t="n">
-        <v>33625.06806283999</v>
+        <v>-4763.198037160008</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,33 +2432,40 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>287</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C54" t="n">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D54" t="n">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E54" t="n">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="F54" t="n">
-        <v>200</v>
+        <v>10359.9019</v>
       </c>
       <c r="G54" t="n">
-        <v>33825.06806283999</v>
+        <v>-4763.198037160008</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,33 +2474,40 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>287</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C55" t="n">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D55" t="n">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E55" t="n">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F55" t="n">
-        <v>1177</v>
+        <v>733</v>
       </c>
       <c r="G55" t="n">
-        <v>33825.06806283999</v>
+        <v>-4030.198037160008</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,33 +2516,40 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>287</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C56" t="n">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D56" t="n">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E56" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F56" t="n">
-        <v>400</v>
+        <v>11060.0541</v>
       </c>
       <c r="G56" t="n">
-        <v>33425.06806283999</v>
+        <v>7029.856062839992</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,33 +2558,40 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>287</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C57" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D57" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E57" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F57" t="n">
-        <v>3299.7156</v>
+        <v>24739.8894</v>
       </c>
       <c r="G57" t="n">
-        <v>30125.35246283999</v>
+        <v>31769.74546283999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,33 +2600,40 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>287</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C58" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D58" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E58" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F58" t="n">
-        <v>1556.4768</v>
+        <v>4026.7195</v>
       </c>
       <c r="G58" t="n">
-        <v>30125.35246283999</v>
+        <v>27743.02596283999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,21 +2642,28 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>287</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C59" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D59" t="n">
         <v>290</v>
@@ -2440,10 +2672,10 @@
         <v>289</v>
       </c>
       <c r="F59" t="n">
-        <v>699.3404</v>
+        <v>2122.1292</v>
       </c>
       <c r="G59" t="n">
-        <v>29426.01206283999</v>
+        <v>29865.15516283999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,33 +2684,40 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>287</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C60" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D60" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E60" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F60" t="n">
-        <v>544.2103</v>
+        <v>154.0195</v>
       </c>
       <c r="G60" t="n">
-        <v>29970.22236283998</v>
+        <v>29711.13566284</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,11 +2726,18 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>287</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2507,26 +2753,33 @@
         <v>289</v>
       </c>
       <c r="E61" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F61" t="n">
-        <v>4910.628</v>
+        <v>3.9861</v>
       </c>
       <c r="G61" t="n">
-        <v>25059.59436283998</v>
+        <v>29715.12176283999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>287</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2545,10 +2798,10 @@
         <v>289</v>
       </c>
       <c r="F62" t="n">
-        <v>1153.8768</v>
+        <v>4586.7998</v>
       </c>
       <c r="G62" t="n">
-        <v>25059.59436283998</v>
+        <v>29715.12176283999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,33 +2810,40 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>287</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C63" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D63" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E63" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F63" t="n">
-        <v>1574.9337</v>
+        <v>251.44</v>
       </c>
       <c r="G63" t="n">
-        <v>23484.66066283998</v>
+        <v>29966.56176283999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,33 +2852,40 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>287</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C64" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D64" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E64" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F64" t="n">
-        <v>12485.5284</v>
+        <v>1072.4641</v>
       </c>
       <c r="G64" t="n">
-        <v>35970.18906283999</v>
+        <v>29966.56176283999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,11 +2894,18 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>287</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2650,10 +2924,10 @@
         <v>289</v>
       </c>
       <c r="F65" t="n">
-        <v>2483.1089</v>
+        <v>3816.2261</v>
       </c>
       <c r="G65" t="n">
-        <v>35970.18906283999</v>
+        <v>26150.33566283999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,33 +2936,40 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>287</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C66" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D66" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E66" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>1358.1019</v>
       </c>
       <c r="G66" t="n">
-        <v>35970.18906283999</v>
+        <v>27508.43756283999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,33 +2978,40 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>287</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C67" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D67" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E67" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F67" t="n">
-        <v>4486.8633</v>
+        <v>104</v>
       </c>
       <c r="G67" t="n">
-        <v>35970.18906283999</v>
+        <v>27508.43756283999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,74 +3020,88 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>287</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C68" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D68" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E68" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F68" t="n">
-        <v>987.0703999999999</v>
+        <v>10.5677</v>
       </c>
       <c r="G68" t="n">
-        <v>34983.11866283999</v>
+        <v>27497.86986283999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>287</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M68" t="n">
-        <v>1</v>
-      </c>
+        <v>1.001968641114983</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C69" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D69" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E69" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F69" t="n">
-        <v>157.1332</v>
+        <v>10094.8945</v>
       </c>
       <c r="G69" t="n">
-        <v>34825.98546283999</v>
+        <v>37592.76436284</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2807,6 +3109,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2825,10 +3128,10 @@
         <v>287</v>
       </c>
       <c r="F70" t="n">
-        <v>42.8668</v>
+        <v>157.8151</v>
       </c>
       <c r="G70" t="n">
-        <v>34825.98546283999</v>
+        <v>37434.94926284</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,6 +3145,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2860,16 +3164,16 @@
         <v>289</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>528.4687</v>
       </c>
       <c r="G71" t="n">
-        <v>34826.98546283999</v>
+        <v>37963.41796283999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2877,34 +3181,35 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C72" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D72" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E72" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F72" t="n">
-        <v>5028</v>
+        <v>1002.1901</v>
       </c>
       <c r="G72" t="n">
-        <v>29798.98546283999</v>
+        <v>36961.22786283999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2912,28 +3217,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C73" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D73" t="n">
         <v>287</v>
       </c>
       <c r="E73" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F73" t="n">
-        <v>15586.1575</v>
+        <v>154.6233</v>
       </c>
       <c r="G73" t="n">
-        <v>14212.82796283999</v>
+        <v>36961.22786283999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3253,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C74" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D74" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E74" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F74" t="n">
-        <v>409.3234</v>
+        <v>1475.1694</v>
       </c>
       <c r="G74" t="n">
-        <v>13803.50456283999</v>
+        <v>36961.22786283999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3289,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C75" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D75" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E75" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F75" t="n">
-        <v>1290.6626</v>
+        <v>1283.81</v>
       </c>
       <c r="G75" t="n">
-        <v>15094.16716283999</v>
+        <v>38245.03786283999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3325,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C76" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D76" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E76" t="n">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F76" t="n">
-        <v>1237.153</v>
+        <v>2690.562</v>
       </c>
       <c r="G76" t="n">
-        <v>13857.01416283999</v>
+        <v>40935.59986283999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3361,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C77" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D77" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E77" t="n">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="F77" t="n">
-        <v>2567.9951</v>
+        <v>4085.0395</v>
       </c>
       <c r="G77" t="n">
-        <v>16425.00926283999</v>
+        <v>40935.59986283999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3397,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C78" t="n">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D78" t="n">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E78" t="n">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F78" t="n">
-        <v>114</v>
+        <v>1112.5945</v>
       </c>
       <c r="G78" t="n">
-        <v>16311.00926283999</v>
+        <v>42048.19436283999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3433,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C79" t="n">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D79" t="n">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E79" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F79" t="n">
-        <v>100</v>
+        <v>7447.7349</v>
       </c>
       <c r="G79" t="n">
-        <v>16411.00926283999</v>
+        <v>49495.92926283999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3469,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C80" t="n">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="D80" t="n">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="E80" t="n">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="F80" t="n">
-        <v>2397.2647</v>
+        <v>9124.6047</v>
       </c>
       <c r="G80" t="n">
-        <v>16411.00926283999</v>
+        <v>58620.53396284</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,925 +3505,806 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C81" t="n">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="D81" t="n">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="E81" t="n">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="F81" t="n">
-        <v>237329.2053</v>
+        <v>2731.8643</v>
       </c>
       <c r="G81" t="n">
-        <v>16411.00926283999</v>
+        <v>58620.53396284</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>285</v>
-      </c>
-      <c r="K81" t="n">
-        <v>285</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C82" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D82" t="n">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="E82" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="F82" t="n">
-        <v>258904.5876</v>
+        <v>300</v>
       </c>
       <c r="G82" t="n">
-        <v>16411.00926283999</v>
+        <v>58320.53396284</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>285</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C83" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D83" t="n">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="E83" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="F83" t="n">
-        <v>5226.608</v>
+        <v>692</v>
       </c>
       <c r="G83" t="n">
-        <v>11184.40126283999</v>
+        <v>59012.53396284</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>285</v>
-      </c>
-      <c r="K83" t="n">
-        <v>285</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C84" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D84" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="E84" t="n">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="F84" t="n">
-        <v>292172.1639</v>
+        <v>3741.1372</v>
       </c>
       <c r="G84" t="n">
-        <v>11184.40126283999</v>
+        <v>59012.53396284</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>285</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C85" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D85" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E85" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="F85" t="n">
-        <v>843595.6845</v>
+        <v>3990</v>
       </c>
       <c r="G85" t="n">
-        <v>11184.40126283999</v>
+        <v>55022.53396284</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>285</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C86" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="D86" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E86" t="n">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="F86" t="n">
-        <v>755.5749</v>
+        <v>19.8426</v>
       </c>
       <c r="G86" t="n">
-        <v>11939.97616283999</v>
+        <v>55042.37656284</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>285</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="C87" t="n">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="D87" t="n">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="E87" t="n">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="F87" t="n">
-        <v>287.2724</v>
+        <v>40</v>
       </c>
       <c r="G87" t="n">
-        <v>12227.24856283999</v>
+        <v>55042.37656284</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>285</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C88" t="n">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="D88" t="n">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="E88" t="n">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F88" t="n">
-        <v>1004.7018</v>
+        <v>293.4937</v>
       </c>
       <c r="G88" t="n">
-        <v>12227.24856283999</v>
+        <v>55042.37656284</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>285</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C89" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D89" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E89" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F89" t="n">
-        <v>281.2632</v>
+        <v>16399.7904</v>
       </c>
       <c r="G89" t="n">
-        <v>11945.98536283999</v>
+        <v>38642.58616284</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>285</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C90" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D90" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E90" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F90" t="n">
-        <v>3.9756</v>
+        <v>5587.8758</v>
       </c>
       <c r="G90" t="n">
-        <v>11949.96096283999</v>
+        <v>38642.58616284</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>285</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C91" t="n">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D91" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E91" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F91" t="n">
-        <v>1724.804</v>
+        <v>3448.2758</v>
       </c>
       <c r="G91" t="n">
-        <v>10225.15696283999</v>
+        <v>38642.58616284</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>285</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C92" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D92" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E92" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F92" t="n">
-        <v>2004.8601</v>
+        <v>953.8847</v>
       </c>
       <c r="G92" t="n">
-        <v>10225.15696283999</v>
+        <v>37688.70146284</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>285</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C93" t="n">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D93" t="n">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E93" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F93" t="n">
-        <v>1923.601</v>
+        <v>3.9828</v>
       </c>
       <c r="G93" t="n">
-        <v>8301.555962839993</v>
+        <v>37692.68426284</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>285</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C94" t="n">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D94" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E94" t="n">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F94" t="n">
-        <v>146.1479</v>
+        <v>1025.1429</v>
       </c>
       <c r="G94" t="n">
-        <v>8447.703862839993</v>
+        <v>36667.54136284</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>285</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C95" t="n">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="D95" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E95" t="n">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="F95" t="n">
-        <v>13210.9019</v>
+        <v>176.3154</v>
       </c>
       <c r="G95" t="n">
-        <v>-4763.198037160008</v>
+        <v>36843.85676284</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>285</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C96" t="n">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="D96" t="n">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="E96" t="n">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="F96" t="n">
-        <v>10359.9019</v>
+        <v>32.8515</v>
       </c>
       <c r="G96" t="n">
-        <v>-4763.198037160008</v>
+        <v>36843.85676284</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>280</v>
-      </c>
-      <c r="K96" t="n">
-        <v>285</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C97" t="n">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="D97" t="n">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E97" t="n">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="F97" t="n">
-        <v>733</v>
+        <v>322.981</v>
       </c>
       <c r="G97" t="n">
-        <v>-4030.198037160008</v>
+        <v>36520.87576284</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>280</v>
-      </c>
-      <c r="K97" t="n">
-        <v>285</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C98" t="n">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="D98" t="n">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="E98" t="n">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="F98" t="n">
-        <v>11060.0541</v>
+        <v>1.11</v>
       </c>
       <c r="G98" t="n">
-        <v>7029.856062839992</v>
+        <v>36521.98576284</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>283</v>
-      </c>
-      <c r="K98" t="n">
-        <v>285</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C99" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D99" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E99" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F99" t="n">
-        <v>24739.8894</v>
+        <v>314.1699</v>
       </c>
       <c r="G99" t="n">
-        <v>31769.74546283999</v>
+        <v>36207.81586284</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>286</v>
-      </c>
-      <c r="K99" t="n">
-        <v>285</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C100" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D100" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E100" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F100" t="n">
-        <v>4026.7195</v>
+        <v>114</v>
       </c>
       <c r="G100" t="n">
-        <v>27743.02596283999</v>
+        <v>36207.81586284</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>289</v>
-      </c>
-      <c r="K100" t="n">
-        <v>285</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C101" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D101" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E101" t="n">
         <v>289</v>
       </c>
       <c r="F101" t="n">
-        <v>2122.1292</v>
+        <v>8073.0802</v>
       </c>
       <c r="G101" t="n">
-        <v>29865.15516283999</v>
+        <v>28134.73566284</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>285</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C102" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D102" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E102" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F102" t="n">
-        <v>154.0195</v>
+        <v>550.6</v>
       </c>
       <c r="G102" t="n">
-        <v>29711.13566284</v>
+        <v>28134.73566284</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>285</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C103" t="n">
         <v>289</v>
@@ -4119,32 +4313,27 @@
         <v>289</v>
       </c>
       <c r="E103" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F103" t="n">
-        <v>3.9861</v>
+        <v>798.5999</v>
       </c>
       <c r="G103" t="n">
-        <v>29715.12176283999</v>
+        <v>28134.73566284</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>285</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4154,101 +4343,91 @@
         <v>289</v>
       </c>
       <c r="C104" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D104" t="n">
         <v>289</v>
       </c>
       <c r="E104" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F104" t="n">
-        <v>4586.7998</v>
+        <v>2116.2093</v>
       </c>
       <c r="G104" t="n">
-        <v>29715.12176283999</v>
+        <v>26018.52636284</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>285</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C105" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D105" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E105" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F105" t="n">
-        <v>251.44</v>
+        <v>557</v>
       </c>
       <c r="G105" t="n">
-        <v>29966.56176283999</v>
+        <v>26018.52636284</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>285</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C106" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D106" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E106" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F106" t="n">
-        <v>1072.4641</v>
+        <v>1011.8903</v>
       </c>
       <c r="G106" t="n">
-        <v>29966.56176283999</v>
+        <v>26018.52636284</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4257,39 +4436,34 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>285</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C107" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D107" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E107" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F107" t="n">
-        <v>3816.2261</v>
+        <v>3354.6491</v>
       </c>
       <c r="G107" t="n">
-        <v>26150.33566283999</v>
+        <v>29373.17546284</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4298,39 +4472,34 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>285</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C108" t="n">
         <v>291</v>
       </c>
       <c r="D108" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E108" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F108" t="n">
-        <v>1358.1019</v>
+        <v>3201.2746</v>
       </c>
       <c r="G108" t="n">
-        <v>27508.43756283999</v>
+        <v>26171.90086284</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4339,39 +4508,34 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>285</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C109" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D109" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E109" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F109" t="n">
-        <v>104</v>
+        <v>104.3997</v>
       </c>
       <c r="G109" t="n">
-        <v>27508.43756283999</v>
+        <v>26067.50116284</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4380,17 +4544,12 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>285</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4400,19 +4559,19 @@
         <v>289</v>
       </c>
       <c r="C110" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D110" t="n">
         <v>289</v>
       </c>
       <c r="E110" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F110" t="n">
-        <v>10.5677</v>
+        <v>1999.848</v>
       </c>
       <c r="G110" t="n">
-        <v>27497.86986283999</v>
+        <v>24067.65316284</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4421,17 +4580,12 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>285</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4441,19 +4595,19 @@
         <v>288</v>
       </c>
       <c r="C111" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D111" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E111" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F111" t="n">
-        <v>10094.8945</v>
+        <v>4900.7607</v>
       </c>
       <c r="G111" t="n">
-        <v>37592.76436284</v>
+        <v>19166.89246284</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4462,39 +4616,34 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>285</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C112" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D112" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E112" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F112" t="n">
-        <v>157.8151</v>
+        <v>1174.1672</v>
       </c>
       <c r="G112" t="n">
-        <v>37434.94926284</v>
+        <v>20341.05966284</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4503,39 +4652,34 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>285</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C113" t="n">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D113" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E113" t="n">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F113" t="n">
-        <v>528.4687</v>
+        <v>5944.4851</v>
       </c>
       <c r="G113" t="n">
-        <v>37963.41796283999</v>
+        <v>14396.57456284</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4544,39 +4688,34 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>285</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C114" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D114" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E114" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F114" t="n">
-        <v>1002.1901</v>
+        <v>149.7543</v>
       </c>
       <c r="G114" t="n">
-        <v>36961.22786283999</v>
+        <v>14546.32886284</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4585,39 +4724,34 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>285</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C115" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D115" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E115" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F115" t="n">
-        <v>154.6233</v>
+        <v>149.7</v>
       </c>
       <c r="G115" t="n">
-        <v>36961.22786283999</v>
+        <v>14396.62886284</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4626,17 +4760,12 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>285</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4646,19 +4775,19 @@
         <v>288</v>
       </c>
       <c r="C116" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D116" t="n">
         <v>288</v>
       </c>
       <c r="E116" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F116" t="n">
-        <v>1475.1694</v>
+        <v>149.7155</v>
       </c>
       <c r="G116" t="n">
-        <v>36961.22786283999</v>
+        <v>14396.62886284</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4667,17 +4796,12 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>285</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4696,10 +4820,10 @@
         <v>288</v>
       </c>
       <c r="F117" t="n">
-        <v>1283.81</v>
+        <v>139.4</v>
       </c>
       <c r="G117" t="n">
-        <v>38245.03786283999</v>
+        <v>14396.62886284</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4708,39 +4832,34 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>285</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C118" t="n">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D118" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E118" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F118" t="n">
-        <v>2690.562</v>
+        <v>4967.3</v>
       </c>
       <c r="G118" t="n">
-        <v>40935.59986283999</v>
+        <v>9429.328862839997</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4749,17 +4868,12 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>285</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4778,10 +4892,10 @@
         <v>290</v>
       </c>
       <c r="F119" t="n">
-        <v>4085.0395</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>40935.59986283999</v>
+        <v>9430.328862839997</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4790,39 +4904,34 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>285</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C120" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D120" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E120" t="n">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F120" t="n">
-        <v>1112.5945</v>
+        <v>1305.2968</v>
       </c>
       <c r="G120" t="n">
-        <v>42048.19436283999</v>
+        <v>8125.032062839997</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4831,39 +4940,34 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>285</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C121" t="n">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D121" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E121" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F121" t="n">
-        <v>7447.7349</v>
+        <v>1760.821</v>
       </c>
       <c r="G121" t="n">
-        <v>49495.92926283999</v>
+        <v>8125.032062839997</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4872,39 +4976,34 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>285</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C122" t="n">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D122" t="n">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E122" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F122" t="n">
-        <v>9124.6047</v>
+        <v>1060.1034</v>
       </c>
       <c r="G122" t="n">
-        <v>58620.53396284</v>
+        <v>9185.135462839997</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4913,39 +5012,34 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>285</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C123" t="n">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D123" t="n">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E123" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F123" t="n">
-        <v>2731.8643</v>
+        <v>1578.8034</v>
       </c>
       <c r="G123" t="n">
-        <v>58620.53396284</v>
+        <v>10763.93886284</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4954,39 +5048,34 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>285</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C124" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D124" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E124" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F124" t="n">
-        <v>300</v>
+        <v>354.5592</v>
       </c>
       <c r="G124" t="n">
-        <v>58320.53396284</v>
+        <v>11118.49806284</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4995,39 +5084,34 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>285</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C125" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D125" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E125" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F125" t="n">
-        <v>692</v>
+        <v>874.6652</v>
       </c>
       <c r="G125" t="n">
-        <v>59012.53396284</v>
+        <v>11993.16326284</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5036,39 +5120,34 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>285</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C126" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D126" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E126" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F126" t="n">
-        <v>3741.1372</v>
+        <v>860.2922</v>
       </c>
       <c r="G126" t="n">
-        <v>59012.53396284</v>
+        <v>11132.87106284</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5077,39 +5156,34 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>285</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C127" t="n">
         <v>292</v>
       </c>
       <c r="D127" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E127" t="n">
         <v>292</v>
       </c>
       <c r="F127" t="n">
-        <v>3990</v>
+        <v>210.4088</v>
       </c>
       <c r="G127" t="n">
-        <v>55022.53396284</v>
+        <v>11132.87106284</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5118,1779 +5192,12 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>285</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>293</v>
-      </c>
-      <c r="C128" t="n">
-        <v>293</v>
-      </c>
-      <c r="D128" t="n">
-        <v>293</v>
-      </c>
-      <c r="E128" t="n">
-        <v>293</v>
-      </c>
-      <c r="F128" t="n">
-        <v>19.8426</v>
-      </c>
-      <c r="G128" t="n">
-        <v>55042.37656284</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>285</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>293</v>
-      </c>
-      <c r="C129" t="n">
-        <v>293</v>
-      </c>
-      <c r="D129" t="n">
-        <v>293</v>
-      </c>
-      <c r="E129" t="n">
-        <v>293</v>
-      </c>
-      <c r="F129" t="n">
-        <v>40</v>
-      </c>
-      <c r="G129" t="n">
-        <v>55042.37656284</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>285</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>293</v>
-      </c>
-      <c r="C130" t="n">
-        <v>293</v>
-      </c>
-      <c r="D130" t="n">
-        <v>293</v>
-      </c>
-      <c r="E130" t="n">
-        <v>293</v>
-      </c>
-      <c r="F130" t="n">
-        <v>293.4937</v>
-      </c>
-      <c r="G130" t="n">
-        <v>55042.37656284</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>285</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>293</v>
-      </c>
-      <c r="C131" t="n">
-        <v>291</v>
-      </c>
-      <c r="D131" t="n">
-        <v>293</v>
-      </c>
-      <c r="E131" t="n">
-        <v>291</v>
-      </c>
-      <c r="F131" t="n">
-        <v>16399.7904</v>
-      </c>
-      <c r="G131" t="n">
-        <v>38642.58616284</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>285</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>291</v>
-      </c>
-      <c r="C132" t="n">
-        <v>291</v>
-      </c>
-      <c r="D132" t="n">
-        <v>291</v>
-      </c>
-      <c r="E132" t="n">
-        <v>291</v>
-      </c>
-      <c r="F132" t="n">
-        <v>5587.8758</v>
-      </c>
-      <c r="G132" t="n">
-        <v>38642.58616284</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>285</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>291</v>
-      </c>
-      <c r="C133" t="n">
-        <v>291</v>
-      </c>
-      <c r="D133" t="n">
-        <v>291</v>
-      </c>
-      <c r="E133" t="n">
-        <v>291</v>
-      </c>
-      <c r="F133" t="n">
-        <v>3448.2758</v>
-      </c>
-      <c r="G133" t="n">
-        <v>38642.58616284</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>285</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>290</v>
-      </c>
-      <c r="C134" t="n">
-        <v>290</v>
-      </c>
-      <c r="D134" t="n">
-        <v>290</v>
-      </c>
-      <c r="E134" t="n">
-        <v>290</v>
-      </c>
-      <c r="F134" t="n">
-        <v>953.8847</v>
-      </c>
-      <c r="G134" t="n">
-        <v>37688.70146284</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>285</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>290</v>
-      </c>
-      <c r="C135" t="n">
-        <v>292</v>
-      </c>
-      <c r="D135" t="n">
-        <v>292</v>
-      </c>
-      <c r="E135" t="n">
-        <v>290</v>
-      </c>
-      <c r="F135" t="n">
-        <v>3.9828</v>
-      </c>
-      <c r="G135" t="n">
-        <v>37692.68426284</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>285</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>292</v>
-      </c>
-      <c r="C136" t="n">
-        <v>291</v>
-      </c>
-      <c r="D136" t="n">
-        <v>292</v>
-      </c>
-      <c r="E136" t="n">
-        <v>291</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1025.1429</v>
-      </c>
-      <c r="G136" t="n">
-        <v>36667.54136284</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>285</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>292</v>
-      </c>
-      <c r="C137" t="n">
-        <v>293</v>
-      </c>
-      <c r="D137" t="n">
-        <v>293</v>
-      </c>
-      <c r="E137" t="n">
-        <v>292</v>
-      </c>
-      <c r="F137" t="n">
-        <v>176.3154</v>
-      </c>
-      <c r="G137" t="n">
-        <v>36843.85676284</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>285</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>293</v>
-      </c>
-      <c r="C138" t="n">
-        <v>293</v>
-      </c>
-      <c r="D138" t="n">
-        <v>293</v>
-      </c>
-      <c r="E138" t="n">
-        <v>293</v>
-      </c>
-      <c r="F138" t="n">
-        <v>32.8515</v>
-      </c>
-      <c r="G138" t="n">
-        <v>36843.85676284</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>285</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>292</v>
-      </c>
-      <c r="C139" t="n">
-        <v>292</v>
-      </c>
-      <c r="D139" t="n">
-        <v>292</v>
-      </c>
-      <c r="E139" t="n">
-        <v>292</v>
-      </c>
-      <c r="F139" t="n">
-        <v>322.981</v>
-      </c>
-      <c r="G139" t="n">
-        <v>36520.87576284</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>285</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>294</v>
-      </c>
-      <c r="C140" t="n">
-        <v>294</v>
-      </c>
-      <c r="D140" t="n">
-        <v>294</v>
-      </c>
-      <c r="E140" t="n">
-        <v>294</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="G140" t="n">
-        <v>36521.98576284</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>285</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>291</v>
-      </c>
-      <c r="C141" t="n">
-        <v>291</v>
-      </c>
-      <c r="D141" t="n">
-        <v>291</v>
-      </c>
-      <c r="E141" t="n">
-        <v>291</v>
-      </c>
-      <c r="F141" t="n">
-        <v>314.1699</v>
-      </c>
-      <c r="G141" t="n">
-        <v>36207.81586284</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>285</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>291</v>
-      </c>
-      <c r="C142" t="n">
-        <v>291</v>
-      </c>
-      <c r="D142" t="n">
-        <v>291</v>
-      </c>
-      <c r="E142" t="n">
-        <v>291</v>
-      </c>
-      <c r="F142" t="n">
-        <v>114</v>
-      </c>
-      <c r="G142" t="n">
-        <v>36207.81586284</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>285</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>291</v>
-      </c>
-      <c r="C143" t="n">
-        <v>289</v>
-      </c>
-      <c r="D143" t="n">
-        <v>291</v>
-      </c>
-      <c r="E143" t="n">
-        <v>289</v>
-      </c>
-      <c r="F143" t="n">
-        <v>8073.0802</v>
-      </c>
-      <c r="G143" t="n">
-        <v>28134.73566284</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>285</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>289</v>
-      </c>
-      <c r="C144" t="n">
-        <v>289</v>
-      </c>
-      <c r="D144" t="n">
-        <v>289</v>
-      </c>
-      <c r="E144" t="n">
-        <v>289</v>
-      </c>
-      <c r="F144" t="n">
-        <v>550.6</v>
-      </c>
-      <c r="G144" t="n">
-        <v>28134.73566284</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>285</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>289</v>
-      </c>
-      <c r="C145" t="n">
-        <v>289</v>
-      </c>
-      <c r="D145" t="n">
-        <v>289</v>
-      </c>
-      <c r="E145" t="n">
-        <v>289</v>
-      </c>
-      <c r="F145" t="n">
-        <v>798.5999</v>
-      </c>
-      <c r="G145" t="n">
-        <v>28134.73566284</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>285</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>289</v>
-      </c>
-      <c r="C146" t="n">
-        <v>288</v>
-      </c>
-      <c r="D146" t="n">
-        <v>289</v>
-      </c>
-      <c r="E146" t="n">
-        <v>288</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2116.2093</v>
-      </c>
-      <c r="G146" t="n">
-        <v>26018.52636284</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>289</v>
-      </c>
-      <c r="K146" t="n">
-        <v>285</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>288</v>
-      </c>
-      <c r="C147" t="n">
-        <v>288</v>
-      </c>
-      <c r="D147" t="n">
-        <v>288</v>
-      </c>
-      <c r="E147" t="n">
-        <v>288</v>
-      </c>
-      <c r="F147" t="n">
-        <v>557</v>
-      </c>
-      <c r="G147" t="n">
-        <v>26018.52636284</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>288</v>
-      </c>
-      <c r="K147" t="n">
-        <v>285</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>288</v>
-      </c>
-      <c r="C148" t="n">
-        <v>288</v>
-      </c>
-      <c r="D148" t="n">
-        <v>288</v>
-      </c>
-      <c r="E148" t="n">
-        <v>288</v>
-      </c>
-      <c r="F148" t="n">
-        <v>1011.8903</v>
-      </c>
-      <c r="G148" t="n">
-        <v>26018.52636284</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>288</v>
-      </c>
-      <c r="K148" t="n">
-        <v>285</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>288</v>
-      </c>
-      <c r="C149" t="n">
-        <v>293</v>
-      </c>
-      <c r="D149" t="n">
-        <v>293</v>
-      </c>
-      <c r="E149" t="n">
-        <v>288</v>
-      </c>
-      <c r="F149" t="n">
-        <v>3354.6491</v>
-      </c>
-      <c r="G149" t="n">
-        <v>29373.17546284</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>288</v>
-      </c>
-      <c r="K149" t="n">
-        <v>285</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>293</v>
-      </c>
-      <c r="C150" t="n">
-        <v>291</v>
-      </c>
-      <c r="D150" t="n">
-        <v>293</v>
-      </c>
-      <c r="E150" t="n">
-        <v>289</v>
-      </c>
-      <c r="F150" t="n">
-        <v>3201.2746</v>
-      </c>
-      <c r="G150" t="n">
-        <v>26171.90086284</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>293</v>
-      </c>
-      <c r="K150" t="n">
-        <v>285</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>290</v>
-      </c>
-      <c r="C151" t="n">
-        <v>290</v>
-      </c>
-      <c r="D151" t="n">
-        <v>290</v>
-      </c>
-      <c r="E151" t="n">
-        <v>290</v>
-      </c>
-      <c r="F151" t="n">
-        <v>104.3997</v>
-      </c>
-      <c r="G151" t="n">
-        <v>26067.50116284</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>291</v>
-      </c>
-      <c r="K151" t="n">
-        <v>285</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>289</v>
-      </c>
-      <c r="C152" t="n">
-        <v>288</v>
-      </c>
-      <c r="D152" t="n">
-        <v>289</v>
-      </c>
-      <c r="E152" t="n">
-        <v>288</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1999.848</v>
-      </c>
-      <c r="G152" t="n">
-        <v>24067.65316284</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>290</v>
-      </c>
-      <c r="K152" t="n">
-        <v>285</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>288</v>
-      </c>
-      <c r="C153" t="n">
-        <v>287</v>
-      </c>
-      <c r="D153" t="n">
-        <v>288</v>
-      </c>
-      <c r="E153" t="n">
-        <v>287</v>
-      </c>
-      <c r="F153" t="n">
-        <v>4900.7607</v>
-      </c>
-      <c r="G153" t="n">
-        <v>19166.89246284</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>288</v>
-      </c>
-      <c r="K153" t="n">
-        <v>285</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>290</v>
-      </c>
-      <c r="C154" t="n">
-        <v>288</v>
-      </c>
-      <c r="D154" t="n">
-        <v>290</v>
-      </c>
-      <c r="E154" t="n">
-        <v>288</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1174.1672</v>
-      </c>
-      <c r="G154" t="n">
-        <v>20341.05966284</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>287</v>
-      </c>
-      <c r="K154" t="n">
-        <v>285</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>288</v>
-      </c>
-      <c r="C155" t="n">
-        <v>286</v>
-      </c>
-      <c r="D155" t="n">
-        <v>288</v>
-      </c>
-      <c r="E155" t="n">
-        <v>286</v>
-      </c>
-      <c r="F155" t="n">
-        <v>5944.4851</v>
-      </c>
-      <c r="G155" t="n">
-        <v>14396.57456284</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>288</v>
-      </c>
-      <c r="K155" t="n">
-        <v>285</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>289</v>
-      </c>
-      <c r="C156" t="n">
-        <v>289</v>
-      </c>
-      <c r="D156" t="n">
-        <v>289</v>
-      </c>
-      <c r="E156" t="n">
-        <v>289</v>
-      </c>
-      <c r="F156" t="n">
-        <v>149.7543</v>
-      </c>
-      <c r="G156" t="n">
-        <v>14546.32886284</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>286</v>
-      </c>
-      <c r="K156" t="n">
-        <v>285</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>289</v>
-      </c>
-      <c r="C157" t="n">
-        <v>288</v>
-      </c>
-      <c r="D157" t="n">
-        <v>289</v>
-      </c>
-      <c r="E157" t="n">
-        <v>288</v>
-      </c>
-      <c r="F157" t="n">
-        <v>149.7</v>
-      </c>
-      <c r="G157" t="n">
-        <v>14396.62886284</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>289</v>
-      </c>
-      <c r="K157" t="n">
-        <v>285</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>288</v>
-      </c>
-      <c r="C158" t="n">
-        <v>288</v>
-      </c>
-      <c r="D158" t="n">
-        <v>288</v>
-      </c>
-      <c r="E158" t="n">
-        <v>288</v>
-      </c>
-      <c r="F158" t="n">
-        <v>149.7155</v>
-      </c>
-      <c r="G158" t="n">
-        <v>14396.62886284</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>288</v>
-      </c>
-      <c r="K158" t="n">
-        <v>285</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>288</v>
-      </c>
-      <c r="C159" t="n">
-        <v>288</v>
-      </c>
-      <c r="D159" t="n">
-        <v>288</v>
-      </c>
-      <c r="E159" t="n">
-        <v>288</v>
-      </c>
-      <c r="F159" t="n">
-        <v>139.4</v>
-      </c>
-      <c r="G159" t="n">
-        <v>14396.62886284</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>288</v>
-      </c>
-      <c r="K159" t="n">
-        <v>285</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>287</v>
-      </c>
-      <c r="C160" t="n">
-        <v>284</v>
-      </c>
-      <c r="D160" t="n">
-        <v>287</v>
-      </c>
-      <c r="E160" t="n">
-        <v>284</v>
-      </c>
-      <c r="F160" t="n">
-        <v>4967.3</v>
-      </c>
-      <c r="G160" t="n">
-        <v>9429.328862839997</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>288</v>
-      </c>
-      <c r="K160" t="n">
-        <v>285</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>290</v>
-      </c>
-      <c r="C161" t="n">
-        <v>290</v>
-      </c>
-      <c r="D161" t="n">
-        <v>290</v>
-      </c>
-      <c r="E161" t="n">
-        <v>290</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1</v>
-      </c>
-      <c r="G161" t="n">
-        <v>9430.328862839997</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="n">
-        <v>284</v>
-      </c>
-      <c r="K161" t="n">
-        <v>285</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>286</v>
-      </c>
-      <c r="C162" t="n">
-        <v>288</v>
-      </c>
-      <c r="D162" t="n">
-        <v>288</v>
-      </c>
-      <c r="E162" t="n">
-        <v>286</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1305.2968</v>
-      </c>
-      <c r="G162" t="n">
-        <v>8125.032062839997</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>290</v>
-      </c>
-      <c r="K162" t="n">
-        <v>285</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>288</v>
-      </c>
-      <c r="C163" t="n">
-        <v>288</v>
-      </c>
-      <c r="D163" t="n">
-        <v>289</v>
-      </c>
-      <c r="E163" t="n">
-        <v>287</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1760.821</v>
-      </c>
-      <c r="G163" t="n">
-        <v>8125.032062839997</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>288</v>
-      </c>
-      <c r="K163" t="n">
-        <v>285</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>290</v>
-      </c>
-      <c r="C164" t="n">
-        <v>289</v>
-      </c>
-      <c r="D164" t="n">
-        <v>290</v>
-      </c>
-      <c r="E164" t="n">
-        <v>289</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1060.1034</v>
-      </c>
-      <c r="G164" t="n">
-        <v>9185.135462839997</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>288</v>
-      </c>
-      <c r="K164" t="n">
-        <v>285</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>290</v>
-      </c>
-      <c r="C165" t="n">
-        <v>290</v>
-      </c>
-      <c r="D165" t="n">
-        <v>290</v>
-      </c>
-      <c r="E165" t="n">
-        <v>290</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1578.8034</v>
-      </c>
-      <c r="G165" t="n">
-        <v>10763.93886284</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>289</v>
-      </c>
-      <c r="K165" t="n">
-        <v>285</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>290</v>
-      </c>
-      <c r="C166" t="n">
-        <v>292</v>
-      </c>
-      <c r="D166" t="n">
-        <v>292</v>
-      </c>
-      <c r="E166" t="n">
-        <v>290</v>
-      </c>
-      <c r="F166" t="n">
-        <v>354.5592</v>
-      </c>
-      <c r="G166" t="n">
-        <v>11118.49806284</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>285</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>292</v>
-      </c>
-      <c r="C167" t="n">
-        <v>293</v>
-      </c>
-      <c r="D167" t="n">
-        <v>293</v>
-      </c>
-      <c r="E167" t="n">
-        <v>292</v>
-      </c>
-      <c r="F167" t="n">
-        <v>874.6652</v>
-      </c>
-      <c r="G167" t="n">
-        <v>11993.16326284</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>285</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>293</v>
-      </c>
-      <c r="C168" t="n">
-        <v>292</v>
-      </c>
-      <c r="D168" t="n">
-        <v>293</v>
-      </c>
-      <c r="E168" t="n">
-        <v>292</v>
-      </c>
-      <c r="F168" t="n">
-        <v>860.2922</v>
-      </c>
-      <c r="G168" t="n">
-        <v>11132.87106284</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>285</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>292</v>
-      </c>
-      <c r="C169" t="n">
-        <v>292</v>
-      </c>
-      <c r="D169" t="n">
-        <v>292</v>
-      </c>
-      <c r="E169" t="n">
-        <v>292</v>
-      </c>
-      <c r="F169" t="n">
-        <v>210.4088</v>
-      </c>
-      <c r="G169" t="n">
-        <v>11132.87106284</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>285</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
+      <c r="N127" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-02 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-02 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N127"/>
+  <dimension ref="A1:N198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C2" t="n">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D2" t="n">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E2" t="n">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="F2" t="n">
-        <v>1308.5526</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>40908.59126283999</v>
+        <v>-6040.106837159999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C3" t="n">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D3" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E3" t="n">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F3" t="n">
-        <v>1218.1492</v>
+        <v>9502.1019</v>
       </c>
       <c r="G3" t="n">
-        <v>39690.44206283999</v>
+        <v>-15542.20873716</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>281</v>
+      </c>
+      <c r="K3" t="n">
+        <v>281</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C4" t="n">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D4" t="n">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E4" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F4" t="n">
-        <v>27.5629</v>
+        <v>8512.268599999999</v>
       </c>
       <c r="G4" t="n">
-        <v>39718.00496283999</v>
+        <v>-7029.94013716</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>280</v>
+      </c>
+      <c r="K4" t="n">
+        <v>281</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C5" t="n">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D5" t="n">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E5" t="n">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="F5" t="n">
-        <v>3.9795</v>
+        <v>222</v>
       </c>
       <c r="G5" t="n">
-        <v>39721.98446283999</v>
+        <v>-7029.94013716</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>284</v>
+      </c>
+      <c r="K5" t="n">
+        <v>281</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +602,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C6" t="n">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D6" t="n">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E6" t="n">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F6" t="n">
-        <v>1056.7191</v>
+        <v>2437.8811</v>
       </c>
       <c r="G6" t="n">
-        <v>38665.26536283999</v>
+        <v>-9467.82123716</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>284</v>
+      </c>
+      <c r="K6" t="n">
+        <v>281</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,22 +646,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C7" t="n">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D7" t="n">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="E7" t="n">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="F7" t="n">
-        <v>926.5993999999999</v>
+        <v>4521.3094</v>
       </c>
       <c r="G7" t="n">
-        <v>38665.26536283999</v>
+        <v>-13989.13063716</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -642,8 +670,14 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>281</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +688,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C8" t="n">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D8" t="n">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="E8" t="n">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="F8" t="n">
-        <v>523</v>
+        <v>320.8873</v>
       </c>
       <c r="G8" t="n">
-        <v>38665.26536283999</v>
+        <v>-13668.24333716</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,8 +712,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>281</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +730,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C9" t="n">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D9" t="n">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="E9" t="n">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="F9" t="n">
-        <v>4436.1566</v>
+        <v>5349.5722</v>
       </c>
       <c r="G9" t="n">
-        <v>34229.10876283998</v>
+        <v>-8318.671137159999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -714,8 +754,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>281</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +772,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C10" t="n">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="D10" t="n">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="E10" t="n">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="F10" t="n">
-        <v>1550.1569</v>
+        <v>1577.2014</v>
       </c>
       <c r="G10" t="n">
-        <v>35779.26566283999</v>
+        <v>-8318.671137159999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -750,8 +796,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>281</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +814,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C11" t="n">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="D11" t="n">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E11" t="n">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="F11" t="n">
-        <v>2154.1976</v>
+        <v>1544.9643</v>
       </c>
       <c r="G11" t="n">
-        <v>33625.06806283999</v>
+        <v>-9863.635437159999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,8 +838,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>281</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +856,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C12" t="n">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D12" t="n">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="E12" t="n">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="F12" t="n">
-        <v>200</v>
+        <v>1882.7773</v>
       </c>
       <c r="G12" t="n">
-        <v>33825.06806283999</v>
+        <v>-7980.858137159999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -822,8 +880,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>281</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,32 +898,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C13" t="n">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D13" t="n">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E13" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F13" t="n">
-        <v>1177</v>
+        <v>698.2667</v>
       </c>
       <c r="G13" t="n">
-        <v>33825.06806283999</v>
+        <v>-7282.591437159999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>278</v>
+      </c>
+      <c r="K13" t="n">
+        <v>281</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +942,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C14" t="n">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D14" t="n">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E14" t="n">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="F14" t="n">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="G14" t="n">
-        <v>33425.06806283999</v>
+        <v>-7667.591437159999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -894,8 +966,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>281</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,22 +984,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C15" t="n">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D15" t="n">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E15" t="n">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="F15" t="n">
-        <v>3299.7156</v>
+        <v>240</v>
       </c>
       <c r="G15" t="n">
-        <v>30125.35246283999</v>
+        <v>-7907.591437159999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -930,8 +1008,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>281</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,32 +1026,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C16" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D16" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E16" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F16" t="n">
-        <v>1556.4768</v>
+        <v>778.9999</v>
       </c>
       <c r="G16" t="n">
-        <v>30125.35246283999</v>
+        <v>-7128.591537159999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>279</v>
+      </c>
+      <c r="K16" t="n">
+        <v>281</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1070,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C17" t="n">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D17" t="n">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="E17" t="n">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F17" t="n">
-        <v>699.3404</v>
+        <v>4191.9068</v>
       </c>
       <c r="G17" t="n">
-        <v>29426.01206283999</v>
+        <v>-2936.68473716</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,8 +1094,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>281</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,32 +1112,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C18" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D18" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E18" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F18" t="n">
-        <v>544.2103</v>
+        <v>2238.479</v>
       </c>
       <c r="G18" t="n">
-        <v>29970.22236283998</v>
+        <v>-5175.163737159999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>281</v>
+      </c>
+      <c r="K18" t="n">
+        <v>281</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,32 +1156,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C19" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D19" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E19" t="n">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F19" t="n">
-        <v>4910.628</v>
+        <v>76</v>
       </c>
       <c r="G19" t="n">
-        <v>25059.59436283998</v>
+        <v>-5099.163737159999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>280</v>
+      </c>
+      <c r="K19" t="n">
+        <v>281</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,32 +1200,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C20" t="n">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D20" t="n">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E20" t="n">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F20" t="n">
-        <v>1153.8768</v>
+        <v>165.4937</v>
       </c>
       <c r="G20" t="n">
-        <v>25059.59436283998</v>
+        <v>-5264.657437159999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>282</v>
+      </c>
+      <c r="K20" t="n">
+        <v>281</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,32 +1244,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C21" t="n">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D21" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E21" t="n">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F21" t="n">
-        <v>1574.9337</v>
+        <v>1246.2269</v>
       </c>
       <c r="G21" t="n">
-        <v>23484.66066283998</v>
+        <v>-4018.430537159999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>281</v>
+      </c>
+      <c r="K21" t="n">
+        <v>281</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,32 +1288,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C22" t="n">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D22" t="n">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E22" t="n">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F22" t="n">
-        <v>12485.5284</v>
+        <v>2280.7035</v>
       </c>
       <c r="G22" t="n">
-        <v>35970.18906283999</v>
+        <v>-6299.13403716</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>282</v>
+      </c>
+      <c r="K22" t="n">
+        <v>281</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,32 +1332,40 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C23" t="n">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D23" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E23" t="n">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F23" t="n">
-        <v>2483.1089</v>
+        <v>15776.7288</v>
       </c>
       <c r="G23" t="n">
-        <v>35970.18906283999</v>
+        <v>-22075.86283716</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>280</v>
+      </c>
+      <c r="K23" t="n">
+        <v>281</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,32 +1376,40 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C24" t="n">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D24" t="n">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E24" t="n">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>77.9045</v>
       </c>
       <c r="G24" t="n">
-        <v>35970.18906283999</v>
+        <v>-21997.95833716</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>277</v>
+      </c>
+      <c r="K24" t="n">
+        <v>281</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,32 +1420,40 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C25" t="n">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D25" t="n">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E25" t="n">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F25" t="n">
-        <v>4486.8633</v>
+        <v>157.9242</v>
       </c>
       <c r="G25" t="n">
-        <v>35970.18906283999</v>
+        <v>-22155.88253716</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>283</v>
+      </c>
+      <c r="K25" t="n">
+        <v>281</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,32 +1464,40 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C26" t="n">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D26" t="n">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E26" t="n">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F26" t="n">
-        <v>987.0703999999999</v>
+        <v>6909.4567</v>
       </c>
       <c r="G26" t="n">
-        <v>34983.11866283999</v>
+        <v>-29065.33923716</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>281</v>
+      </c>
+      <c r="K26" t="n">
+        <v>281</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,32 +1508,40 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C27" t="n">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D27" t="n">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E27" t="n">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="F27" t="n">
-        <v>157.1332</v>
+        <v>11863.3028</v>
       </c>
       <c r="G27" t="n">
-        <v>34825.98546283999</v>
+        <v>-17202.03643716</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>276</v>
+      </c>
+      <c r="K27" t="n">
+        <v>281</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,32 +1552,40 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C28" t="n">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D28" t="n">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E28" t="n">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F28" t="n">
-        <v>42.8668</v>
+        <v>15571.4788</v>
       </c>
       <c r="G28" t="n">
-        <v>34825.98546283999</v>
+        <v>-1630.55763716</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>278</v>
+      </c>
+      <c r="K28" t="n">
+        <v>281</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,32 +1596,40 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C29" t="n">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D29" t="n">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E29" t="n">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>4236.3229</v>
       </c>
       <c r="G29" t="n">
-        <v>34826.98546283999</v>
+        <v>2605.76526284</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>280</v>
+      </c>
+      <c r="K29" t="n">
+        <v>281</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,32 +1640,40 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C30" t="n">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D30" t="n">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E30" t="n">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F30" t="n">
-        <v>5028</v>
+        <v>1749.9479</v>
       </c>
       <c r="G30" t="n">
-        <v>29798.98546283999</v>
+        <v>2605.76526284</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>281</v>
+      </c>
+      <c r="K30" t="n">
+        <v>281</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,32 +1684,40 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C31" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D31" t="n">
         <v>287</v>
       </c>
       <c r="E31" t="n">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F31" t="n">
-        <v>15586.1575</v>
+        <v>15719.686</v>
       </c>
       <c r="G31" t="n">
-        <v>14212.82796283999</v>
+        <v>18325.45126284</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>281</v>
+      </c>
+      <c r="K31" t="n">
+        <v>281</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1521,19 +1731,19 @@
         <v>285</v>
       </c>
       <c r="C32" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D32" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E32" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F32" t="n">
-        <v>409.3234</v>
+        <v>21243.4224</v>
       </c>
       <c r="G32" t="n">
-        <v>13803.50456283999</v>
+        <v>18325.45126284</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1542,8 +1752,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>281</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1770,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C33" t="n">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D33" t="n">
         <v>287</v>
       </c>
       <c r="E33" t="n">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F33" t="n">
-        <v>1290.6626</v>
+        <v>11049.2044</v>
       </c>
       <c r="G33" t="n">
-        <v>15094.16716283999</v>
+        <v>7276.24686284</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1794,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>281</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1593,33 +1815,35 @@
         <v>284</v>
       </c>
       <c r="C34" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D34" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E34" t="n">
         <v>284</v>
       </c>
       <c r="F34" t="n">
-        <v>1237.153</v>
+        <v>5386.9835</v>
       </c>
       <c r="G34" t="n">
-        <v>13857.01416283999</v>
+        <v>12663.23036284</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>287</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>287</v>
-      </c>
-      <c r="L34" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1630,22 +1854,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C35" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D35" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E35" t="n">
         <v>282</v>
       </c>
       <c r="F35" t="n">
-        <v>2567.9951</v>
+        <v>16523.701</v>
       </c>
       <c r="G35" t="n">
-        <v>16425.00926283999</v>
+        <v>12663.23036284</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1655,11 +1879,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M35" t="n">
@@ -1672,22 +1896,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C36" t="n">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D36" t="n">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="E36" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F36" t="n">
-        <v>114</v>
+        <v>10523.3572</v>
       </c>
       <c r="G36" t="n">
-        <v>16311.00926283999</v>
+        <v>23186.58756284</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1697,7 +1921,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1714,22 +1938,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C37" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D37" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E37" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>476.8872</v>
       </c>
       <c r="G37" t="n">
-        <v>16411.00926283999</v>
+        <v>23186.58756284</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1739,7 +1963,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1756,22 +1980,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C38" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D38" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E38" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F38" t="n">
-        <v>2397.2647</v>
+        <v>2436.8797</v>
       </c>
       <c r="G38" t="n">
-        <v>16411.00926283999</v>
+        <v>20749.70786284</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1781,7 +2005,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1798,22 +2022,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C39" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D39" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E39" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F39" t="n">
-        <v>237329.2053</v>
+        <v>4569.4345</v>
       </c>
       <c r="G39" t="n">
-        <v>16411.00926283999</v>
+        <v>25319.14236284</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1823,7 +2047,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1840,22 +2064,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C40" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D40" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E40" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F40" t="n">
-        <v>258904.5876</v>
+        <v>641.5096</v>
       </c>
       <c r="G40" t="n">
-        <v>16411.00926283999</v>
+        <v>24677.63276284</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1865,7 +2089,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1882,34 +2106,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C41" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D41" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E41" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F41" t="n">
-        <v>5226.608</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>11184.40126283999</v>
+        <v>24678.63276284</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>285</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -1926,34 +2148,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C42" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D42" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E42" t="n">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F42" t="n">
-        <v>292172.1639</v>
+        <v>93.7149</v>
       </c>
       <c r="G42" t="n">
-        <v>11184.40126283999</v>
+        <v>24678.63276284</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>284</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -1970,34 +2190,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C43" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D43" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E43" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F43" t="n">
-        <v>843595.6845</v>
+        <v>497.3896</v>
       </c>
       <c r="G43" t="n">
-        <v>11184.40126283999</v>
+        <v>24678.63276284</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>284</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2014,34 +2232,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C44" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D44" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E44" t="n">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F44" t="n">
-        <v>755.5749</v>
+        <v>1036.1785</v>
       </c>
       <c r="G44" t="n">
-        <v>11939.97616283999</v>
+        <v>23642.45426284</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>284</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2058,34 +2274,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C45" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D45" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E45" t="n">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="F45" t="n">
-        <v>287.2724</v>
+        <v>1498.5793</v>
       </c>
       <c r="G45" t="n">
-        <v>12227.24856283999</v>
+        <v>25141.03356284</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>285</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2102,34 +2316,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C46" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D46" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E46" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F46" t="n">
-        <v>1004.7018</v>
+        <v>5196.347</v>
       </c>
       <c r="G46" t="n">
-        <v>12227.24856283999</v>
+        <v>30337.38056284</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>286</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2146,34 +2358,32 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C47" t="n">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="D47" t="n">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="E47" t="n">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="F47" t="n">
-        <v>281.2632</v>
+        <v>30558.5331</v>
       </c>
       <c r="G47" t="n">
-        <v>11945.98536283999</v>
+        <v>60895.91366284</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>286</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2190,34 +2400,32 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="C48" t="n">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="D48" t="n">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="E48" t="n">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="F48" t="n">
-        <v>3.9756</v>
+        <v>8970.527899999999</v>
       </c>
       <c r="G48" t="n">
-        <v>11949.96096283999</v>
+        <v>69866.44156284</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>285</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2234,34 +2442,32 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="C49" t="n">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="D49" t="n">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="E49" t="n">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="F49" t="n">
-        <v>1724.804</v>
+        <v>15243.1684</v>
       </c>
       <c r="G49" t="n">
-        <v>10225.15696283999</v>
+        <v>85109.60996284</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>287</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2278,84 +2484,76 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="C50" t="n">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="D50" t="n">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="E50" t="n">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="F50" t="n">
-        <v>2004.8601</v>
+        <v>521.6124</v>
       </c>
       <c r="G50" t="n">
-        <v>10225.15696283999</v>
+        <v>84587.99756284</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>286</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>1.069733096085409</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.003571428571429</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="C51" t="n">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="D51" t="n">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="E51" t="n">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="F51" t="n">
-        <v>1923.601</v>
+        <v>11722.7766</v>
       </c>
       <c r="G51" t="n">
-        <v>8301.555962839993</v>
+        <v>72865.22096284</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>286</v>
-      </c>
-      <c r="K51" t="n">
-        <v>287</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2366,38 +2564,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C52" t="n">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="D52" t="n">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="E52" t="n">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="F52" t="n">
-        <v>146.1479</v>
+        <v>10108.7354</v>
       </c>
       <c r="G52" t="n">
-        <v>8447.703862839993</v>
+        <v>72865.22096284</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>287</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2408,38 +2600,32 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="C53" t="n">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="D53" t="n">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="E53" t="n">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="F53" t="n">
-        <v>13210.9019</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>-4763.198037160008</v>
+        <v>72866.22096284</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>287</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2450,38 +2636,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="C54" t="n">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="D54" t="n">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="E54" t="n">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="F54" t="n">
-        <v>10359.9019</v>
+        <v>9079.5417</v>
       </c>
       <c r="G54" t="n">
-        <v>-4763.198037160008</v>
+        <v>81945.76266284</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>287</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2492,38 +2672,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="C55" t="n">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="D55" t="n">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="E55" t="n">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F55" t="n">
-        <v>733</v>
+        <v>21388.0158</v>
       </c>
       <c r="G55" t="n">
-        <v>-4030.198037160008</v>
+        <v>60557.74686284</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>287</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2534,38 +2708,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C56" t="n">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="D56" t="n">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="E56" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="F56" t="n">
-        <v>11060.0541</v>
+        <v>1887.7551</v>
       </c>
       <c r="G56" t="n">
-        <v>7029.856062839992</v>
+        <v>58669.99176284</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>287</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2576,22 +2744,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C57" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D57" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E57" t="n">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F57" t="n">
-        <v>24739.8894</v>
+        <v>200</v>
       </c>
       <c r="G57" t="n">
-        <v>31769.74546283999</v>
+        <v>58669.99176284</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2600,14 +2768,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>287</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2618,22 +2780,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C58" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D58" t="n">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E58" t="n">
         <v>287</v>
       </c>
       <c r="F58" t="n">
-        <v>4026.7195</v>
+        <v>11343.8513</v>
       </c>
       <c r="G58" t="n">
-        <v>27743.02596283999</v>
+        <v>47326.14046284</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2642,14 +2804,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>287</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2660,22 +2816,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C59" t="n">
         <v>290</v>
       </c>
       <c r="D59" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E59" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F59" t="n">
-        <v>2122.1292</v>
+        <v>19276.5804</v>
       </c>
       <c r="G59" t="n">
-        <v>29865.15516283999</v>
+        <v>47326.14046284</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2684,14 +2840,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>287</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2702,22 +2852,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C60" t="n">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D60" t="n">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E60" t="n">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F60" t="n">
-        <v>154.0195</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>29711.13566284</v>
+        <v>47327.14046284</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2726,14 +2876,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>287</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2744,22 +2888,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>290</v>
+      </c>
+      <c r="C61" t="n">
         <v>288</v>
       </c>
-      <c r="C61" t="n">
-        <v>289</v>
-      </c>
       <c r="D61" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E61" t="n">
         <v>288</v>
       </c>
       <c r="F61" t="n">
-        <v>3.9861</v>
+        <v>975.2862</v>
       </c>
       <c r="G61" t="n">
-        <v>29715.12176283999</v>
+        <v>46351.85426284</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2768,14 +2912,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>287</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2786,22 +2924,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C62" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D62" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E62" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F62" t="n">
-        <v>4586.7998</v>
+        <v>5877.4059</v>
       </c>
       <c r="G62" t="n">
-        <v>29715.12176283999</v>
+        <v>40474.44836284</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2810,14 +2948,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>287</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2828,22 +2960,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C63" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D63" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E63" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F63" t="n">
-        <v>251.44</v>
+        <v>230.5442</v>
       </c>
       <c r="G63" t="n">
-        <v>29966.56176283999</v>
+        <v>40704.99256283999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2852,14 +2984,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>287</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2882,10 +3008,10 @@
         <v>290</v>
       </c>
       <c r="F64" t="n">
-        <v>1072.4641</v>
+        <v>977.8336</v>
       </c>
       <c r="G64" t="n">
-        <v>29966.56176283999</v>
+        <v>41682.82616283999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2894,14 +3020,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>287</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2912,22 +3032,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C65" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D65" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E65" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F65" t="n">
-        <v>3816.2261</v>
+        <v>566</v>
       </c>
       <c r="G65" t="n">
-        <v>26150.33566283999</v>
+        <v>41682.82616283999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2936,14 +3056,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>287</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2960,16 +3074,16 @@
         <v>291</v>
       </c>
       <c r="D66" t="n">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="E66" t="n">
         <v>291</v>
       </c>
       <c r="F66" t="n">
-        <v>1358.1019</v>
+        <v>18722.2053</v>
       </c>
       <c r="G66" t="n">
-        <v>27508.43756283999</v>
+        <v>60405.03146283999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2978,14 +3092,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>287</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2996,22 +3104,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C67" t="n">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D67" t="n">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E67" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F67" t="n">
-        <v>104</v>
+        <v>5205.4016</v>
       </c>
       <c r="G67" t="n">
-        <v>27508.43756283999</v>
+        <v>65610.43306283999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3020,14 +3128,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>287</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3038,40 +3140,34 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C68" t="n">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D68" t="n">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="E68" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F68" t="n">
-        <v>10.5677</v>
+        <v>15560.6376</v>
       </c>
       <c r="G68" t="n">
-        <v>27497.86986283999</v>
+        <v>50049.79546283999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>287</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>1.001968641114983</v>
+        <v>1</v>
       </c>
       <c r="N68" t="inlineStr"/>
     </row>
@@ -3080,22 +3176,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C69" t="n">
         <v>291</v>
       </c>
       <c r="D69" t="n">
+        <v>294</v>
+      </c>
+      <c r="E69" t="n">
         <v>291</v>
       </c>
-      <c r="E69" t="n">
-        <v>286</v>
-      </c>
       <c r="F69" t="n">
-        <v>10094.8945</v>
+        <v>10449.7568</v>
       </c>
       <c r="G69" t="n">
-        <v>37592.76436284</v>
+        <v>39600.03866283999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3116,22 +3212,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C70" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D70" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E70" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F70" t="n">
-        <v>157.8151</v>
+        <v>9915.777</v>
       </c>
       <c r="G70" t="n">
-        <v>37434.94926284</v>
+        <v>39600.03866283999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3155,25 +3251,25 @@
         <v>289</v>
       </c>
       <c r="C71" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D71" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E71" t="n">
         <v>289</v>
       </c>
       <c r="F71" t="n">
-        <v>528.4687</v>
+        <v>1940.5394</v>
       </c>
       <c r="G71" t="n">
-        <v>37963.41796283999</v>
+        <v>39600.03866283999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3188,28 +3284,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C72" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D72" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E72" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F72" t="n">
-        <v>1002.1901</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>36961.22786283999</v>
+        <v>39600.03866283999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3224,22 +3320,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C73" t="n">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D73" t="n">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E73" t="n">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F73" t="n">
-        <v>154.6233</v>
+        <v>1308.5526</v>
       </c>
       <c r="G73" t="n">
-        <v>36961.22786283999</v>
+        <v>40908.59126283999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3260,22 +3356,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C74" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D74" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E74" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F74" t="n">
-        <v>1475.1694</v>
+        <v>1218.1492</v>
       </c>
       <c r="G74" t="n">
-        <v>36961.22786283999</v>
+        <v>39690.44206283999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3296,22 +3392,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C75" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D75" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E75" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F75" t="n">
-        <v>1283.81</v>
+        <v>27.5629</v>
       </c>
       <c r="G75" t="n">
-        <v>38245.03786283999</v>
+        <v>39718.00496283999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3332,22 +3428,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C76" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D76" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E76" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F76" t="n">
-        <v>2690.562</v>
+        <v>3.9795</v>
       </c>
       <c r="G76" t="n">
-        <v>40935.59986283999</v>
+        <v>39721.98446283999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3368,22 +3464,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C77" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D77" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E77" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F77" t="n">
-        <v>4085.0395</v>
+        <v>1056.7191</v>
       </c>
       <c r="G77" t="n">
-        <v>40935.59986283999</v>
+        <v>38665.26536283999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3404,22 +3500,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C78" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D78" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E78" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F78" t="n">
-        <v>1112.5945</v>
+        <v>926.5993999999999</v>
       </c>
       <c r="G78" t="n">
-        <v>42048.19436283999</v>
+        <v>38665.26536283999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3440,7 +3536,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C79" t="n">
         <v>292</v>
@@ -3452,10 +3548,10 @@
         <v>291</v>
       </c>
       <c r="F79" t="n">
-        <v>7447.7349</v>
+        <v>523</v>
       </c>
       <c r="G79" t="n">
-        <v>49495.92926283999</v>
+        <v>38665.26536283999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3479,19 +3575,19 @@
         <v>293</v>
       </c>
       <c r="C80" t="n">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D80" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E80" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F80" t="n">
-        <v>9124.6047</v>
+        <v>4436.1566</v>
       </c>
       <c r="G80" t="n">
-        <v>58620.53396284</v>
+        <v>34229.10876283998</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3512,22 +3608,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C81" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D81" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E81" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F81" t="n">
-        <v>2731.8643</v>
+        <v>1550.1569</v>
       </c>
       <c r="G81" t="n">
-        <v>58620.53396284</v>
+        <v>35779.26566283999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3548,28 +3644,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C82" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D82" t="n">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E82" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F82" t="n">
-        <v>300</v>
+        <v>2154.1976</v>
       </c>
       <c r="G82" t="n">
-        <v>58320.53396284</v>
+        <v>33625.06806283999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3584,28 +3680,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C83" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D83" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E83" t="n">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F83" t="n">
-        <v>692</v>
+        <v>200</v>
       </c>
       <c r="G83" t="n">
-        <v>59012.53396284</v>
+        <v>33825.06806283999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3620,28 +3716,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C84" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D84" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E84" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F84" t="n">
-        <v>3741.1372</v>
+        <v>1177</v>
       </c>
       <c r="G84" t="n">
-        <v>59012.53396284</v>
+        <v>33825.06806283999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3656,28 +3752,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C85" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D85" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E85" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F85" t="n">
-        <v>3990</v>
+        <v>400</v>
       </c>
       <c r="G85" t="n">
-        <v>55022.53396284</v>
+        <v>33425.06806283999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3692,28 +3788,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C86" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D86" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E86" t="n">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F86" t="n">
-        <v>19.8426</v>
+        <v>3299.7156</v>
       </c>
       <c r="G86" t="n">
-        <v>55042.37656284</v>
+        <v>30125.35246283999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3728,28 +3824,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C87" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D87" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E87" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F87" t="n">
-        <v>40</v>
+        <v>1556.4768</v>
       </c>
       <c r="G87" t="n">
-        <v>55042.37656284</v>
+        <v>30125.35246283999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3764,28 +3860,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C88" t="n">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D88" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E88" t="n">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F88" t="n">
-        <v>293.4937</v>
+        <v>699.3404</v>
       </c>
       <c r="G88" t="n">
-        <v>55042.37656284</v>
+        <v>29426.01206283999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3800,28 +3896,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C89" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D89" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E89" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F89" t="n">
-        <v>16399.7904</v>
+        <v>544.2103</v>
       </c>
       <c r="G89" t="n">
-        <v>38642.58616284</v>
+        <v>29970.22236283998</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3836,28 +3932,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C90" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D90" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E90" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F90" t="n">
-        <v>5587.8758</v>
+        <v>4910.628</v>
       </c>
       <c r="G90" t="n">
-        <v>38642.58616284</v>
+        <v>25059.59436283998</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3872,28 +3968,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C91" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D91" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E91" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F91" t="n">
-        <v>3448.2758</v>
+        <v>1153.8768</v>
       </c>
       <c r="G91" t="n">
-        <v>38642.58616284</v>
+        <v>25059.59436283998</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3908,28 +4004,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C92" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D92" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E92" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F92" t="n">
-        <v>953.8847</v>
+        <v>1574.9337</v>
       </c>
       <c r="G92" t="n">
-        <v>37688.70146284</v>
+        <v>23484.66066283998</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3944,28 +4040,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C93" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D93" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E93" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F93" t="n">
-        <v>3.9828</v>
+        <v>12485.5284</v>
       </c>
       <c r="G93" t="n">
-        <v>37692.68426284</v>
+        <v>35970.18906283999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3980,28 +4076,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C94" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D94" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E94" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F94" t="n">
-        <v>1025.1429</v>
+        <v>2483.1089</v>
       </c>
       <c r="G94" t="n">
-        <v>36667.54136284</v>
+        <v>35970.18906283999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4016,28 +4112,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C95" t="n">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D95" t="n">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E95" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F95" t="n">
-        <v>176.3154</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>36843.85676284</v>
+        <v>35970.18906283999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4052,28 +4148,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C96" t="n">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D96" t="n">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E96" t="n">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F96" t="n">
-        <v>32.8515</v>
+        <v>4486.8633</v>
       </c>
       <c r="G96" t="n">
-        <v>36843.85676284</v>
+        <v>35970.18906283999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4088,28 +4184,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C97" t="n">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D97" t="n">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E97" t="n">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F97" t="n">
-        <v>322.981</v>
+        <v>987.0703999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>36520.87576284</v>
+        <v>34983.11866283999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4124,28 +4220,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C98" t="n">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D98" t="n">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E98" t="n">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F98" t="n">
-        <v>1.11</v>
+        <v>157.1332</v>
       </c>
       <c r="G98" t="n">
-        <v>36521.98576284</v>
+        <v>34825.98546283999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4160,28 +4256,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C99" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D99" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E99" t="n">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F99" t="n">
-        <v>314.1699</v>
+        <v>42.8668</v>
       </c>
       <c r="G99" t="n">
-        <v>36207.81586284</v>
+        <v>34825.98546283999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4196,28 +4292,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C100" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D100" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E100" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F100" t="n">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>36207.81586284</v>
+        <v>34826.98546283999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4232,28 +4328,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C101" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D101" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E101" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F101" t="n">
-        <v>8073.0802</v>
+        <v>5028</v>
       </c>
       <c r="G101" t="n">
-        <v>28134.73566284</v>
+        <v>29798.98546283999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4268,28 +4364,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C102" t="n">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D102" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E102" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F102" t="n">
-        <v>550.6</v>
+        <v>15586.1575</v>
       </c>
       <c r="G102" t="n">
-        <v>28134.73566284</v>
+        <v>14212.82796283999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4304,28 +4400,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C103" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D103" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E103" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F103" t="n">
-        <v>798.5999</v>
+        <v>409.3234</v>
       </c>
       <c r="G103" t="n">
-        <v>28134.73566284</v>
+        <v>13803.50456283999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4340,28 +4436,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C104" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D104" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E104" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F104" t="n">
-        <v>2116.2093</v>
+        <v>1290.6626</v>
       </c>
       <c r="G104" t="n">
-        <v>26018.52636284</v>
+        <v>15094.16716283999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4376,28 +4472,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C105" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D105" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E105" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F105" t="n">
-        <v>557</v>
+        <v>1237.153</v>
       </c>
       <c r="G105" t="n">
-        <v>26018.52636284</v>
+        <v>13857.01416283999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4412,22 +4508,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C106" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D106" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E106" t="n">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F106" t="n">
-        <v>1011.8903</v>
+        <v>2567.9951</v>
       </c>
       <c r="G106" t="n">
-        <v>26018.52636284</v>
+        <v>16425.00926283999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4448,22 +4544,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C107" t="n">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D107" t="n">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="E107" t="n">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F107" t="n">
-        <v>3354.6491</v>
+        <v>114</v>
       </c>
       <c r="G107" t="n">
-        <v>29373.17546284</v>
+        <v>16311.00926283999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4484,22 +4580,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C108" t="n">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D108" t="n">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E108" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F108" t="n">
-        <v>3201.2746</v>
+        <v>100</v>
       </c>
       <c r="G108" t="n">
-        <v>26171.90086284</v>
+        <v>16411.00926283999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4520,22 +4616,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C109" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D109" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E109" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F109" t="n">
-        <v>104.3997</v>
+        <v>2397.2647</v>
       </c>
       <c r="G109" t="n">
-        <v>26067.50116284</v>
+        <v>16411.00926283999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4556,22 +4652,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C110" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D110" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E110" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F110" t="n">
-        <v>1999.848</v>
+        <v>237329.2053</v>
       </c>
       <c r="G110" t="n">
-        <v>24067.65316284</v>
+        <v>16411.00926283999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4592,22 +4688,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C111" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D111" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E111" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F111" t="n">
-        <v>4900.7607</v>
+        <v>258904.5876</v>
       </c>
       <c r="G111" t="n">
-        <v>19166.89246284</v>
+        <v>16411.00926283999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4628,22 +4724,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C112" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D112" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E112" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F112" t="n">
-        <v>1174.1672</v>
+        <v>5226.608</v>
       </c>
       <c r="G112" t="n">
-        <v>20341.05966284</v>
+        <v>11184.40126283999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4664,22 +4760,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C113" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D113" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E113" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F113" t="n">
-        <v>5944.4851</v>
+        <v>292172.1639</v>
       </c>
       <c r="G113" t="n">
-        <v>14396.57456284</v>
+        <v>11184.40126283999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4700,22 +4796,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C114" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D114" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E114" t="n">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F114" t="n">
-        <v>149.7543</v>
+        <v>843595.6845</v>
       </c>
       <c r="G114" t="n">
-        <v>14546.32886284</v>
+        <v>11184.40126283999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4736,22 +4832,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C115" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D115" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E115" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F115" t="n">
-        <v>149.7</v>
+        <v>755.5749</v>
       </c>
       <c r="G115" t="n">
-        <v>14396.62886284</v>
+        <v>11939.97616283999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4772,22 +4868,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C116" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D116" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E116" t="n">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F116" t="n">
-        <v>149.7155</v>
+        <v>287.2724</v>
       </c>
       <c r="G116" t="n">
-        <v>14396.62886284</v>
+        <v>12227.24856283999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4808,22 +4904,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C117" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D117" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E117" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F117" t="n">
-        <v>139.4</v>
+        <v>1004.7018</v>
       </c>
       <c r="G117" t="n">
-        <v>14396.62886284</v>
+        <v>12227.24856283999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4844,22 +4940,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C118" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D118" t="n">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E118" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F118" t="n">
-        <v>4967.3</v>
+        <v>281.2632</v>
       </c>
       <c r="G118" t="n">
-        <v>9429.328862839997</v>
+        <v>11945.98536283999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4880,22 +4976,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C119" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D119" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E119" t="n">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>3.9756</v>
       </c>
       <c r="G119" t="n">
-        <v>9430.328862839997</v>
+        <v>11949.96096283999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4916,22 +5012,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>287</v>
+      </c>
+      <c r="C120" t="n">
         <v>286</v>
       </c>
-      <c r="C120" t="n">
-        <v>288</v>
-      </c>
       <c r="D120" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E120" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F120" t="n">
-        <v>1305.2968</v>
+        <v>1724.804</v>
       </c>
       <c r="G120" t="n">
-        <v>8125.032062839997</v>
+        <v>10225.15696283999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4952,22 +5048,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C121" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D121" t="n">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E121" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F121" t="n">
-        <v>1760.821</v>
+        <v>2004.8601</v>
       </c>
       <c r="G121" t="n">
-        <v>8125.032062839997</v>
+        <v>10225.15696283999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4988,22 +5084,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C122" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D122" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E122" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F122" t="n">
-        <v>1060.1034</v>
+        <v>1923.601</v>
       </c>
       <c r="G122" t="n">
-        <v>9185.135462839997</v>
+        <v>8301.555962839993</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5024,22 +5120,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C123" t="n">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D123" t="n">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E123" t="n">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F123" t="n">
-        <v>1578.8034</v>
+        <v>146.1479</v>
       </c>
       <c r="G123" t="n">
-        <v>10763.93886284</v>
+        <v>8447.703862839993</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5060,22 +5156,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C124" t="n">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D124" t="n">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E124" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F124" t="n">
-        <v>354.5592</v>
+        <v>13210.9019</v>
       </c>
       <c r="G124" t="n">
-        <v>11118.49806284</v>
+        <v>-4763.198037160008</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5096,22 +5192,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C125" t="n">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D125" t="n">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E125" t="n">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F125" t="n">
-        <v>874.6652</v>
+        <v>10359.9019</v>
       </c>
       <c r="G125" t="n">
-        <v>11993.16326284</v>
+        <v>-4763.198037160008</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5132,22 +5228,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C126" t="n">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D126" t="n">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E126" t="n">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="F126" t="n">
-        <v>860.2922</v>
+        <v>733</v>
       </c>
       <c r="G126" t="n">
-        <v>11132.87106284</v>
+        <v>-4030.198037160008</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5168,22 +5264,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C127" t="n">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D127" t="n">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E127" t="n">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F127" t="n">
-        <v>210.4088</v>
+        <v>11060.0541</v>
       </c>
       <c r="G127" t="n">
-        <v>11132.87106284</v>
+        <v>7029.856062839992</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5199,6 +5295,2562 @@
       </c>
       <c r="N127" t="inlineStr"/>
     </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>287</v>
+      </c>
+      <c r="C128" t="n">
+        <v>289</v>
+      </c>
+      <c r="D128" t="n">
+        <v>290</v>
+      </c>
+      <c r="E128" t="n">
+        <v>287</v>
+      </c>
+      <c r="F128" t="n">
+        <v>24739.8894</v>
+      </c>
+      <c r="G128" t="n">
+        <v>31769.74546283999</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>288</v>
+      </c>
+      <c r="C129" t="n">
+        <v>287</v>
+      </c>
+      <c r="D129" t="n">
+        <v>288</v>
+      </c>
+      <c r="E129" t="n">
+        <v>287</v>
+      </c>
+      <c r="F129" t="n">
+        <v>4026.7195</v>
+      </c>
+      <c r="G129" t="n">
+        <v>27743.02596283999</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>289</v>
+      </c>
+      <c r="C130" t="n">
+        <v>290</v>
+      </c>
+      <c r="D130" t="n">
+        <v>290</v>
+      </c>
+      <c r="E130" t="n">
+        <v>289</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2122.1292</v>
+      </c>
+      <c r="G130" t="n">
+        <v>29865.15516283999</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>287</v>
+      </c>
+      <c r="C131" t="n">
+        <v>287</v>
+      </c>
+      <c r="D131" t="n">
+        <v>287</v>
+      </c>
+      <c r="E131" t="n">
+        <v>287</v>
+      </c>
+      <c r="F131" t="n">
+        <v>154.0195</v>
+      </c>
+      <c r="G131" t="n">
+        <v>29711.13566284</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>288</v>
+      </c>
+      <c r="C132" t="n">
+        <v>289</v>
+      </c>
+      <c r="D132" t="n">
+        <v>289</v>
+      </c>
+      <c r="E132" t="n">
+        <v>288</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3.9861</v>
+      </c>
+      <c r="G132" t="n">
+        <v>29715.12176283999</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>289</v>
+      </c>
+      <c r="C133" t="n">
+        <v>289</v>
+      </c>
+      <c r="D133" t="n">
+        <v>289</v>
+      </c>
+      <c r="E133" t="n">
+        <v>289</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4586.7998</v>
+      </c>
+      <c r="G133" t="n">
+        <v>29715.12176283999</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>290</v>
+      </c>
+      <c r="C134" t="n">
+        <v>290</v>
+      </c>
+      <c r="D134" t="n">
+        <v>291</v>
+      </c>
+      <c r="E134" t="n">
+        <v>290</v>
+      </c>
+      <c r="F134" t="n">
+        <v>251.44</v>
+      </c>
+      <c r="G134" t="n">
+        <v>29966.56176283999</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>290</v>
+      </c>
+      <c r="C135" t="n">
+        <v>290</v>
+      </c>
+      <c r="D135" t="n">
+        <v>290</v>
+      </c>
+      <c r="E135" t="n">
+        <v>290</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1072.4641</v>
+      </c>
+      <c r="G135" t="n">
+        <v>29966.56176283999</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>289</v>
+      </c>
+      <c r="C136" t="n">
+        <v>289</v>
+      </c>
+      <c r="D136" t="n">
+        <v>289</v>
+      </c>
+      <c r="E136" t="n">
+        <v>289</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3816.2261</v>
+      </c>
+      <c r="G136" t="n">
+        <v>26150.33566283999</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>291</v>
+      </c>
+      <c r="C137" t="n">
+        <v>291</v>
+      </c>
+      <c r="D137" t="n">
+        <v>291</v>
+      </c>
+      <c r="E137" t="n">
+        <v>291</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1358.1019</v>
+      </c>
+      <c r="G137" t="n">
+        <v>27508.43756283999</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>292</v>
+      </c>
+      <c r="C138" t="n">
+        <v>291</v>
+      </c>
+      <c r="D138" t="n">
+        <v>292</v>
+      </c>
+      <c r="E138" t="n">
+        <v>291</v>
+      </c>
+      <c r="F138" t="n">
+        <v>104</v>
+      </c>
+      <c r="G138" t="n">
+        <v>27508.43756283999</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>289</v>
+      </c>
+      <c r="C139" t="n">
+        <v>289</v>
+      </c>
+      <c r="D139" t="n">
+        <v>289</v>
+      </c>
+      <c r="E139" t="n">
+        <v>289</v>
+      </c>
+      <c r="F139" t="n">
+        <v>10.5677</v>
+      </c>
+      <c r="G139" t="n">
+        <v>27497.86986283999</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>288</v>
+      </c>
+      <c r="C140" t="n">
+        <v>291</v>
+      </c>
+      <c r="D140" t="n">
+        <v>291</v>
+      </c>
+      <c r="E140" t="n">
+        <v>286</v>
+      </c>
+      <c r="F140" t="n">
+        <v>10094.8945</v>
+      </c>
+      <c r="G140" t="n">
+        <v>37592.76436284</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>287</v>
+      </c>
+      <c r="C141" t="n">
+        <v>287</v>
+      </c>
+      <c r="D141" t="n">
+        <v>287</v>
+      </c>
+      <c r="E141" t="n">
+        <v>287</v>
+      </c>
+      <c r="F141" t="n">
+        <v>157.8151</v>
+      </c>
+      <c r="G141" t="n">
+        <v>37434.94926284</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>289</v>
+      </c>
+      <c r="C142" t="n">
+        <v>289</v>
+      </c>
+      <c r="D142" t="n">
+        <v>289</v>
+      </c>
+      <c r="E142" t="n">
+        <v>289</v>
+      </c>
+      <c r="F142" t="n">
+        <v>528.4687</v>
+      </c>
+      <c r="G142" t="n">
+        <v>37963.41796283999</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>287</v>
+      </c>
+      <c r="C143" t="n">
+        <v>287</v>
+      </c>
+      <c r="D143" t="n">
+        <v>287</v>
+      </c>
+      <c r="E143" t="n">
+        <v>287</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1002.1901</v>
+      </c>
+      <c r="G143" t="n">
+        <v>36961.22786283999</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>287</v>
+      </c>
+      <c r="C144" t="n">
+        <v>287</v>
+      </c>
+      <c r="D144" t="n">
+        <v>287</v>
+      </c>
+      <c r="E144" t="n">
+        <v>287</v>
+      </c>
+      <c r="F144" t="n">
+        <v>154.6233</v>
+      </c>
+      <c r="G144" t="n">
+        <v>36961.22786283999</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>288</v>
+      </c>
+      <c r="C145" t="n">
+        <v>287</v>
+      </c>
+      <c r="D145" t="n">
+        <v>288</v>
+      </c>
+      <c r="E145" t="n">
+        <v>287</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1475.1694</v>
+      </c>
+      <c r="G145" t="n">
+        <v>36961.22786283999</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>288</v>
+      </c>
+      <c r="C146" t="n">
+        <v>288</v>
+      </c>
+      <c r="D146" t="n">
+        <v>288</v>
+      </c>
+      <c r="E146" t="n">
+        <v>288</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1283.81</v>
+      </c>
+      <c r="G146" t="n">
+        <v>38245.03786283999</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>289</v>
+      </c>
+      <c r="C147" t="n">
+        <v>290</v>
+      </c>
+      <c r="D147" t="n">
+        <v>290</v>
+      </c>
+      <c r="E147" t="n">
+        <v>289</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2690.562</v>
+      </c>
+      <c r="G147" t="n">
+        <v>40935.59986283999</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>290</v>
+      </c>
+      <c r="C148" t="n">
+        <v>290</v>
+      </c>
+      <c r="D148" t="n">
+        <v>290</v>
+      </c>
+      <c r="E148" t="n">
+        <v>290</v>
+      </c>
+      <c r="F148" t="n">
+        <v>4085.0395</v>
+      </c>
+      <c r="G148" t="n">
+        <v>40935.59986283999</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>290</v>
+      </c>
+      <c r="C149" t="n">
+        <v>291</v>
+      </c>
+      <c r="D149" t="n">
+        <v>291</v>
+      </c>
+      <c r="E149" t="n">
+        <v>290</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1112.5945</v>
+      </c>
+      <c r="G149" t="n">
+        <v>42048.19436283999</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>291</v>
+      </c>
+      <c r="C150" t="n">
+        <v>292</v>
+      </c>
+      <c r="D150" t="n">
+        <v>292</v>
+      </c>
+      <c r="E150" t="n">
+        <v>291</v>
+      </c>
+      <c r="F150" t="n">
+        <v>7447.7349</v>
+      </c>
+      <c r="G150" t="n">
+        <v>49495.92926283999</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>293</v>
+      </c>
+      <c r="C151" t="n">
+        <v>294</v>
+      </c>
+      <c r="D151" t="n">
+        <v>294</v>
+      </c>
+      <c r="E151" t="n">
+        <v>292</v>
+      </c>
+      <c r="F151" t="n">
+        <v>9124.6047</v>
+      </c>
+      <c r="G151" t="n">
+        <v>58620.53396284</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>294</v>
+      </c>
+      <c r="C152" t="n">
+        <v>294</v>
+      </c>
+      <c r="D152" t="n">
+        <v>294</v>
+      </c>
+      <c r="E152" t="n">
+        <v>292</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2731.8643</v>
+      </c>
+      <c r="G152" t="n">
+        <v>58620.53396284</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>294</v>
+      </c>
+      <c r="C153" t="n">
+        <v>293</v>
+      </c>
+      <c r="D153" t="n">
+        <v>294</v>
+      </c>
+      <c r="E153" t="n">
+        <v>293</v>
+      </c>
+      <c r="F153" t="n">
+        <v>300</v>
+      </c>
+      <c r="G153" t="n">
+        <v>58320.53396284</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>295</v>
+      </c>
+      <c r="C154" t="n">
+        <v>295</v>
+      </c>
+      <c r="D154" t="n">
+        <v>295</v>
+      </c>
+      <c r="E154" t="n">
+        <v>295</v>
+      </c>
+      <c r="F154" t="n">
+        <v>692</v>
+      </c>
+      <c r="G154" t="n">
+        <v>59012.53396284</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>295</v>
+      </c>
+      <c r="C155" t="n">
+        <v>295</v>
+      </c>
+      <c r="D155" t="n">
+        <v>295</v>
+      </c>
+      <c r="E155" t="n">
+        <v>295</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3741.1372</v>
+      </c>
+      <c r="G155" t="n">
+        <v>59012.53396284</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>293</v>
+      </c>
+      <c r="C156" t="n">
+        <v>292</v>
+      </c>
+      <c r="D156" t="n">
+        <v>293</v>
+      </c>
+      <c r="E156" t="n">
+        <v>292</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3990</v>
+      </c>
+      <c r="G156" t="n">
+        <v>55022.53396284</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>293</v>
+      </c>
+      <c r="C157" t="n">
+        <v>293</v>
+      </c>
+      <c r="D157" t="n">
+        <v>293</v>
+      </c>
+      <c r="E157" t="n">
+        <v>293</v>
+      </c>
+      <c r="F157" t="n">
+        <v>19.8426</v>
+      </c>
+      <c r="G157" t="n">
+        <v>55042.37656284</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>293</v>
+      </c>
+      <c r="C158" t="n">
+        <v>293</v>
+      </c>
+      <c r="D158" t="n">
+        <v>293</v>
+      </c>
+      <c r="E158" t="n">
+        <v>293</v>
+      </c>
+      <c r="F158" t="n">
+        <v>40</v>
+      </c>
+      <c r="G158" t="n">
+        <v>55042.37656284</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>293</v>
+      </c>
+      <c r="C159" t="n">
+        <v>293</v>
+      </c>
+      <c r="D159" t="n">
+        <v>293</v>
+      </c>
+      <c r="E159" t="n">
+        <v>293</v>
+      </c>
+      <c r="F159" t="n">
+        <v>293.4937</v>
+      </c>
+      <c r="G159" t="n">
+        <v>55042.37656284</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>293</v>
+      </c>
+      <c r="C160" t="n">
+        <v>291</v>
+      </c>
+      <c r="D160" t="n">
+        <v>293</v>
+      </c>
+      <c r="E160" t="n">
+        <v>291</v>
+      </c>
+      <c r="F160" t="n">
+        <v>16399.7904</v>
+      </c>
+      <c r="G160" t="n">
+        <v>38642.58616284</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>291</v>
+      </c>
+      <c r="C161" t="n">
+        <v>291</v>
+      </c>
+      <c r="D161" t="n">
+        <v>291</v>
+      </c>
+      <c r="E161" t="n">
+        <v>291</v>
+      </c>
+      <c r="F161" t="n">
+        <v>5587.8758</v>
+      </c>
+      <c r="G161" t="n">
+        <v>38642.58616284</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>291</v>
+      </c>
+      <c r="C162" t="n">
+        <v>291</v>
+      </c>
+      <c r="D162" t="n">
+        <v>291</v>
+      </c>
+      <c r="E162" t="n">
+        <v>291</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3448.2758</v>
+      </c>
+      <c r="G162" t="n">
+        <v>38642.58616284</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>290</v>
+      </c>
+      <c r="C163" t="n">
+        <v>290</v>
+      </c>
+      <c r="D163" t="n">
+        <v>290</v>
+      </c>
+      <c r="E163" t="n">
+        <v>290</v>
+      </c>
+      <c r="F163" t="n">
+        <v>953.8847</v>
+      </c>
+      <c r="G163" t="n">
+        <v>37688.70146284</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>290</v>
+      </c>
+      <c r="C164" t="n">
+        <v>292</v>
+      </c>
+      <c r="D164" t="n">
+        <v>292</v>
+      </c>
+      <c r="E164" t="n">
+        <v>290</v>
+      </c>
+      <c r="F164" t="n">
+        <v>3.9828</v>
+      </c>
+      <c r="G164" t="n">
+        <v>37692.68426284</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>292</v>
+      </c>
+      <c r="C165" t="n">
+        <v>291</v>
+      </c>
+      <c r="D165" t="n">
+        <v>292</v>
+      </c>
+      <c r="E165" t="n">
+        <v>291</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1025.1429</v>
+      </c>
+      <c r="G165" t="n">
+        <v>36667.54136284</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>292</v>
+      </c>
+      <c r="C166" t="n">
+        <v>293</v>
+      </c>
+      <c r="D166" t="n">
+        <v>293</v>
+      </c>
+      <c r="E166" t="n">
+        <v>292</v>
+      </c>
+      <c r="F166" t="n">
+        <v>176.3154</v>
+      </c>
+      <c r="G166" t="n">
+        <v>36843.85676284</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>293</v>
+      </c>
+      <c r="C167" t="n">
+        <v>293</v>
+      </c>
+      <c r="D167" t="n">
+        <v>293</v>
+      </c>
+      <c r="E167" t="n">
+        <v>293</v>
+      </c>
+      <c r="F167" t="n">
+        <v>32.8515</v>
+      </c>
+      <c r="G167" t="n">
+        <v>36843.85676284</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>292</v>
+      </c>
+      <c r="C168" t="n">
+        <v>292</v>
+      </c>
+      <c r="D168" t="n">
+        <v>292</v>
+      </c>
+      <c r="E168" t="n">
+        <v>292</v>
+      </c>
+      <c r="F168" t="n">
+        <v>322.981</v>
+      </c>
+      <c r="G168" t="n">
+        <v>36520.87576284</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>294</v>
+      </c>
+      <c r="C169" t="n">
+        <v>294</v>
+      </c>
+      <c r="D169" t="n">
+        <v>294</v>
+      </c>
+      <c r="E169" t="n">
+        <v>294</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G169" t="n">
+        <v>36521.98576284</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>291</v>
+      </c>
+      <c r="C170" t="n">
+        <v>291</v>
+      </c>
+      <c r="D170" t="n">
+        <v>291</v>
+      </c>
+      <c r="E170" t="n">
+        <v>291</v>
+      </c>
+      <c r="F170" t="n">
+        <v>314.1699</v>
+      </c>
+      <c r="G170" t="n">
+        <v>36207.81586284</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>291</v>
+      </c>
+      <c r="C171" t="n">
+        <v>291</v>
+      </c>
+      <c r="D171" t="n">
+        <v>291</v>
+      </c>
+      <c r="E171" t="n">
+        <v>291</v>
+      </c>
+      <c r="F171" t="n">
+        <v>114</v>
+      </c>
+      <c r="G171" t="n">
+        <v>36207.81586284</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>291</v>
+      </c>
+      <c r="C172" t="n">
+        <v>289</v>
+      </c>
+      <c r="D172" t="n">
+        <v>291</v>
+      </c>
+      <c r="E172" t="n">
+        <v>289</v>
+      </c>
+      <c r="F172" t="n">
+        <v>8073.0802</v>
+      </c>
+      <c r="G172" t="n">
+        <v>28134.73566284</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>289</v>
+      </c>
+      <c r="C173" t="n">
+        <v>289</v>
+      </c>
+      <c r="D173" t="n">
+        <v>289</v>
+      </c>
+      <c r="E173" t="n">
+        <v>289</v>
+      </c>
+      <c r="F173" t="n">
+        <v>550.6</v>
+      </c>
+      <c r="G173" t="n">
+        <v>28134.73566284</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>289</v>
+      </c>
+      <c r="C174" t="n">
+        <v>289</v>
+      </c>
+      <c r="D174" t="n">
+        <v>289</v>
+      </c>
+      <c r="E174" t="n">
+        <v>289</v>
+      </c>
+      <c r="F174" t="n">
+        <v>798.5999</v>
+      </c>
+      <c r="G174" t="n">
+        <v>28134.73566284</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>289</v>
+      </c>
+      <c r="C175" t="n">
+        <v>288</v>
+      </c>
+      <c r="D175" t="n">
+        <v>289</v>
+      </c>
+      <c r="E175" t="n">
+        <v>288</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2116.2093</v>
+      </c>
+      <c r="G175" t="n">
+        <v>26018.52636284</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>288</v>
+      </c>
+      <c r="C176" t="n">
+        <v>288</v>
+      </c>
+      <c r="D176" t="n">
+        <v>288</v>
+      </c>
+      <c r="E176" t="n">
+        <v>288</v>
+      </c>
+      <c r="F176" t="n">
+        <v>557</v>
+      </c>
+      <c r="G176" t="n">
+        <v>26018.52636284</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>288</v>
+      </c>
+      <c r="C177" t="n">
+        <v>288</v>
+      </c>
+      <c r="D177" t="n">
+        <v>288</v>
+      </c>
+      <c r="E177" t="n">
+        <v>288</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1011.8903</v>
+      </c>
+      <c r="G177" t="n">
+        <v>26018.52636284</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>288</v>
+      </c>
+      <c r="C178" t="n">
+        <v>293</v>
+      </c>
+      <c r="D178" t="n">
+        <v>293</v>
+      </c>
+      <c r="E178" t="n">
+        <v>288</v>
+      </c>
+      <c r="F178" t="n">
+        <v>3354.6491</v>
+      </c>
+      <c r="G178" t="n">
+        <v>29373.17546284</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>293</v>
+      </c>
+      <c r="C179" t="n">
+        <v>291</v>
+      </c>
+      <c r="D179" t="n">
+        <v>293</v>
+      </c>
+      <c r="E179" t="n">
+        <v>289</v>
+      </c>
+      <c r="F179" t="n">
+        <v>3201.2746</v>
+      </c>
+      <c r="G179" t="n">
+        <v>26171.90086284</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>290</v>
+      </c>
+      <c r="C180" t="n">
+        <v>290</v>
+      </c>
+      <c r="D180" t="n">
+        <v>290</v>
+      </c>
+      <c r="E180" t="n">
+        <v>290</v>
+      </c>
+      <c r="F180" t="n">
+        <v>104.3997</v>
+      </c>
+      <c r="G180" t="n">
+        <v>26067.50116284</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>289</v>
+      </c>
+      <c r="C181" t="n">
+        <v>288</v>
+      </c>
+      <c r="D181" t="n">
+        <v>289</v>
+      </c>
+      <c r="E181" t="n">
+        <v>288</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1999.848</v>
+      </c>
+      <c r="G181" t="n">
+        <v>24067.65316284</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>288</v>
+      </c>
+      <c r="C182" t="n">
+        <v>287</v>
+      </c>
+      <c r="D182" t="n">
+        <v>288</v>
+      </c>
+      <c r="E182" t="n">
+        <v>287</v>
+      </c>
+      <c r="F182" t="n">
+        <v>4900.7607</v>
+      </c>
+      <c r="G182" t="n">
+        <v>19166.89246284</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>290</v>
+      </c>
+      <c r="C183" t="n">
+        <v>288</v>
+      </c>
+      <c r="D183" t="n">
+        <v>290</v>
+      </c>
+      <c r="E183" t="n">
+        <v>288</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1174.1672</v>
+      </c>
+      <c r="G183" t="n">
+        <v>20341.05966284</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>288</v>
+      </c>
+      <c r="C184" t="n">
+        <v>286</v>
+      </c>
+      <c r="D184" t="n">
+        <v>288</v>
+      </c>
+      <c r="E184" t="n">
+        <v>286</v>
+      </c>
+      <c r="F184" t="n">
+        <v>5944.4851</v>
+      </c>
+      <c r="G184" t="n">
+        <v>14396.57456284</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>289</v>
+      </c>
+      <c r="C185" t="n">
+        <v>289</v>
+      </c>
+      <c r="D185" t="n">
+        <v>289</v>
+      </c>
+      <c r="E185" t="n">
+        <v>289</v>
+      </c>
+      <c r="F185" t="n">
+        <v>149.7543</v>
+      </c>
+      <c r="G185" t="n">
+        <v>14546.32886284</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>289</v>
+      </c>
+      <c r="C186" t="n">
+        <v>288</v>
+      </c>
+      <c r="D186" t="n">
+        <v>289</v>
+      </c>
+      <c r="E186" t="n">
+        <v>288</v>
+      </c>
+      <c r="F186" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="G186" t="n">
+        <v>14396.62886284</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>288</v>
+      </c>
+      <c r="C187" t="n">
+        <v>288</v>
+      </c>
+      <c r="D187" t="n">
+        <v>288</v>
+      </c>
+      <c r="E187" t="n">
+        <v>288</v>
+      </c>
+      <c r="F187" t="n">
+        <v>149.7155</v>
+      </c>
+      <c r="G187" t="n">
+        <v>14396.62886284</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>288</v>
+      </c>
+      <c r="C188" t="n">
+        <v>288</v>
+      </c>
+      <c r="D188" t="n">
+        <v>288</v>
+      </c>
+      <c r="E188" t="n">
+        <v>288</v>
+      </c>
+      <c r="F188" t="n">
+        <v>139.4</v>
+      </c>
+      <c r="G188" t="n">
+        <v>14396.62886284</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>287</v>
+      </c>
+      <c r="C189" t="n">
+        <v>284</v>
+      </c>
+      <c r="D189" t="n">
+        <v>287</v>
+      </c>
+      <c r="E189" t="n">
+        <v>284</v>
+      </c>
+      <c r="F189" t="n">
+        <v>4967.3</v>
+      </c>
+      <c r="G189" t="n">
+        <v>9429.328862839997</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>290</v>
+      </c>
+      <c r="C190" t="n">
+        <v>290</v>
+      </c>
+      <c r="D190" t="n">
+        <v>290</v>
+      </c>
+      <c r="E190" t="n">
+        <v>290</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1</v>
+      </c>
+      <c r="G190" t="n">
+        <v>9430.328862839997</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>286</v>
+      </c>
+      <c r="C191" t="n">
+        <v>288</v>
+      </c>
+      <c r="D191" t="n">
+        <v>288</v>
+      </c>
+      <c r="E191" t="n">
+        <v>286</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1305.2968</v>
+      </c>
+      <c r="G191" t="n">
+        <v>8125.032062839997</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>288</v>
+      </c>
+      <c r="C192" t="n">
+        <v>288</v>
+      </c>
+      <c r="D192" t="n">
+        <v>289</v>
+      </c>
+      <c r="E192" t="n">
+        <v>287</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1760.821</v>
+      </c>
+      <c r="G192" t="n">
+        <v>8125.032062839997</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>290</v>
+      </c>
+      <c r="C193" t="n">
+        <v>289</v>
+      </c>
+      <c r="D193" t="n">
+        <v>290</v>
+      </c>
+      <c r="E193" t="n">
+        <v>289</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1060.1034</v>
+      </c>
+      <c r="G193" t="n">
+        <v>9185.135462839997</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>290</v>
+      </c>
+      <c r="C194" t="n">
+        <v>290</v>
+      </c>
+      <c r="D194" t="n">
+        <v>290</v>
+      </c>
+      <c r="E194" t="n">
+        <v>290</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1578.8034</v>
+      </c>
+      <c r="G194" t="n">
+        <v>10763.93886284</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>290</v>
+      </c>
+      <c r="C195" t="n">
+        <v>292</v>
+      </c>
+      <c r="D195" t="n">
+        <v>292</v>
+      </c>
+      <c r="E195" t="n">
+        <v>290</v>
+      </c>
+      <c r="F195" t="n">
+        <v>354.5592</v>
+      </c>
+      <c r="G195" t="n">
+        <v>11118.49806284</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>292</v>
+      </c>
+      <c r="C196" t="n">
+        <v>293</v>
+      </c>
+      <c r="D196" t="n">
+        <v>293</v>
+      </c>
+      <c r="E196" t="n">
+        <v>292</v>
+      </c>
+      <c r="F196" t="n">
+        <v>874.6652</v>
+      </c>
+      <c r="G196" t="n">
+        <v>11993.16326284</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>293</v>
+      </c>
+      <c r="C197" t="n">
+        <v>292</v>
+      </c>
+      <c r="D197" t="n">
+        <v>293</v>
+      </c>
+      <c r="E197" t="n">
+        <v>292</v>
+      </c>
+      <c r="F197" t="n">
+        <v>860.2922</v>
+      </c>
+      <c r="G197" t="n">
+        <v>11132.87106284</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>292</v>
+      </c>
+      <c r="C198" t="n">
+        <v>292</v>
+      </c>
+      <c r="D198" t="n">
+        <v>292</v>
+      </c>
+      <c r="E198" t="n">
+        <v>292</v>
+      </c>
+      <c r="F198" t="n">
+        <v>210.4088</v>
+      </c>
+      <c r="G198" t="n">
+        <v>11132.87106284</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-02 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-02 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N198"/>
+  <dimension ref="A1:M198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-6040.106837159999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-15542.20873716</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="J3" t="n">
         <v>281</v>
       </c>
-      <c r="K3" t="n">
-        <v>281</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>-7029.94013716</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="J4" t="n">
-        <v>280</v>
-      </c>
-      <c r="K4" t="n">
-        <v>281</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>281</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>-7029.94013716</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="J5" t="n">
-        <v>284</v>
-      </c>
-      <c r="K5" t="n">
-        <v>281</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>281</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +603,21 @@
         <v>-9467.82123716</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>284</v>
-      </c>
-      <c r="K6" t="n">
-        <v>281</v>
-      </c>
-      <c r="L6" t="inlineStr">
+        <v>281</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -666,22 +644,19 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>281</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>281</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -708,22 +683,19 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>281</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>281</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -750,22 +722,19 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>281</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>281</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -792,22 +761,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>281</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>281</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -832,24 +798,23 @@
         <v>-9863.635437159999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>281</v>
-      </c>
-      <c r="L11" t="inlineStr">
+        <v>279</v>
+      </c>
+      <c r="J11" t="n">
+        <v>281</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -876,22 +841,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>281</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>281</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -916,26 +878,23 @@
         <v>-7282.591437159999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="J13" t="n">
-        <v>278</v>
-      </c>
-      <c r="K13" t="n">
-        <v>281</v>
-      </c>
-      <c r="L13" t="inlineStr">
+        <v>281</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -962,22 +921,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>281</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>281</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1004,22 +960,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>281</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>281</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1044,26 +997,21 @@
         <v>-7128.591537159999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>279</v>
-      </c>
-      <c r="K16" t="n">
-        <v>281</v>
-      </c>
-      <c r="L16" t="inlineStr">
+        <v>281</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1090,22 +1038,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>281</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>281</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1130,26 +1075,23 @@
         <v>-5175.163737159999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="J18" t="n">
         <v>281</v>
       </c>
-      <c r="K18" t="n">
-        <v>281</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1174,26 +1116,21 @@
         <v>-5099.163737159999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>280</v>
-      </c>
-      <c r="K19" t="n">
-        <v>281</v>
-      </c>
-      <c r="L19" t="inlineStr">
+        <v>281</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1218,26 +1155,23 @@
         <v>-5264.657437159999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="J20" t="n">
-        <v>282</v>
-      </c>
-      <c r="K20" t="n">
-        <v>281</v>
-      </c>
-      <c r="L20" t="inlineStr">
+        <v>281</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1262,26 +1196,21 @@
         <v>-4018.430537159999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>281</v>
       </c>
-      <c r="K21" t="n">
-        <v>281</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1306,26 +1235,23 @@
         <v>-6299.13403716</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="J22" t="n">
-        <v>282</v>
-      </c>
-      <c r="K22" t="n">
-        <v>281</v>
-      </c>
-      <c r="L22" t="inlineStr">
+        <v>281</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1350,26 +1276,23 @@
         <v>-22075.86283716</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="J23" t="n">
-        <v>280</v>
-      </c>
-      <c r="K23" t="n">
-        <v>281</v>
-      </c>
-      <c r="L23" t="inlineStr">
+        <v>281</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1394,26 +1317,23 @@
         <v>-21997.95833716</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="J24" t="n">
-        <v>277</v>
-      </c>
-      <c r="K24" t="n">
-        <v>281</v>
-      </c>
-      <c r="L24" t="inlineStr">
+        <v>281</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1438,26 +1358,21 @@
         <v>-22155.88253716</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>283</v>
-      </c>
-      <c r="K25" t="n">
-        <v>281</v>
-      </c>
-      <c r="L25" t="inlineStr">
+        <v>281</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1482,26 +1397,23 @@
         <v>-29065.33923716</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="J26" t="n">
         <v>281</v>
       </c>
-      <c r="K26" t="n">
-        <v>281</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1526,26 +1438,23 @@
         <v>-17202.03643716</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="J27" t="n">
-        <v>276</v>
-      </c>
-      <c r="K27" t="n">
-        <v>281</v>
-      </c>
-      <c r="L27" t="inlineStr">
+        <v>281</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1570,26 +1479,23 @@
         <v>-1630.55763716</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="J28" t="n">
-        <v>278</v>
-      </c>
-      <c r="K28" t="n">
-        <v>281</v>
-      </c>
-      <c r="L28" t="inlineStr">
+        <v>281</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1614,26 +1520,23 @@
         <v>2605.76526284</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="J29" t="n">
-        <v>280</v>
-      </c>
-      <c r="K29" t="n">
-        <v>281</v>
-      </c>
-      <c r="L29" t="inlineStr">
+        <v>281</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1658,26 +1561,23 @@
         <v>2605.76526284</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="J30" t="n">
         <v>281</v>
       </c>
-      <c r="K30" t="n">
-        <v>281</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1702,26 +1602,23 @@
         <v>18325.45126284</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="J31" t="n">
         <v>281</v>
       </c>
-      <c r="K31" t="n">
-        <v>281</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1748,22 +1645,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>281</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>281</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1790,22 +1684,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>281</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>281</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1832,22 +1723,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>281</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>281</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1874,22 +1762,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>281</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>281</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1916,22 +1801,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>281</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>281</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1958,22 +1840,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>281</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>281</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2000,22 +1879,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>281</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>281</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2042,22 +1918,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>281</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>281</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2084,22 +1957,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>281</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>281</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2126,22 +1996,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>281</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>281</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2168,22 +2035,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>281</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>281</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2210,22 +2074,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>281</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>281</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2252,22 +2113,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>281</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>281</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2294,22 +2152,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>281</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>281</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2336,22 +2191,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>281</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>281</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2378,22 +2230,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>281</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>281</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2420,22 +2269,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>281</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>281</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2460,24 +2306,23 @@
         <v>85109.60996284</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>281</v>
-      </c>
-      <c r="L49" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>281</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
+      <c r="L49" t="n">
+        <v>1.083967971530249</v>
+      </c>
       <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>1.003571428571429</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2502,26 +2347,15 @@
         <v>84587.99756284</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>281</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1.069733096085409</v>
-      </c>
-      <c r="N50" t="n">
-        <v>1.003571428571429</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2546,18 +2380,15 @@
         <v>72865.22096284</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2582,18 +2413,15 @@
         <v>72865.22096284</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2620,16 +2448,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2656,16 +2481,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2692,16 +2514,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2726,18 +2545,15 @@
         <v>58669.99176284</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2762,18 +2578,15 @@
         <v>58669.99176284</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2800,16 +2613,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2836,16 +2646,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2872,16 +2679,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2908,16 +2712,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2944,16 +2745,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2980,16 +2778,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3014,18 +2809,15 @@
         <v>41682.82616283999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3052,16 +2844,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3088,16 +2877,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3124,16 +2910,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3160,16 +2943,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3194,18 +2974,15 @@
         <v>39600.03866283999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3230,18 +3007,15 @@
         <v>39600.03866283999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3268,16 +3042,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3302,18 +3073,15 @@
         <v>39600.03866283999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3340,16 +3108,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3376,16 +3141,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3412,16 +3174,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3448,16 +3207,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3484,16 +3240,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3520,16 +3273,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3556,16 +3306,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3590,18 +3337,15 @@
         <v>34229.10876283998</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3628,16 +3372,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3664,16 +3405,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3700,16 +3438,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3736,16 +3471,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3772,16 +3504,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3808,16 +3537,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3844,16 +3570,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3880,16 +3603,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3916,16 +3636,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3952,16 +3669,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3988,16 +3702,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4024,16 +3735,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4060,16 +3768,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4096,16 +3801,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4132,16 +3834,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4168,16 +3867,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4204,16 +3900,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4240,16 +3933,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4276,16 +3966,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4312,16 +3999,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4348,16 +4032,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4384,16 +4065,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4420,16 +4098,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4456,16 +4131,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4492,16 +4164,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4528,16 +4197,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4564,16 +4230,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4600,16 +4263,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4636,16 +4296,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4672,16 +4329,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4708,16 +4362,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4744,16 +4395,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4780,16 +4428,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4816,16 +4461,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4852,16 +4494,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4888,16 +4527,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4924,16 +4560,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4960,16 +4593,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4996,16 +4626,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5032,16 +4659,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5068,16 +4692,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5104,16 +4725,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5140,16 +4758,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5176,16 +4791,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5212,16 +4824,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5248,16 +4857,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5284,16 +4890,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5320,16 +4923,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5356,16 +4956,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5392,16 +4989,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5428,16 +5022,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5464,16 +5055,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5500,16 +5088,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5536,16 +5121,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5572,16 +5154,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5608,16 +5187,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5644,16 +5220,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5680,16 +5253,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5716,16 +5286,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5752,16 +5319,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5788,16 +5352,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5824,16 +5385,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5860,16 +5418,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5896,16 +5451,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5932,16 +5484,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5968,16 +5517,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6004,16 +5550,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6040,16 +5583,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6076,16 +5616,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6112,16 +5649,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6148,16 +5682,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6184,16 +5715,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6220,16 +5748,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6254,18 +5779,15 @@
         <v>59012.53396284</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6290,18 +5812,15 @@
         <v>59012.53396284</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6326,18 +5845,15 @@
         <v>55022.53396284</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6362,18 +5878,15 @@
         <v>55042.37656284</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6398,18 +5911,15 @@
         <v>55042.37656284</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6434,18 +5944,15 @@
         <v>55042.37656284</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6470,18 +5977,15 @@
         <v>38642.58616284</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6508,16 +6012,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6544,16 +6045,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6580,16 +6078,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6616,16 +6111,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6652,16 +6144,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6688,16 +6177,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6724,16 +6210,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6760,16 +6243,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6796,16 +6276,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6832,16 +6309,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6866,18 +6340,15 @@
         <v>36207.81586284</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6902,18 +6373,15 @@
         <v>28134.73566284</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6938,18 +6406,15 @@
         <v>28134.73566284</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6976,16 +6441,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7012,16 +6474,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7048,16 +6507,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7084,16 +6540,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7120,16 +6573,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7156,16 +6606,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7192,16 +6639,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7228,16 +6672,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7264,16 +6705,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7300,16 +6738,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7336,16 +6771,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7372,16 +6804,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7408,16 +6837,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7444,16 +6870,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7480,16 +6903,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7516,16 +6936,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7552,16 +6969,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7588,16 +7002,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7624,16 +7035,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7660,16 +7068,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7696,16 +7101,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7732,16 +7134,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7768,16 +7167,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7804,16 +7200,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7840,18 +7233,15 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-02 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-6040.106837159999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-15542.20873716</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>281</v>
@@ -521,7 +521,7 @@
         <v>-7029.94013716</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>280</v>
@@ -562,7 +562,7 @@
         <v>-7029.94013716</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>284</v>
@@ -603,9 +603,11 @@
         <v>-9467.82123716</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>284</v>
+      </c>
       <c r="J6" t="n">
         <v>281</v>
       </c>
@@ -642,9 +644,11 @@
         <v>-13989.13063716</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>280</v>
+      </c>
       <c r="J7" t="n">
         <v>281</v>
       </c>
@@ -681,9 +685,11 @@
         <v>-13668.24333716</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>276</v>
+      </c>
       <c r="J8" t="n">
         <v>281</v>
       </c>
@@ -720,9 +726,11 @@
         <v>-8318.671137159999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>278</v>
+      </c>
       <c r="J9" t="n">
         <v>281</v>
       </c>
@@ -759,9 +767,11 @@
         <v>-8318.671137159999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>279</v>
+      </c>
       <c r="J10" t="n">
         <v>281</v>
       </c>
@@ -798,7 +808,7 @@
         <v>-9863.635437159999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>279</v>
@@ -839,9 +849,11 @@
         <v>-7980.858137159999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>277</v>
+      </c>
       <c r="J12" t="n">
         <v>281</v>
       </c>
@@ -878,7 +890,7 @@
         <v>-7282.591437159999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>278</v>
@@ -919,9 +931,11 @@
         <v>-7667.591437159999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>281</v>
+      </c>
       <c r="J14" t="n">
         <v>281</v>
       </c>
@@ -958,9 +972,11 @@
         <v>-7907.591437159999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>280</v>
+      </c>
       <c r="J15" t="n">
         <v>281</v>
       </c>
@@ -997,9 +1013,11 @@
         <v>-7128.591537159999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>279</v>
+      </c>
       <c r="J16" t="n">
         <v>281</v>
       </c>
@@ -1036,9 +1054,11 @@
         <v>-2936.68473716</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>280</v>
+      </c>
       <c r="J17" t="n">
         <v>281</v>
       </c>
@@ -1075,7 +1095,7 @@
         <v>-5175.163737159999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>281</v>
@@ -1116,9 +1136,11 @@
         <v>-5099.163737159999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>280</v>
+      </c>
       <c r="J19" t="n">
         <v>281</v>
       </c>
@@ -1155,7 +1177,7 @@
         <v>-5264.657437159999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>282</v>
@@ -1196,9 +1218,11 @@
         <v>-4018.430537159999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>281</v>
+      </c>
       <c r="J21" t="n">
         <v>281</v>
       </c>
@@ -1235,7 +1259,7 @@
         <v>-6299.13403716</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>282</v>
@@ -1276,7 +1300,7 @@
         <v>-22075.86283716</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>280</v>
@@ -1317,7 +1341,7 @@
         <v>-21997.95833716</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>277</v>
@@ -1358,9 +1382,11 @@
         <v>-22155.88253716</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>283</v>
+      </c>
       <c r="J25" t="n">
         <v>281</v>
       </c>
@@ -1397,7 +1423,7 @@
         <v>-29065.33923716</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>281</v>
@@ -1438,7 +1464,7 @@
         <v>-17202.03643716</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>276</v>
@@ -1479,7 +1505,7 @@
         <v>-1630.55763716</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>278</v>
@@ -1520,7 +1546,7 @@
         <v>2605.76526284</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>280</v>
@@ -1561,7 +1587,7 @@
         <v>2605.76526284</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>281</v>
@@ -1602,7 +1628,7 @@
         <v>18325.45126284</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>281</v>
@@ -1643,9 +1669,11 @@
         <v>18325.45126284</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>287</v>
+      </c>
       <c r="J32" t="n">
         <v>281</v>
       </c>
@@ -1682,9 +1710,11 @@
         <v>7276.24686284</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>287</v>
+      </c>
       <c r="J33" t="n">
         <v>281</v>
       </c>
@@ -1721,9 +1751,11 @@
         <v>12663.23036284</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>283</v>
+      </c>
       <c r="J34" t="n">
         <v>281</v>
       </c>
@@ -1760,9 +1792,11 @@
         <v>12663.23036284</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>285</v>
+      </c>
       <c r="J35" t="n">
         <v>281</v>
       </c>
@@ -1799,9 +1833,11 @@
         <v>23186.58756284</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>285</v>
+      </c>
       <c r="J36" t="n">
         <v>281</v>
       </c>
@@ -1838,9 +1874,11 @@
         <v>23186.58756284</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>289</v>
+      </c>
       <c r="J37" t="n">
         <v>281</v>
       </c>
@@ -1994,9 +2032,11 @@
         <v>24678.63276284</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>289</v>
+      </c>
       <c r="J41" t="n">
         <v>281</v>
       </c>
@@ -2306,7 +2346,7 @@
         <v>85109.60996284</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
@@ -2314,15 +2354,13 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.083967971530249</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.003571428571429</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2347,11 +2385,17 @@
         <v>84587.99756284</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>281</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2380,11 +2424,17 @@
         <v>72865.22096284</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>281</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2413,11 +2463,17 @@
         <v>72865.22096284</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>281</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2449,8 +2505,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>281</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2482,8 +2544,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>281</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2515,8 +2583,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>281</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2545,11 +2619,17 @@
         <v>58669.99176284</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>281</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2578,11 +2658,17 @@
         <v>58669.99176284</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>281</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2614,8 +2700,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>281</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2647,8 +2739,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>281</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2680,8 +2778,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>281</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2713,8 +2817,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2746,8 +2856,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>281</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2779,8 +2895,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>281</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2809,11 +2931,17 @@
         <v>41682.82616283999</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>281</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2845,8 +2973,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>281</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2878,8 +3012,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>281</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2911,8 +3051,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>281</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2944,8 +3090,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>281</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2974,11 +3126,17 @@
         <v>39600.03866283999</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>281</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3007,11 +3165,17 @@
         <v>39600.03866283999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>281</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3043,8 +3207,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>281</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3073,11 +3243,17 @@
         <v>39600.03866283999</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>281</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3109,8 +3285,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>281</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3142,8 +3324,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>281</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3175,8 +3363,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>281</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3208,8 +3402,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>281</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3241,8 +3441,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>281</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3274,8 +3480,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>281</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3304,13 +3516,19 @@
         <v>38665.26536283999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>281</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>1.03414590747331</v>
       </c>
       <c r="M79" t="inlineStr"/>
     </row>
@@ -3337,7 +3555,7 @@
         <v>34229.10876283998</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3601,7 +3819,7 @@
         <v>29426.01206283999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3634,7 +3852,7 @@
         <v>29970.22236283998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3667,7 +3885,7 @@
         <v>25059.59436283998</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3700,7 +3918,7 @@
         <v>25059.59436283998</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3733,7 +3951,7 @@
         <v>23484.66066283998</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3766,7 +3984,7 @@
         <v>35970.18906283999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3799,7 +4017,7 @@
         <v>35970.18906283999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3832,7 +4050,7 @@
         <v>35970.18906283999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3865,7 +4083,7 @@
         <v>35970.18906283999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3898,7 +4116,7 @@
         <v>34983.11866283999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3931,7 +4149,7 @@
         <v>34825.98546283999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3964,7 +4182,7 @@
         <v>34825.98546283999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3997,7 +4215,7 @@
         <v>34826.98546283999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4096,7 +4314,7 @@
         <v>13803.50456283999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -5779,7 +5997,7 @@
         <v>59012.53396284</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5812,7 +6030,7 @@
         <v>59012.53396284</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5845,7 +6063,7 @@
         <v>55022.53396284</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5878,7 +6096,7 @@
         <v>55042.37656284</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5911,7 +6129,7 @@
         <v>55042.37656284</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5944,7 +6162,7 @@
         <v>55042.37656284</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5977,7 +6195,7 @@
         <v>38642.58616284</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6340,7 +6558,7 @@
         <v>36207.81586284</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6373,7 +6591,7 @@
         <v>28134.73566284</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6406,7 +6624,7 @@
         <v>28134.73566284</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -7242,6 +7460,6 @@
       <c r="M198" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-02 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>-15542.20873716</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>281</v>
-      </c>
-      <c r="J3" t="n">
-        <v>281</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,306 +517,254 @@
         <v>-7029.94013716</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>280</v>
       </c>
-      <c r="J4" t="n">
-        <v>281</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="C5" t="n">
+        <v>284</v>
+      </c>
+      <c r="D5" t="n">
+        <v>284</v>
+      </c>
+      <c r="E5" t="n">
+        <v>280</v>
+      </c>
+      <c r="F5" t="n">
+        <v>222</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-7029.94013716</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>284</v>
+      </c>
+      <c r="C6" t="n">
+        <v>280</v>
+      </c>
+      <c r="D6" t="n">
+        <v>284</v>
+      </c>
+      <c r="E6" t="n">
+        <v>280</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2437.8811</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-9467.82123716</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>278</v>
+      </c>
+      <c r="C7" t="n">
+        <v>276</v>
+      </c>
+      <c r="D7" t="n">
+        <v>278</v>
+      </c>
+      <c r="E7" t="n">
+        <v>276</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4521.3094</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-13989.13063716</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>278</v>
+      </c>
+      <c r="C8" t="n">
+        <v>278</v>
+      </c>
+      <c r="D8" t="n">
+        <v>278</v>
+      </c>
+      <c r="E8" t="n">
+        <v>278</v>
+      </c>
+      <c r="F8" t="n">
+        <v>320.8873</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-13668.24333716</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>279</v>
+      </c>
+      <c r="C9" t="n">
+        <v>279</v>
+      </c>
+      <c r="D9" t="n">
+        <v>279</v>
+      </c>
+      <c r="E9" t="n">
+        <v>279</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5349.5722</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-8318.671137159999</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>279</v>
+      </c>
+      <c r="C10" t="n">
+        <v>279</v>
+      </c>
+      <c r="D10" t="n">
+        <v>279</v>
+      </c>
+      <c r="E10" t="n">
+        <v>279</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1577.2014</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-8318.671137159999</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>279</v>
+      </c>
+      <c r="J10" t="n">
+        <v>279</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>278</v>
+      </c>
+      <c r="C11" t="n">
+        <v>277</v>
+      </c>
+      <c r="D11" t="n">
+        <v>278</v>
+      </c>
+      <c r="E11" t="n">
+        <v>277</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1544.9643</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-9863.635437159999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>279</v>
+      </c>
+      <c r="J11" t="n">
+        <v>279</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>280</v>
-      </c>
-      <c r="C5" t="n">
-        <v>284</v>
-      </c>
-      <c r="D5" t="n">
-        <v>284</v>
-      </c>
-      <c r="E5" t="n">
-        <v>280</v>
-      </c>
-      <c r="F5" t="n">
-        <v>222</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-7029.94013716</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>284</v>
-      </c>
-      <c r="J5" t="n">
-        <v>281</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>284</v>
-      </c>
-      <c r="C6" t="n">
-        <v>280</v>
-      </c>
-      <c r="D6" t="n">
-        <v>284</v>
-      </c>
-      <c r="E6" t="n">
-        <v>280</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2437.8811</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-9467.82123716</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>284</v>
-      </c>
-      <c r="J6" t="n">
-        <v>281</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>278</v>
-      </c>
-      <c r="C7" t="n">
-        <v>276</v>
-      </c>
-      <c r="D7" t="n">
-        <v>278</v>
-      </c>
-      <c r="E7" t="n">
-        <v>276</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4521.3094</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-13989.13063716</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>280</v>
-      </c>
-      <c r="J7" t="n">
-        <v>281</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>278</v>
-      </c>
-      <c r="C8" t="n">
-        <v>278</v>
-      </c>
-      <c r="D8" t="n">
-        <v>278</v>
-      </c>
-      <c r="E8" t="n">
-        <v>278</v>
-      </c>
-      <c r="F8" t="n">
-        <v>320.8873</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-13668.24333716</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>276</v>
-      </c>
-      <c r="J8" t="n">
-        <v>281</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>279</v>
-      </c>
-      <c r="C9" t="n">
-        <v>279</v>
-      </c>
-      <c r="D9" t="n">
-        <v>279</v>
-      </c>
-      <c r="E9" t="n">
-        <v>279</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5349.5722</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-8318.671137159999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>278</v>
-      </c>
-      <c r="J9" t="n">
-        <v>281</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>279</v>
-      </c>
-      <c r="C10" t="n">
-        <v>279</v>
-      </c>
-      <c r="D10" t="n">
-        <v>279</v>
-      </c>
-      <c r="E10" t="n">
-        <v>279</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1577.2014</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-8318.671137159999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>279</v>
-      </c>
-      <c r="J10" t="n">
-        <v>281</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>278</v>
-      </c>
-      <c r="C11" t="n">
-        <v>277</v>
-      </c>
-      <c r="D11" t="n">
-        <v>278</v>
-      </c>
-      <c r="E11" t="n">
-        <v>277</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1544.9643</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-9863.635437159999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>279</v>
-      </c>
-      <c r="J11" t="n">
-        <v>281</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -855,7 +799,7 @@
         <v>277</v>
       </c>
       <c r="J12" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -896,7 +840,7 @@
         <v>278</v>
       </c>
       <c r="J13" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -937,7 +881,7 @@
         <v>281</v>
       </c>
       <c r="J14" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -978,7 +922,7 @@
         <v>280</v>
       </c>
       <c r="J15" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1019,7 +963,7 @@
         <v>279</v>
       </c>
       <c r="J16" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1054,13 +998,11 @@
         <v>-2936.68473716</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1095,13 +1037,11 @@
         <v>-5175.163737159999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>281</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1136,13 +1076,11 @@
         <v>-5099.163737159999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1177,13 +1115,11 @@
         <v>-5264.657437159999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>282</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1218,13 +1154,11 @@
         <v>-4018.430537159999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>281</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1265,7 +1199,7 @@
         <v>282</v>
       </c>
       <c r="J22" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1306,7 +1240,7 @@
         <v>280</v>
       </c>
       <c r="J23" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1347,7 +1281,7 @@
         <v>277</v>
       </c>
       <c r="J24" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1388,7 +1322,7 @@
         <v>283</v>
       </c>
       <c r="J25" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1429,7 +1363,7 @@
         <v>281</v>
       </c>
       <c r="J26" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1470,7 +1404,7 @@
         <v>276</v>
       </c>
       <c r="J27" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1511,7 +1445,7 @@
         <v>278</v>
       </c>
       <c r="J28" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1552,7 +1486,7 @@
         <v>280</v>
       </c>
       <c r="J29" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1587,13 +1521,11 @@
         <v>2605.76526284</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>281</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1628,13 +1560,11 @@
         <v>18325.45126284</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>281</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1669,13 +1599,11 @@
         <v>18325.45126284</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1710,13 +1638,11 @@
         <v>7276.24686284</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1751,13 +1677,11 @@
         <v>12663.23036284</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1792,13 +1716,11 @@
         <v>12663.23036284</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1833,13 +1755,11 @@
         <v>23186.58756284</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1874,13 +1794,11 @@
         <v>23186.58756284</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>289</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1919,7 +1837,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1954,19 +1872,19 @@
         <v>25319.14236284</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>1.034426523297491</v>
       </c>
       <c r="M39" t="inlineStr"/>
     </row>
@@ -1993,17 +1911,11 @@
         <v>24677.63276284</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>281</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2032,19 +1944,11 @@
         <v>24678.63276284</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>289</v>
-      </c>
-      <c r="J41" t="n">
-        <v>281</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2073,17 +1977,11 @@
         <v>24678.63276284</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>281</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2112,17 +2010,11 @@
         <v>24678.63276284</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>281</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2151,17 +2043,11 @@
         <v>23642.45426284</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>281</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2190,17 +2076,11 @@
         <v>25141.03356284</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>281</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2232,14 +2112,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>281</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2271,14 +2145,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>281</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2310,14 +2178,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>281</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2349,14 +2211,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>281</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2388,14 +2244,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>281</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2427,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>281</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2466,14 +2310,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>281</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2505,14 +2343,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>281</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2544,14 +2376,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>281</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2583,14 +2409,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>281</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2622,14 +2442,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>281</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2661,14 +2475,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>281</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2700,14 +2508,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>281</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2739,14 +2541,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>281</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2778,14 +2574,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>281</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2817,14 +2607,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>281</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2856,14 +2640,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>281</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2895,14 +2673,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>281</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2934,14 +2706,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>281</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2973,14 +2739,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>281</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3012,14 +2772,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>281</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3051,14 +2805,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>281</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3090,14 +2838,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>281</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3129,14 +2871,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>281</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3168,14 +2904,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>281</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3207,14 +2937,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>281</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3246,14 +2970,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>281</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3285,14 +3003,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>281</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3324,14 +3036,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>281</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3360,17 +3066,11 @@
         <v>39718.00496283999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>281</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3399,17 +3099,11 @@
         <v>39721.98446283999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>281</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3438,17 +3132,11 @@
         <v>38665.26536283999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>281</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3477,17 +3165,11 @@
         <v>38665.26536283999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>281</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3519,16 +3201,10 @@
         <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>281</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>1.03414590747331</v>
+        <v>1</v>
       </c>
       <c r="M79" t="inlineStr"/>
     </row>
@@ -3555,7 +3231,7 @@
         <v>34229.10876283998</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3588,7 +3264,7 @@
         <v>35779.26566283999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3621,7 +3297,7 @@
         <v>33625.06806283999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3819,7 +3495,7 @@
         <v>29426.01206283999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3852,7 +3528,7 @@
         <v>29970.22236283998</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3885,7 +3561,7 @@
         <v>25059.59436283998</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3918,7 +3594,7 @@
         <v>25059.59436283998</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3951,7 +3627,7 @@
         <v>23484.66066283998</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3984,7 +3660,7 @@
         <v>35970.18906283999</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -4017,7 +3693,7 @@
         <v>35970.18906283999</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4050,7 +3726,7 @@
         <v>35970.18906283999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4083,7 +3759,7 @@
         <v>35970.18906283999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4116,7 +3792,7 @@
         <v>34983.11866283999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4149,7 +3825,7 @@
         <v>34825.98546283999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4182,7 +3858,7 @@
         <v>34825.98546283999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4215,7 +3891,7 @@
         <v>34826.98546283999</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4314,7 +3990,7 @@
         <v>13803.50456283999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -7460,6 +7136,6 @@
       <c r="M198" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-02 BackTest PIVX.xlsx
@@ -484,10 +484,14 @@
         <v>-15542.20873716</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>281</v>
+      </c>
+      <c r="J3" t="n">
+        <v>281</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-7029.94013716</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>280</v>
+      </c>
+      <c r="J4" t="n">
+        <v>281</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-7029.94013716</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>284</v>
+      </c>
+      <c r="J5" t="n">
+        <v>281</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>-9467.82123716</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>284</v>
+      </c>
+      <c r="J6" t="n">
+        <v>281</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>-13989.13063716</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>280</v>
+      </c>
+      <c r="J7" t="n">
+        <v>281</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>-13668.24333716</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>276</v>
+      </c>
+      <c r="J8" t="n">
+        <v>281</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>-8318.671137159999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>278</v>
+      </c>
+      <c r="J9" t="n">
+        <v>281</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -721,9 +773,13 @@
         <v>279</v>
       </c>
       <c r="J10" t="n">
-        <v>279</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -758,11 +814,11 @@
         <v>279</v>
       </c>
       <c r="J11" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -799,7 +855,7 @@
         <v>277</v>
       </c>
       <c r="J12" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -840,7 +896,7 @@
         <v>278</v>
       </c>
       <c r="J13" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -875,13 +931,11 @@
         <v>-7667.591437159999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>281</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -922,7 +976,7 @@
         <v>280</v>
       </c>
       <c r="J15" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -963,7 +1017,7 @@
         <v>279</v>
       </c>
       <c r="J16" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -998,11 +1052,13 @@
         <v>-2936.68473716</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>280</v>
+      </c>
       <c r="J17" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1037,11 +1093,13 @@
         <v>-5175.163737159999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>281</v>
+      </c>
       <c r="J18" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1076,11 +1134,13 @@
         <v>-5099.163737159999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>280</v>
+      </c>
       <c r="J19" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1115,11 +1175,13 @@
         <v>-5264.657437159999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>282</v>
+      </c>
       <c r="J20" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1154,11 +1216,13 @@
         <v>-4018.430537159999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>281</v>
+      </c>
       <c r="J21" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1199,7 +1263,7 @@
         <v>282</v>
       </c>
       <c r="J22" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1240,7 +1304,7 @@
         <v>280</v>
       </c>
       <c r="J23" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1281,7 +1345,7 @@
         <v>277</v>
       </c>
       <c r="J24" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1322,7 +1386,7 @@
         <v>283</v>
       </c>
       <c r="J25" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1363,7 +1427,7 @@
         <v>281</v>
       </c>
       <c r="J26" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1404,7 +1468,7 @@
         <v>276</v>
       </c>
       <c r="J27" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1445,7 +1509,7 @@
         <v>278</v>
       </c>
       <c r="J28" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1486,7 +1550,7 @@
         <v>280</v>
       </c>
       <c r="J29" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1521,11 +1585,13 @@
         <v>2605.76526284</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>281</v>
+      </c>
       <c r="J30" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1560,11 +1626,13 @@
         <v>18325.45126284</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>281</v>
+      </c>
       <c r="J31" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1603,7 +1671,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1642,7 +1710,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1681,7 +1749,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1720,7 +1788,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1759,7 +1827,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1798,7 +1866,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1837,7 +1905,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1872,351 +1940,413 @@
         <v>25319.14236284</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>290</v>
+      </c>
+      <c r="C40" t="n">
+        <v>289</v>
+      </c>
+      <c r="D40" t="n">
+        <v>290</v>
+      </c>
+      <c r="E40" t="n">
+        <v>289</v>
+      </c>
+      <c r="F40" t="n">
+        <v>641.5096</v>
+      </c>
+      <c r="G40" t="n">
+        <v>24677.63276284</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>281</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>290</v>
+      </c>
+      <c r="C41" t="n">
+        <v>290</v>
+      </c>
+      <c r="D41" t="n">
+        <v>290</v>
+      </c>
+      <c r="E41" t="n">
+        <v>290</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>24678.63276284</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>281</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>289</v>
+      </c>
+      <c r="C42" t="n">
+        <v>290</v>
+      </c>
+      <c r="D42" t="n">
+        <v>290</v>
+      </c>
+      <c r="E42" t="n">
+        <v>289</v>
+      </c>
+      <c r="F42" t="n">
+        <v>93.7149</v>
+      </c>
+      <c r="G42" t="n">
+        <v>24678.63276284</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>281</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>290</v>
+      </c>
+      <c r="C43" t="n">
+        <v>290</v>
+      </c>
+      <c r="D43" t="n">
+        <v>290</v>
+      </c>
+      <c r="E43" t="n">
+        <v>290</v>
+      </c>
+      <c r="F43" t="n">
+        <v>497.3896</v>
+      </c>
+      <c r="G43" t="n">
+        <v>24678.63276284</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>281</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>289</v>
+      </c>
+      <c r="C44" t="n">
+        <v>289</v>
+      </c>
+      <c r="D44" t="n">
+        <v>289</v>
+      </c>
+      <c r="E44" t="n">
+        <v>289</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1036.1785</v>
+      </c>
+      <c r="G44" t="n">
+        <v>23642.45426284</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>281</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>290</v>
+      </c>
+      <c r="C45" t="n">
+        <v>290</v>
+      </c>
+      <c r="D45" t="n">
+        <v>290</v>
+      </c>
+      <c r="E45" t="n">
+        <v>290</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1498.5793</v>
+      </c>
+      <c r="G45" t="n">
+        <v>25141.03356284</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>281</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>290</v>
+      </c>
+      <c r="C46" t="n">
+        <v>292</v>
+      </c>
+      <c r="D46" t="n">
+        <v>292</v>
+      </c>
+      <c r="E46" t="n">
+        <v>290</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5196.347</v>
+      </c>
+      <c r="G46" t="n">
+        <v>30337.38056284</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>281</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>292</v>
+      </c>
+      <c r="C47" t="n">
+        <v>301</v>
+      </c>
+      <c r="D47" t="n">
+        <v>301</v>
+      </c>
+      <c r="E47" t="n">
+        <v>292</v>
+      </c>
+      <c r="F47" t="n">
+        <v>30558.5331</v>
+      </c>
+      <c r="G47" t="n">
+        <v>60895.91366284</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>281</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>301</v>
+      </c>
+      <c r="C48" t="n">
+        <v>305</v>
+      </c>
+      <c r="D48" t="n">
+        <v>305</v>
+      </c>
+      <c r="E48" t="n">
+        <v>301</v>
+      </c>
+      <c r="F48" t="n">
+        <v>8970.527899999999</v>
+      </c>
+      <c r="G48" t="n">
+        <v>69866.44156284</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>281</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>305</v>
+      </c>
+      <c r="C49" t="n">
+        <v>306</v>
+      </c>
+      <c r="D49" t="n">
+        <v>306</v>
+      </c>
+      <c r="E49" t="n">
+        <v>305</v>
+      </c>
+      <c r="F49" t="n">
+        <v>15243.1684</v>
+      </c>
+      <c r="G49" t="n">
+        <v>85109.60996284</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>281</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1.034426523297491</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>290</v>
-      </c>
-      <c r="C40" t="n">
-        <v>289</v>
-      </c>
-      <c r="D40" t="n">
-        <v>290</v>
-      </c>
-      <c r="E40" t="n">
-        <v>289</v>
-      </c>
-      <c r="F40" t="n">
-        <v>641.5096</v>
-      </c>
-      <c r="G40" t="n">
-        <v>24677.63276284</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>290</v>
-      </c>
-      <c r="C41" t="n">
-        <v>290</v>
-      </c>
-      <c r="D41" t="n">
-        <v>290</v>
-      </c>
-      <c r="E41" t="n">
-        <v>290</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" t="n">
-        <v>24678.63276284</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>289</v>
-      </c>
-      <c r="C42" t="n">
-        <v>290</v>
-      </c>
-      <c r="D42" t="n">
-        <v>290</v>
-      </c>
-      <c r="E42" t="n">
-        <v>289</v>
-      </c>
-      <c r="F42" t="n">
-        <v>93.7149</v>
-      </c>
-      <c r="G42" t="n">
-        <v>24678.63276284</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>290</v>
-      </c>
-      <c r="C43" t="n">
-        <v>290</v>
-      </c>
-      <c r="D43" t="n">
-        <v>290</v>
-      </c>
-      <c r="E43" t="n">
-        <v>290</v>
-      </c>
-      <c r="F43" t="n">
-        <v>497.3896</v>
-      </c>
-      <c r="G43" t="n">
-        <v>24678.63276284</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>289</v>
-      </c>
-      <c r="C44" t="n">
-        <v>289</v>
-      </c>
-      <c r="D44" t="n">
-        <v>289</v>
-      </c>
-      <c r="E44" t="n">
-        <v>289</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1036.1785</v>
-      </c>
-      <c r="G44" t="n">
-        <v>23642.45426284</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>290</v>
-      </c>
-      <c r="C45" t="n">
-        <v>290</v>
-      </c>
-      <c r="D45" t="n">
-        <v>290</v>
-      </c>
-      <c r="E45" t="n">
-        <v>290</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1498.5793</v>
-      </c>
-      <c r="G45" t="n">
-        <v>25141.03356284</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>290</v>
-      </c>
-      <c r="C46" t="n">
-        <v>292</v>
-      </c>
-      <c r="D46" t="n">
-        <v>292</v>
-      </c>
-      <c r="E46" t="n">
-        <v>290</v>
-      </c>
-      <c r="F46" t="n">
-        <v>5196.347</v>
-      </c>
-      <c r="G46" t="n">
-        <v>30337.38056284</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>292</v>
-      </c>
-      <c r="C47" t="n">
-        <v>301</v>
-      </c>
-      <c r="D47" t="n">
-        <v>301</v>
-      </c>
-      <c r="E47" t="n">
-        <v>292</v>
-      </c>
-      <c r="F47" t="n">
-        <v>30558.5331</v>
-      </c>
-      <c r="G47" t="n">
-        <v>60895.91366284</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>301</v>
-      </c>
-      <c r="C48" t="n">
-        <v>305</v>
-      </c>
-      <c r="D48" t="n">
-        <v>305</v>
-      </c>
-      <c r="E48" t="n">
-        <v>301</v>
-      </c>
-      <c r="F48" t="n">
-        <v>8970.527899999999</v>
-      </c>
-      <c r="G48" t="n">
-        <v>69866.44156284</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>305</v>
-      </c>
-      <c r="C49" t="n">
-        <v>306</v>
-      </c>
-      <c r="D49" t="n">
-        <v>306</v>
-      </c>
-      <c r="E49" t="n">
-        <v>305</v>
-      </c>
-      <c r="F49" t="n">
-        <v>15243.1684</v>
-      </c>
-      <c r="G49" t="n">
-        <v>85109.60996284</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>1.083967971530249</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.003571428571429</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2241,7 +2371,7 @@
         <v>84587.99756284</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2274,7 +2404,7 @@
         <v>72865.22096284</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2307,7 +2437,7 @@
         <v>72865.22096284</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2340,7 +2470,7 @@
         <v>72866.22096284</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2373,7 +2503,7 @@
         <v>81945.76266284</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2406,7 +2536,7 @@
         <v>60557.74686284</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2439,7 +2569,7 @@
         <v>58669.99176284</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2472,7 +2602,7 @@
         <v>58669.99176284</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -3066,7 +3196,7 @@
         <v>39718.00496283999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3099,7 +3229,7 @@
         <v>39721.98446283999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3132,7 +3262,7 @@
         <v>38665.26536283999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3165,7 +3295,7 @@
         <v>38665.26536283999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3198,7 +3328,7 @@
         <v>38665.26536283999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3231,7 +3361,7 @@
         <v>34229.10876283998</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3264,7 +3394,7 @@
         <v>35779.26566283999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3297,7 +3427,7 @@
         <v>33625.06806283999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>

--- a/BackTest/2019-11-02 BackTest PIVX.xlsx
+++ b/BackTest/2019-11-02 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M198"/>
+  <dimension ref="A1:L198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>-6040.106837159999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>9502.1019</v>
       </c>
       <c r="G3" t="n">
-        <v>-15542.20873716</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>281</v>
       </c>
       <c r="I3" t="n">
         <v>281</v>
       </c>
-      <c r="J3" t="n">
-        <v>281</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>8512.268599999999</v>
       </c>
       <c r="G4" t="n">
-        <v>-7029.94013716</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="I4" t="n">
-        <v>280</v>
-      </c>
-      <c r="J4" t="n">
-        <v>281</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>281</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,21 @@
         <v>222</v>
       </c>
       <c r="G5" t="n">
-        <v>-7029.94013716</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>284</v>
-      </c>
-      <c r="J5" t="n">
-        <v>281</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +581,21 @@
         <v>2437.8811</v>
       </c>
       <c r="G6" t="n">
-        <v>-9467.82123716</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>284</v>
-      </c>
-      <c r="J6" t="n">
-        <v>281</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,26 +617,21 @@
         <v>4521.3094</v>
       </c>
       <c r="G7" t="n">
-        <v>-13989.13063716</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>280</v>
-      </c>
-      <c r="J7" t="n">
-        <v>281</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,26 +653,23 @@
         <v>320.8873</v>
       </c>
       <c r="G8" t="n">
-        <v>-13668.24333716</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>276</v>
       </c>
       <c r="I8" t="n">
-        <v>276</v>
-      </c>
-      <c r="J8" t="n">
-        <v>281</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -723,26 +691,23 @@
         <v>5349.5722</v>
       </c>
       <c r="G9" t="n">
-        <v>-8318.671137159999</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>278</v>
       </c>
       <c r="I9" t="n">
-        <v>278</v>
-      </c>
-      <c r="J9" t="n">
-        <v>281</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,26 +729,21 @@
         <v>1577.2014</v>
       </c>
       <c r="G10" t="n">
-        <v>-8318.671137159999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>279</v>
-      </c>
-      <c r="J10" t="n">
-        <v>281</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -805,26 +765,21 @@
         <v>1544.9643</v>
       </c>
       <c r="G11" t="n">
-        <v>-9863.635437159999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>279</v>
-      </c>
-      <c r="J11" t="n">
-        <v>281</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -846,26 +801,21 @@
         <v>1882.7773</v>
       </c>
       <c r="G12" t="n">
-        <v>-7980.858137159999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>277</v>
-      </c>
-      <c r="J12" t="n">
-        <v>281</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -887,26 +837,21 @@
         <v>698.2667</v>
       </c>
       <c r="G13" t="n">
-        <v>-7282.591437159999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>278</v>
-      </c>
-      <c r="J13" t="n">
-        <v>281</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -928,24 +873,21 @@
         <v>385</v>
       </c>
       <c r="G14" t="n">
-        <v>-7667.591437159999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>281</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>281</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -967,26 +909,21 @@
         <v>240</v>
       </c>
       <c r="G15" t="n">
-        <v>-7907.591437159999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>280</v>
-      </c>
-      <c r="J15" t="n">
-        <v>281</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1008,26 +945,23 @@
         <v>778.9999</v>
       </c>
       <c r="G16" t="n">
-        <v>-7128.591537159999</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>279</v>
       </c>
       <c r="I16" t="n">
-        <v>279</v>
-      </c>
-      <c r="J16" t="n">
-        <v>281</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1049,26 +983,23 @@
         <v>4191.9068</v>
       </c>
       <c r="G17" t="n">
-        <v>-2936.68473716</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="I17" t="n">
-        <v>280</v>
-      </c>
-      <c r="J17" t="n">
-        <v>281</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1090,26 +1021,23 @@
         <v>2238.479</v>
       </c>
       <c r="G18" t="n">
-        <v>-5175.163737159999</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>281</v>
       </c>
       <c r="I18" t="n">
         <v>281</v>
       </c>
-      <c r="J18" t="n">
-        <v>281</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1131,26 +1059,23 @@
         <v>76</v>
       </c>
       <c r="G19" t="n">
-        <v>-5099.163737159999</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="I19" t="n">
-        <v>280</v>
-      </c>
-      <c r="J19" t="n">
-        <v>281</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1172,26 +1097,23 @@
         <v>165.4937</v>
       </c>
       <c r="G20" t="n">
-        <v>-5264.657437159999</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>282</v>
       </c>
       <c r="I20" t="n">
-        <v>282</v>
-      </c>
-      <c r="J20" t="n">
-        <v>281</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1213,26 +1135,23 @@
         <v>1246.2269</v>
       </c>
       <c r="G21" t="n">
-        <v>-4018.430537159999</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>281</v>
       </c>
       <c r="I21" t="n">
         <v>281</v>
       </c>
-      <c r="J21" t="n">
-        <v>281</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1254,26 +1173,23 @@
         <v>2280.7035</v>
       </c>
       <c r="G22" t="n">
-        <v>-6299.13403716</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>282</v>
       </c>
       <c r="I22" t="n">
-        <v>282</v>
-      </c>
-      <c r="J22" t="n">
-        <v>281</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1295,26 +1211,23 @@
         <v>15776.7288</v>
       </c>
       <c r="G23" t="n">
-        <v>-22075.86283716</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="I23" t="n">
-        <v>280</v>
-      </c>
-      <c r="J23" t="n">
-        <v>281</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1336,26 +1249,23 @@
         <v>77.9045</v>
       </c>
       <c r="G24" t="n">
-        <v>-21997.95833716</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>277</v>
       </c>
       <c r="I24" t="n">
-        <v>277</v>
-      </c>
-      <c r="J24" t="n">
-        <v>281</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1377,26 +1287,23 @@
         <v>157.9242</v>
       </c>
       <c r="G25" t="n">
-        <v>-22155.88253716</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>283</v>
       </c>
       <c r="I25" t="n">
-        <v>283</v>
-      </c>
-      <c r="J25" t="n">
-        <v>281</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1418,26 +1325,23 @@
         <v>6909.4567</v>
       </c>
       <c r="G26" t="n">
-        <v>-29065.33923716</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>281</v>
       </c>
       <c r="I26" t="n">
         <v>281</v>
       </c>
-      <c r="J26" t="n">
-        <v>281</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1459,26 +1363,23 @@
         <v>11863.3028</v>
       </c>
       <c r="G27" t="n">
-        <v>-17202.03643716</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>276</v>
       </c>
       <c r="I27" t="n">
-        <v>276</v>
-      </c>
-      <c r="J27" t="n">
-        <v>281</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1500,26 +1401,23 @@
         <v>15571.4788</v>
       </c>
       <c r="G28" t="n">
-        <v>-1630.55763716</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>278</v>
       </c>
       <c r="I28" t="n">
-        <v>278</v>
-      </c>
-      <c r="J28" t="n">
-        <v>281</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1541,26 +1439,23 @@
         <v>4236.3229</v>
       </c>
       <c r="G29" t="n">
-        <v>2605.76526284</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="I29" t="n">
-        <v>280</v>
-      </c>
-      <c r="J29" t="n">
-        <v>281</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>281</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1582,26 +1477,21 @@
         <v>1749.9479</v>
       </c>
       <c r="G30" t="n">
-        <v>2605.76526284</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
         <v>281</v>
       </c>
-      <c r="J30" t="n">
-        <v>281</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1623,26 +1513,21 @@
         <v>15719.686</v>
       </c>
       <c r="G31" t="n">
-        <v>18325.45126284</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
         <v>281</v>
       </c>
-      <c r="J31" t="n">
-        <v>281</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1664,24 +1549,21 @@
         <v>21243.4224</v>
       </c>
       <c r="G32" t="n">
-        <v>18325.45126284</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>281</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>281</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1703,24 +1585,21 @@
         <v>11049.2044</v>
       </c>
       <c r="G33" t="n">
-        <v>7276.24686284</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>281</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>281</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1742,24 +1621,21 @@
         <v>5386.9835</v>
       </c>
       <c r="G34" t="n">
-        <v>12663.23036284</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>281</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>281</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1781,24 +1657,21 @@
         <v>16523.701</v>
       </c>
       <c r="G35" t="n">
-        <v>12663.23036284</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>281</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>281</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1820,24 +1693,21 @@
         <v>10523.3572</v>
       </c>
       <c r="G36" t="n">
-        <v>23186.58756284</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>281</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>281</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1859,24 +1729,21 @@
         <v>476.8872</v>
       </c>
       <c r="G37" t="n">
-        <v>23186.58756284</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>281</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>281</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1898,24 +1765,21 @@
         <v>2436.8797</v>
       </c>
       <c r="G38" t="n">
-        <v>20749.70786284</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>281</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>281</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1937,24 +1801,21 @@
         <v>4569.4345</v>
       </c>
       <c r="G39" t="n">
-        <v>25319.14236284</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>281</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>281</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1976,24 +1837,21 @@
         <v>641.5096</v>
       </c>
       <c r="G40" t="n">
-        <v>24677.63276284</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>281</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>281</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2015,24 +1873,21 @@
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>24678.63276284</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>281</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>281</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2054,24 +1909,21 @@
         <v>93.7149</v>
       </c>
       <c r="G42" t="n">
-        <v>24678.63276284</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>281</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>281</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2093,24 +1945,21 @@
         <v>497.3896</v>
       </c>
       <c r="G43" t="n">
-        <v>24678.63276284</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>281</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>281</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2132,24 +1981,21 @@
         <v>1036.1785</v>
       </c>
       <c r="G44" t="n">
-        <v>23642.45426284</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>281</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>281</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2171,24 +2017,21 @@
         <v>1498.5793</v>
       </c>
       <c r="G45" t="n">
-        <v>25141.03356284</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>281</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>281</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2210,24 +2053,21 @@
         <v>5196.347</v>
       </c>
       <c r="G46" t="n">
-        <v>30337.38056284</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>281</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>281</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2249,24 +2089,21 @@
         <v>30558.5331</v>
       </c>
       <c r="G47" t="n">
-        <v>60895.91366284</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>281</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>281</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2288,24 +2125,21 @@
         <v>8970.527899999999</v>
       </c>
       <c r="G48" t="n">
-        <v>69866.44156284</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>281</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>281</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2327,26 +2161,21 @@
         <v>15243.1684</v>
       </c>
       <c r="G49" t="n">
-        <v>85109.60996284</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>281</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1.083967971530249</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.003571428571429</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>281</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2368,18 +2197,21 @@
         <v>521.6124</v>
       </c>
       <c r="G50" t="n">
-        <v>84587.99756284</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>281</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2401,18 +2233,21 @@
         <v>11722.7766</v>
       </c>
       <c r="G51" t="n">
-        <v>72865.22096284</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>281</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2434,18 +2269,21 @@
         <v>10108.7354</v>
       </c>
       <c r="G52" t="n">
-        <v>72865.22096284</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>281</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2467,18 +2305,21 @@
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>72866.22096284</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>281</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2500,18 +2341,23 @@
         <v>9079.5417</v>
       </c>
       <c r="G54" t="n">
-        <v>81945.76266284</v>
-      </c>
-      <c r="H54" t="n">
         <v>2</v>
       </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>281</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1.080409252669039</v>
+      </c>
       <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>1.003571428571429</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2533,18 +2379,15 @@
         <v>21388.0158</v>
       </c>
       <c r="G55" t="n">
-        <v>60557.74686284</v>
-      </c>
-      <c r="H55" t="n">
         <v>2</v>
       </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2566,18 +2409,15 @@
         <v>1887.7551</v>
       </c>
       <c r="G56" t="n">
-        <v>58669.99176284</v>
-      </c>
-      <c r="H56" t="n">
         <v>2</v>
       </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2599,18 +2439,15 @@
         <v>200</v>
       </c>
       <c r="G57" t="n">
-        <v>58669.99176284</v>
-      </c>
-      <c r="H57" t="n">
         <v>2</v>
       </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2632,18 +2469,15 @@
         <v>11343.8513</v>
       </c>
       <c r="G58" t="n">
-        <v>47326.14046284</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2665,18 +2499,15 @@
         <v>19276.5804</v>
       </c>
       <c r="G59" t="n">
-        <v>47326.14046284</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2698,18 +2529,15 @@
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>47327.14046284</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2731,18 +2559,15 @@
         <v>975.2862</v>
       </c>
       <c r="G61" t="n">
-        <v>46351.85426284</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2764,18 +2589,15 @@
         <v>5877.4059</v>
       </c>
       <c r="G62" t="n">
-        <v>40474.44836284</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2797,18 +2619,15 @@
         <v>230.5442</v>
       </c>
       <c r="G63" t="n">
-        <v>40704.99256283999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2830,18 +2649,15 @@
         <v>977.8336</v>
       </c>
       <c r="G64" t="n">
-        <v>41682.82616283999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2863,18 +2679,15 @@
         <v>566</v>
       </c>
       <c r="G65" t="n">
-        <v>41682.82616283999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2896,18 +2709,15 @@
         <v>18722.2053</v>
       </c>
       <c r="G66" t="n">
-        <v>60405.03146283999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2929,18 +2739,15 @@
         <v>5205.4016</v>
       </c>
       <c r="G67" t="n">
-        <v>65610.43306283999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2962,18 +2769,15 @@
         <v>15560.6376</v>
       </c>
       <c r="G68" t="n">
-        <v>50049.79546283999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2995,18 +2799,15 @@
         <v>10449.7568</v>
       </c>
       <c r="G69" t="n">
-        <v>39600.03866283999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3028,18 +2829,15 @@
         <v>9915.777</v>
       </c>
       <c r="G70" t="n">
-        <v>39600.03866283999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3061,18 +2859,15 @@
         <v>1940.5394</v>
       </c>
       <c r="G71" t="n">
-        <v>39600.03866283999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3094,18 +2889,15 @@
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>39600.03866283999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3127,18 +2919,15 @@
         <v>1308.5526</v>
       </c>
       <c r="G73" t="n">
-        <v>40908.59126283999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3160,18 +2949,15 @@
         <v>1218.1492</v>
       </c>
       <c r="G74" t="n">
-        <v>39690.44206283999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3193,18 +2979,15 @@
         <v>27.5629</v>
       </c>
       <c r="G75" t="n">
-        <v>39718.00496283999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3226,18 +3009,15 @@
         <v>3.9795</v>
       </c>
       <c r="G76" t="n">
-        <v>39721.98446283999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3259,18 +3039,15 @@
         <v>1056.7191</v>
       </c>
       <c r="G77" t="n">
-        <v>38665.26536283999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3292,18 +3069,15 @@
         <v>926.5993999999999</v>
       </c>
       <c r="G78" t="n">
-        <v>38665.26536283999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3325,18 +3099,15 @@
         <v>523</v>
       </c>
       <c r="G79" t="n">
-        <v>38665.26536283999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3358,18 +3129,15 @@
         <v>4436.1566</v>
       </c>
       <c r="G80" t="n">
-        <v>34229.10876283998</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3391,18 +3159,15 @@
         <v>1550.1569</v>
       </c>
       <c r="G81" t="n">
-        <v>35779.26566283999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3424,18 +3189,15 @@
         <v>2154.1976</v>
       </c>
       <c r="G82" t="n">
-        <v>33625.06806283999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3457,18 +3219,15 @@
         <v>200</v>
       </c>
       <c r="G83" t="n">
-        <v>33825.06806283999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3490,18 +3249,15 @@
         <v>1177</v>
       </c>
       <c r="G84" t="n">
-        <v>33825.06806283999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3523,18 +3279,15 @@
         <v>400</v>
       </c>
       <c r="G85" t="n">
-        <v>33425.06806283999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3556,18 +3309,15 @@
         <v>3299.7156</v>
       </c>
       <c r="G86" t="n">
-        <v>30125.35246283999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3589,18 +3339,15 @@
         <v>1556.4768</v>
       </c>
       <c r="G87" t="n">
-        <v>30125.35246283999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3622,18 +3369,15 @@
         <v>699.3404</v>
       </c>
       <c r="G88" t="n">
-        <v>29426.01206283999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3655,18 +3399,15 @@
         <v>544.2103</v>
       </c>
       <c r="G89" t="n">
-        <v>29970.22236283998</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3688,18 +3429,15 @@
         <v>4910.628</v>
       </c>
       <c r="G90" t="n">
-        <v>25059.59436283998</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3721,18 +3459,15 @@
         <v>1153.8768</v>
       </c>
       <c r="G91" t="n">
-        <v>25059.59436283998</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3754,18 +3489,15 @@
         <v>1574.9337</v>
       </c>
       <c r="G92" t="n">
-        <v>23484.66066283998</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3787,18 +3519,15 @@
         <v>12485.5284</v>
       </c>
       <c r="G93" t="n">
-        <v>35970.18906283999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3820,18 +3549,15 @@
         <v>2483.1089</v>
       </c>
       <c r="G94" t="n">
-        <v>35970.18906283999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3853,18 +3579,15 @@
         <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>35970.18906283999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3886,18 +3609,15 @@
         <v>4486.8633</v>
       </c>
       <c r="G96" t="n">
-        <v>35970.18906283999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3919,18 +3639,15 @@
         <v>987.0703999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>34983.11866283999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3952,18 +3669,15 @@
         <v>157.1332</v>
       </c>
       <c r="G98" t="n">
-        <v>34825.98546283999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3985,18 +3699,15 @@
         <v>42.8668</v>
       </c>
       <c r="G99" t="n">
-        <v>34825.98546283999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4018,18 +3729,15 @@
         <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>34826.98546283999</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4051,18 +3759,15 @@
         <v>5028</v>
       </c>
       <c r="G101" t="n">
-        <v>29798.98546283999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4084,18 +3789,15 @@
         <v>15586.1575</v>
       </c>
       <c r="G102" t="n">
-        <v>14212.82796283999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4117,18 +3819,15 @@
         <v>409.3234</v>
       </c>
       <c r="G103" t="n">
-        <v>13803.50456283999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4150,18 +3849,15 @@
         <v>1290.6626</v>
       </c>
       <c r="G104" t="n">
-        <v>15094.16716283999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4183,18 +3879,15 @@
         <v>1237.153</v>
       </c>
       <c r="G105" t="n">
-        <v>13857.01416283999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4216,18 +3909,15 @@
         <v>2567.9951</v>
       </c>
       <c r="G106" t="n">
-        <v>16425.00926283999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4249,18 +3939,15 @@
         <v>114</v>
       </c>
       <c r="G107" t="n">
-        <v>16311.00926283999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4282,18 +3969,15 @@
         <v>100</v>
       </c>
       <c r="G108" t="n">
-        <v>16411.00926283999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4315,18 +3999,15 @@
         <v>2397.2647</v>
       </c>
       <c r="G109" t="n">
-        <v>16411.00926283999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4348,18 +4029,15 @@
         <v>237329.2053</v>
       </c>
       <c r="G110" t="n">
-        <v>16411.00926283999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4381,18 +4059,15 @@
         <v>258904.5876</v>
       </c>
       <c r="G111" t="n">
-        <v>16411.00926283999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4414,18 +4089,15 @@
         <v>5226.608</v>
       </c>
       <c r="G112" t="n">
-        <v>11184.40126283999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4447,18 +4119,15 @@
         <v>292172.1639</v>
       </c>
       <c r="G113" t="n">
-        <v>11184.40126283999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4480,18 +4149,15 @@
         <v>843595.6845</v>
       </c>
       <c r="G114" t="n">
-        <v>11184.40126283999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4513,18 +4179,21 @@
         <v>755.5749</v>
       </c>
       <c r="G115" t="n">
-        <v>11939.97616283999</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4546,18 +4215,21 @@
         <v>287.2724</v>
       </c>
       <c r="G116" t="n">
-        <v>12227.24856283999</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4579,18 +4251,21 @@
         <v>1004.7018</v>
       </c>
       <c r="G117" t="n">
-        <v>12227.24856283999</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4612,18 +4287,21 @@
         <v>281.2632</v>
       </c>
       <c r="G118" t="n">
-        <v>11945.98536283999</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4645,18 +4323,21 @@
         <v>3.9756</v>
       </c>
       <c r="G119" t="n">
-        <v>11949.96096283999</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4678,18 +4359,21 @@
         <v>1724.804</v>
       </c>
       <c r="G120" t="n">
-        <v>10225.15696283999</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4711,18 +4395,21 @@
         <v>2004.8601</v>
       </c>
       <c r="G121" t="n">
-        <v>10225.15696283999</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4744,18 +4431,21 @@
         <v>1923.601</v>
       </c>
       <c r="G122" t="n">
-        <v>8301.555962839993</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4777,18 +4467,21 @@
         <v>146.1479</v>
       </c>
       <c r="G123" t="n">
-        <v>8447.703862839993</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4810,18 +4503,21 @@
         <v>13210.9019</v>
       </c>
       <c r="G124" t="n">
-        <v>-4763.198037160008</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4843,18 +4539,21 @@
         <v>10359.9019</v>
       </c>
       <c r="G125" t="n">
-        <v>-4763.198037160008</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4876,18 +4575,21 @@
         <v>733</v>
       </c>
       <c r="G126" t="n">
-        <v>-4030.198037160008</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4909,18 +4611,21 @@
         <v>11060.0541</v>
       </c>
       <c r="G127" t="n">
-        <v>7029.856062839992</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4942,18 +4647,21 @@
         <v>24739.8894</v>
       </c>
       <c r="G128" t="n">
-        <v>31769.74546283999</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4975,18 +4683,21 @@
         <v>4026.7195</v>
       </c>
       <c r="G129" t="n">
-        <v>27743.02596283999</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5008,18 +4719,21 @@
         <v>2122.1292</v>
       </c>
       <c r="G130" t="n">
-        <v>29865.15516283999</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5041,18 +4755,19 @@
         <v>154.0195</v>
       </c>
       <c r="G131" t="n">
-        <v>29711.13566284</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5074,18 +4789,19 @@
         <v>3.9861</v>
       </c>
       <c r="G132" t="n">
-        <v>29715.12176283999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5107,18 +4823,19 @@
         <v>4586.7998</v>
       </c>
       <c r="G133" t="n">
-        <v>29715.12176283999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5140,18 +4857,19 @@
         <v>251.44</v>
       </c>
       <c r="G134" t="n">
-        <v>29966.56176283999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5173,18 +4891,19 @@
         <v>1072.4641</v>
       </c>
       <c r="G135" t="n">
-        <v>29966.56176283999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5206,18 +4925,19 @@
         <v>3816.2261</v>
       </c>
       <c r="G136" t="n">
-        <v>26150.33566283999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5239,18 +4959,19 @@
         <v>1358.1019</v>
       </c>
       <c r="G137" t="n">
-        <v>27508.43756283999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5272,18 +4993,19 @@
         <v>104</v>
       </c>
       <c r="G138" t="n">
-        <v>27508.43756283999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5305,18 +5027,19 @@
         <v>10.5677</v>
       </c>
       <c r="G139" t="n">
-        <v>27497.86986283999</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5338,18 +5061,19 @@
         <v>10094.8945</v>
       </c>
       <c r="G140" t="n">
-        <v>37592.76436284</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5371,18 +5095,19 @@
         <v>157.8151</v>
       </c>
       <c r="G141" t="n">
-        <v>37434.94926284</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5404,18 +5129,19 @@
         <v>528.4687</v>
       </c>
       <c r="G142" t="n">
-        <v>37963.41796283999</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5437,18 +5163,19 @@
         <v>1002.1901</v>
       </c>
       <c r="G143" t="n">
-        <v>36961.22786283999</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5470,18 +5197,19 @@
         <v>154.6233</v>
       </c>
       <c r="G144" t="n">
-        <v>36961.22786283999</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5503,18 +5231,19 @@
         <v>1475.1694</v>
       </c>
       <c r="G145" t="n">
-        <v>36961.22786283999</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5536,18 +5265,19 @@
         <v>1283.81</v>
       </c>
       <c r="G146" t="n">
-        <v>38245.03786283999</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5569,18 +5299,19 @@
         <v>2690.562</v>
       </c>
       <c r="G147" t="n">
-        <v>40935.59986283999</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5602,18 +5333,19 @@
         <v>4085.0395</v>
       </c>
       <c r="G148" t="n">
-        <v>40935.59986283999</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5635,18 +5367,19 @@
         <v>1112.5945</v>
       </c>
       <c r="G149" t="n">
-        <v>42048.19436283999</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5668,18 +5401,19 @@
         <v>7447.7349</v>
       </c>
       <c r="G150" t="n">
-        <v>49495.92926283999</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5701,18 +5435,19 @@
         <v>9124.6047</v>
       </c>
       <c r="G151" t="n">
-        <v>58620.53396284</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5734,18 +5469,19 @@
         <v>2731.8643</v>
       </c>
       <c r="G152" t="n">
-        <v>58620.53396284</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5767,18 +5503,19 @@
         <v>300</v>
       </c>
       <c r="G153" t="n">
-        <v>58320.53396284</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5800,18 +5537,19 @@
         <v>692</v>
       </c>
       <c r="G154" t="n">
-        <v>59012.53396284</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5833,18 +5571,19 @@
         <v>3741.1372</v>
       </c>
       <c r="G155" t="n">
-        <v>59012.53396284</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5866,18 +5605,19 @@
         <v>3990</v>
       </c>
       <c r="G156" t="n">
-        <v>55022.53396284</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5899,18 +5639,19 @@
         <v>19.8426</v>
       </c>
       <c r="G157" t="n">
-        <v>55042.37656284</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5932,18 +5673,19 @@
         <v>40</v>
       </c>
       <c r="G158" t="n">
-        <v>55042.37656284</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5965,18 +5707,19 @@
         <v>293.4937</v>
       </c>
       <c r="G159" t="n">
-        <v>55042.37656284</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5998,18 +5741,19 @@
         <v>16399.7904</v>
       </c>
       <c r="G160" t="n">
-        <v>38642.58616284</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6031,18 +5775,19 @@
         <v>5587.8758</v>
       </c>
       <c r="G161" t="n">
-        <v>38642.58616284</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6064,18 +5809,19 @@
         <v>3448.2758</v>
       </c>
       <c r="G162" t="n">
-        <v>38642.58616284</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6097,18 +5843,19 @@
         <v>953.8847</v>
       </c>
       <c r="G163" t="n">
-        <v>37688.70146284</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6130,18 +5877,19 @@
         <v>3.9828</v>
       </c>
       <c r="G164" t="n">
-        <v>37692.68426284</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6163,18 +5911,19 @@
         <v>1025.1429</v>
       </c>
       <c r="G165" t="n">
-        <v>36667.54136284</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6196,18 +5945,19 @@
         <v>176.3154</v>
       </c>
       <c r="G166" t="n">
-        <v>36843.85676284</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6229,18 +5979,19 @@
         <v>32.8515</v>
       </c>
       <c r="G167" t="n">
-        <v>36843.85676284</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6262,18 +6013,19 @@
         <v>322.981</v>
       </c>
       <c r="G168" t="n">
-        <v>36520.87576284</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6295,18 +6047,19 @@
         <v>1.11</v>
       </c>
       <c r="G169" t="n">
-        <v>36521.98576284</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6328,18 +6081,19 @@
         <v>314.1699</v>
       </c>
       <c r="G170" t="n">
-        <v>36207.81586284</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6361,18 +6115,19 @@
         <v>114</v>
       </c>
       <c r="G171" t="n">
-        <v>36207.81586284</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6394,18 +6149,19 @@
         <v>8073.0802</v>
       </c>
       <c r="G172" t="n">
-        <v>28134.73566284</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6427,18 +6183,19 @@
         <v>550.6</v>
       </c>
       <c r="G173" t="n">
-        <v>28134.73566284</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6460,18 +6217,19 @@
         <v>798.5999</v>
       </c>
       <c r="G174" t="n">
-        <v>28134.73566284</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6493,18 +6251,19 @@
         <v>2116.2093</v>
       </c>
       <c r="G175" t="n">
-        <v>26018.52636284</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6526,18 +6285,19 @@
         <v>557</v>
       </c>
       <c r="G176" t="n">
-        <v>26018.52636284</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6559,18 +6319,19 @@
         <v>1011.8903</v>
       </c>
       <c r="G177" t="n">
-        <v>26018.52636284</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6592,18 +6353,19 @@
         <v>3354.6491</v>
       </c>
       <c r="G178" t="n">
-        <v>29373.17546284</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6625,18 +6387,19 @@
         <v>3201.2746</v>
       </c>
       <c r="G179" t="n">
-        <v>26171.90086284</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6658,18 +6421,19 @@
         <v>104.3997</v>
       </c>
       <c r="G180" t="n">
-        <v>26067.50116284</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6691,18 +6455,19 @@
         <v>1999.848</v>
       </c>
       <c r="G181" t="n">
-        <v>24067.65316284</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6724,18 +6489,19 @@
         <v>4900.7607</v>
       </c>
       <c r="G182" t="n">
-        <v>19166.89246284</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6757,18 +6523,21 @@
         <v>1174.1672</v>
       </c>
       <c r="G183" t="n">
-        <v>20341.05966284</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6790,18 +6559,19 @@
         <v>5944.4851</v>
       </c>
       <c r="G184" t="n">
-        <v>14396.57456284</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6823,18 +6593,21 @@
         <v>149.7543</v>
       </c>
       <c r="G185" t="n">
-        <v>14546.32886284</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6856,18 +6629,19 @@
         <v>149.7</v>
       </c>
       <c r="G186" t="n">
-        <v>14396.62886284</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6889,18 +6663,19 @@
         <v>149.7155</v>
       </c>
       <c r="G187" t="n">
-        <v>14396.62886284</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6922,18 +6697,19 @@
         <v>139.4</v>
       </c>
       <c r="G188" t="n">
-        <v>14396.62886284</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6955,18 +6731,21 @@
         <v>4967.3</v>
       </c>
       <c r="G189" t="n">
-        <v>9429.328862839997</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6988,18 +6767,21 @@
         <v>1</v>
       </c>
       <c r="G190" t="n">
-        <v>9430.328862839997</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7021,18 +6803,21 @@
         <v>1305.2968</v>
       </c>
       <c r="G191" t="n">
-        <v>8125.032062839997</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7054,18 +6839,21 @@
         <v>1760.821</v>
       </c>
       <c r="G192" t="n">
-        <v>8125.032062839997</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7087,18 +6875,21 @@
         <v>1060.1034</v>
       </c>
       <c r="G193" t="n">
-        <v>9185.135462839997</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7120,18 +6911,19 @@
         <v>1578.8034</v>
       </c>
       <c r="G194" t="n">
-        <v>10763.93886284</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7153,18 +6945,19 @@
         <v>354.5592</v>
       </c>
       <c r="G195" t="n">
-        <v>11118.49806284</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7186,18 +6979,19 @@
         <v>874.6652</v>
       </c>
       <c r="G196" t="n">
-        <v>11993.16326284</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7219,18 +7013,19 @@
         <v>860.2922</v>
       </c>
       <c r="G197" t="n">
-        <v>11132.87106284</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7252,18 +7047,19 @@
         <v>210.4088</v>
       </c>
       <c r="G198" t="n">
-        <v>11132.87106284</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
